--- a/examples/data_inline.xlsx
+++ b/examples/data_inline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HoanLe/Documents/SPECTROview/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F50A342-0412-4548-8D9B-7814ABC53EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B2C591-2F11-814F-948F-FEF04BDC3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2840" windowWidth="28800" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="2840" windowWidth="36460" windowHeight="23160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="21">
   <si>
     <t>X</t>
   </si>
@@ -93,12 +93,15 @@
   <si>
     <t>49pts</t>
   </si>
+  <si>
+    <t>Logx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +113,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -194,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -209,6 +218,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23772,15 +23784,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4DAA12-D9A6-4C89-A6AF-803390C58A71}">
-  <dimension ref="A1:K589"/>
+  <dimension ref="A1:M589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23814,8 +23826,14 @@
       <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -23839,7 +23857,7 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <f>520.7-C2</f>
+        <f t="shared" ref="I2:I65" si="0">520.7-C2</f>
         <v>6.13900000000001</v>
       </c>
       <c r="J2" s="9">
@@ -23849,8 +23867,14 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44.667000000000002</v>
       </c>
@@ -23874,18 +23898,24 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <f>520.7-C3</f>
+        <f t="shared" si="0"/>
         <v>6.1320000000000618</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3:J66" si="0">I3*0.2175</f>
+        <f t="shared" ref="J3:J66" si="1">I3*0.2175</f>
         <v>1.3337100000000135</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>128</v>
+      </c>
+      <c r="M3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>31.584</v>
       </c>
@@ -23911,18 +23941,24 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <f>520.7-C4</f>
+        <f t="shared" si="0"/>
         <v>5.9250000000000682</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2886875000000149</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>9827</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -23946,18 +23982,24 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <f>520.7-C5</f>
+        <f t="shared" si="0"/>
         <v>5.8210000000000264</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2660675000000057</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>38</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>-31.584</v>
       </c>
@@ -23983,18 +24025,24 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <f>520.7-C6</f>
+        <f t="shared" si="0"/>
         <v>5.97300000000007</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2991275000000153</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>93887</v>
+      </c>
+      <c r="M6">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>-44.667000000000002</v>
       </c>
@@ -24018,18 +24066,24 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <f>520.7-C7</f>
+        <f t="shared" si="0"/>
         <v>5.8780000000000427</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2784650000000093</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>192736</v>
+      </c>
+      <c r="M7">
+        <v>38474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>-31.584</v>
       </c>
@@ -24055,18 +24109,24 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <f>520.7-C8</f>
+        <f t="shared" si="0"/>
         <v>5.9390000000000782</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.291732500000017</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -24090,18 +24150,24 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <f>520.7-C9</f>
+        <f t="shared" si="0"/>
         <v>6.0200000000000955</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3093500000000207</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>388</v>
+      </c>
+      <c r="M9">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>31.584</v>
       </c>
@@ -24127,18 +24193,24 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <f>520.7-C10</f>
+        <f t="shared" si="0"/>
         <v>6.0110000000000809</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3073925000000175</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>77</v>
+      </c>
+      <c r="M10">
+        <v>373671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>89.332999999999998</v>
       </c>
@@ -24162,18 +24234,18 @@
         <v>14</v>
       </c>
       <c r="I11">
-        <f>520.7-C11</f>
+        <f t="shared" si="0"/>
         <v>5.7620000000000573</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2532350000000125</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>82.533000000000001</v>
       </c>
@@ -24199,18 +24271,18 @@
         <v>14</v>
       </c>
       <c r="I12">
-        <f>520.7-C12</f>
+        <f t="shared" si="0"/>
         <v>5.8360000000000127</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2693300000000027</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>63.167999999999999</v>
       </c>
@@ -24236,18 +24308,18 @@
         <v>14</v>
       </c>
       <c r="I13">
-        <f>520.7-C13</f>
+        <f t="shared" si="0"/>
         <v>5.8660000000000991</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2758550000000215</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>34.186</v>
       </c>
@@ -24273,18 +24345,18 @@
         <v>14</v>
       </c>
       <c r="I14">
-        <f>520.7-C14</f>
+        <f t="shared" si="0"/>
         <v>5.8390000000000555</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.269982500000012</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -24308,18 +24380,18 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <f>520.7-C15</f>
+        <f t="shared" si="0"/>
         <v>5.9480000000000928</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2936900000000202</v>
       </c>
       <c r="K15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>-34.186</v>
       </c>
@@ -24345,11 +24417,11 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <f>520.7-C16</f>
+        <f t="shared" si="0"/>
         <v>5.8369999999999891</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2695474999999976</v>
       </c>
       <c r="K16" t="s">
@@ -24382,11 +24454,11 @@
         <v>14</v>
       </c>
       <c r="I17">
-        <f>520.7-C17</f>
+        <f t="shared" si="0"/>
         <v>5.7040000000000646</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.240620000000014</v>
       </c>
       <c r="K17" t="s">
@@ -24419,11 +24491,11 @@
         <v>14</v>
       </c>
       <c r="I18">
-        <f>520.7-C18</f>
+        <f t="shared" si="0"/>
         <v>5.664000000000101</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2319200000000219</v>
       </c>
       <c r="K18" t="s">
@@ -24454,11 +24526,11 @@
         <v>14</v>
       </c>
       <c r="I19">
-        <f>520.7-C19</f>
+        <f t="shared" si="0"/>
         <v>5.8830000000000382</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2795525000000083</v>
       </c>
       <c r="K19" t="s">
@@ -24491,11 +24563,11 @@
         <v>14</v>
       </c>
       <c r="I20">
-        <f>520.7-C20</f>
+        <f t="shared" si="0"/>
         <v>5.8730000000000473</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2773775000000103</v>
       </c>
       <c r="K20" t="s">
@@ -24528,11 +24600,11 @@
         <v>14</v>
       </c>
       <c r="I21">
-        <f>520.7-C21</f>
+        <f t="shared" si="0"/>
         <v>5.8849999999999909</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2799874999999981</v>
       </c>
       <c r="K21" t="s">
@@ -24565,11 +24637,11 @@
         <v>14</v>
       </c>
       <c r="I22">
-        <f>520.7-C22</f>
+        <f t="shared" si="0"/>
         <v>5.8000000000000682</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2615000000000147</v>
       </c>
       <c r="K22" t="s">
@@ -24600,11 +24672,11 @@
         <v>14</v>
       </c>
       <c r="I23">
-        <f>520.7-C23</f>
+        <f t="shared" si="0"/>
         <v>5.8300000000000409</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2680250000000088</v>
       </c>
       <c r="K23" t="s">
@@ -24637,11 +24709,11 @@
         <v>14</v>
       </c>
       <c r="I24">
-        <f>520.7-C24</f>
+        <f t="shared" si="0"/>
         <v>5.7789999999999964</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2569324999999991</v>
       </c>
       <c r="K24" t="s">
@@ -24674,11 +24746,11 @@
         <v>14</v>
       </c>
       <c r="I25">
-        <f>520.7-C25</f>
+        <f t="shared" si="0"/>
         <v>5.9400000000000546</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2919500000000119</v>
       </c>
       <c r="K25" t="s">
@@ -24711,11 +24783,11 @@
         <v>14</v>
       </c>
       <c r="I26">
-        <f>520.7-C26</f>
+        <f t="shared" si="0"/>
         <v>5.8180000000000973</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2654150000000211</v>
       </c>
       <c r="K26" t="s">
@@ -24746,11 +24818,11 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <f>520.7-C27</f>
+        <f t="shared" si="0"/>
         <v>5.6560000000000628</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2301800000000136</v>
       </c>
       <c r="K27" t="s">
@@ -24783,11 +24855,11 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <f>520.7-C28</f>
+        <f t="shared" si="0"/>
         <v>5.7010000000000218</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2399675000000048</v>
       </c>
       <c r="K28" t="s">
@@ -24820,11 +24892,11 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <f>520.7-C29</f>
+        <f t="shared" si="0"/>
         <v>5.72300000000007</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2447525000000152</v>
       </c>
       <c r="K29" t="s">
@@ -24857,11 +24929,11 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <f>520.7-C30</f>
+        <f t="shared" si="0"/>
         <v>5.7000000000000455</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2397500000000099</v>
       </c>
       <c r="K30" t="s">
@@ -24894,11 +24966,11 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <f>520.7-C31</f>
+        <f t="shared" si="0"/>
         <v>5.8440000000000509</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.271070000000011</v>
       </c>
       <c r="K31" t="s">
@@ -24931,11 +25003,11 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <f>520.7-C32</f>
+        <f t="shared" si="0"/>
         <v>5.69500000000005</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2386625000000109</v>
       </c>
       <c r="K32" t="s">
@@ -24966,11 +25038,11 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <f>520.7-C33</f>
+        <f t="shared" si="0"/>
         <v>5.6940000000000737</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.238445000000016</v>
       </c>
       <c r="K33" t="s">
@@ -25003,11 +25075,11 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <f>520.7-C34</f>
+        <f t="shared" si="0"/>
         <v>5.8780000000000427</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2784650000000093</v>
       </c>
       <c r="K34" t="s">
@@ -25040,11 +25112,11 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <f>520.7-C35</f>
+        <f t="shared" si="0"/>
         <v>5.58400000000006</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2145200000000131</v>
       </c>
       <c r="K35" t="s">
@@ -25077,11 +25149,11 @@
         <v>15</v>
       </c>
       <c r="I36">
-        <f>520.7-C36</f>
+        <f t="shared" si="0"/>
         <v>5.7820000000000391</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2575850000000084</v>
       </c>
       <c r="K36" t="s">
@@ -25114,11 +25186,11 @@
         <v>15</v>
       </c>
       <c r="I37">
-        <f>520.7-C37</f>
+        <f t="shared" si="0"/>
         <v>5.789000000000101</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.259107500000022</v>
       </c>
       <c r="K37" t="s">
@@ -25151,11 +25223,11 @@
         <v>15</v>
       </c>
       <c r="I38">
-        <f>520.7-C38</f>
+        <f t="shared" si="0"/>
         <v>5.76400000000001</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2536700000000021</v>
       </c>
       <c r="K38" t="s">
@@ -25186,11 +25258,11 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <f>520.7-C39</f>
+        <f t="shared" si="0"/>
         <v>5.58400000000006</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2145200000000131</v>
       </c>
       <c r="K39" t="s">
@@ -25223,11 +25295,11 @@
         <v>15</v>
       </c>
       <c r="I40">
-        <f>520.7-C40</f>
+        <f t="shared" si="0"/>
         <v>5.7140000000000555</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2427950000000121</v>
       </c>
       <c r="K40" t="s">
@@ -25260,11 +25332,11 @@
         <v>15</v>
       </c>
       <c r="I41">
-        <f>520.7-C41</f>
+        <f t="shared" si="0"/>
         <v>5.7740000000000009</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2558450000000001</v>
       </c>
       <c r="K41" t="s">
@@ -25297,11 +25369,11 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <f>520.7-C42</f>
+        <f t="shared" si="0"/>
         <v>5.6290000000000191</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2243075000000041</v>
       </c>
       <c r="K42" t="s">
@@ -25334,11 +25406,11 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <f>520.7-C43</f>
+        <f t="shared" si="0"/>
         <v>5.8900000000001</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2810750000000217</v>
       </c>
       <c r="K43" t="s">
@@ -25371,11 +25443,11 @@
         <v>15</v>
       </c>
       <c r="I44">
-        <f>520.7-C44</f>
+        <f t="shared" si="0"/>
         <v>5.5610000000000355</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2095175000000078</v>
       </c>
       <c r="K44" t="s">
@@ -25406,11 +25478,11 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <f>520.7-C45</f>
+        <f t="shared" si="0"/>
         <v>5.5720000000000027</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2119100000000005</v>
       </c>
       <c r="K45" t="s">
@@ -25443,11 +25515,11 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <f>520.7-C46</f>
+        <f t="shared" si="0"/>
         <v>5.6310000000000855</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2247425000000185</v>
       </c>
       <c r="K46" t="s">
@@ -25480,11 +25552,11 @@
         <v>15</v>
       </c>
       <c r="I47">
-        <f>520.7-C47</f>
+        <f t="shared" si="0"/>
         <v>5.6980000000000928</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2393150000000202</v>
       </c>
       <c r="K47" t="s">
@@ -25517,11 +25589,11 @@
         <v>15</v>
       </c>
       <c r="I48">
-        <f>520.7-C48</f>
+        <f t="shared" si="0"/>
         <v>5.7460000000000946</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2497550000000206</v>
       </c>
       <c r="K48" t="s">
@@ -25554,11 +25626,11 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <f>520.7-C49</f>
+        <f t="shared" si="0"/>
         <v>5.7490000000000236</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2504075000000052</v>
       </c>
       <c r="K49" t="s">
@@ -25591,11 +25663,11 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <f>520.7-C50</f>
+        <f t="shared" si="0"/>
         <v>5.8240000000000691</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2667200000000149</v>
       </c>
       <c r="K50" t="s">
@@ -25626,11 +25698,11 @@
         <v>9</v>
       </c>
       <c r="I51">
-        <f>520.7-C51</f>
+        <f t="shared" si="0"/>
         <v>6.2590000000000146</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3613325000000032</v>
       </c>
       <c r="K51" t="s">
@@ -25661,11 +25733,11 @@
         <v>9</v>
       </c>
       <c r="I52">
-        <f>520.7-C52</f>
+        <f t="shared" si="0"/>
         <v>5.9970000000000709</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3043475000000153</v>
       </c>
       <c r="K52" t="s">
@@ -25698,11 +25770,11 @@
         <v>9</v>
       </c>
       <c r="I53">
-        <f>520.7-C53</f>
+        <f t="shared" si="0"/>
         <v>6.0090000000000146</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3069575000000031</v>
       </c>
       <c r="K53" t="s">
@@ -25733,11 +25805,11 @@
         <v>9</v>
       </c>
       <c r="I54">
-        <f>520.7-C54</f>
+        <f t="shared" si="0"/>
         <v>6.0620000000000118</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3184850000000026</v>
       </c>
       <c r="K54" t="s">
@@ -25770,11 +25842,11 @@
         <v>9</v>
       </c>
       <c r="I55">
-        <f>520.7-C55</f>
+        <f t="shared" si="0"/>
         <v>6.0590000000000828</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3178325000000179</v>
       </c>
       <c r="K55" t="s">
@@ -25805,11 +25877,11 @@
         <v>9</v>
       </c>
       <c r="I56">
-        <f>520.7-C56</f>
+        <f t="shared" si="0"/>
         <v>6.0720000000000027</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3206600000000006</v>
       </c>
       <c r="K56" t="s">
@@ -25842,11 +25914,11 @@
         <v>9</v>
       </c>
       <c r="I57">
-        <f>520.7-C57</f>
+        <f t="shared" si="0"/>
         <v>5.9410000000000309</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2921675000000068</v>
       </c>
       <c r="K57" t="s">
@@ -25877,11 +25949,11 @@
         <v>9</v>
       </c>
       <c r="I58">
-        <f>520.7-C58</f>
+        <f t="shared" si="0"/>
         <v>5.8940000000000055</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2819450000000012</v>
       </c>
       <c r="K58" t="s">
@@ -25914,11 +25986,11 @@
         <v>9</v>
       </c>
       <c r="I59">
-        <f>520.7-C59</f>
+        <f t="shared" si="0"/>
         <v>6.0310000000000628</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3117425000000136</v>
       </c>
       <c r="K59" t="s">
@@ -25949,11 +26021,11 @@
         <v>14</v>
       </c>
       <c r="I60">
-        <f>520.7-C60</f>
+        <f t="shared" si="0"/>
         <v>5.7170000000000982</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2434475000000214</v>
       </c>
       <c r="K60" t="s">
@@ -25986,11 +26058,11 @@
         <v>14</v>
       </c>
       <c r="I61">
-        <f>520.7-C61</f>
+        <f t="shared" si="0"/>
         <v>5.9070000000000391</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2847725000000085</v>
       </c>
       <c r="K61" t="s">
@@ -26023,11 +26095,11 @@
         <v>14</v>
       </c>
       <c r="I62">
-        <f>520.7-C62</f>
+        <f t="shared" si="0"/>
         <v>5.9220000000000255</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2880350000000056</v>
       </c>
       <c r="K62" t="s">
@@ -26060,11 +26132,11 @@
         <v>14</v>
       </c>
       <c r="I63">
-        <f>520.7-C63</f>
+        <f t="shared" si="0"/>
         <v>5.7430000000000518</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2491025000000113</v>
       </c>
       <c r="K63" t="s">
@@ -26095,11 +26167,11 @@
         <v>14</v>
       </c>
       <c r="I64">
-        <f>520.7-C64</f>
+        <f t="shared" si="0"/>
         <v>5.8710000000000946</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2769425000000205</v>
       </c>
       <c r="K64" t="s">
@@ -26132,11 +26204,11 @@
         <v>14</v>
       </c>
       <c r="I65">
-        <f>520.7-C65</f>
+        <f t="shared" si="0"/>
         <v>5.9720000000000937</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2989100000000204</v>
       </c>
       <c r="K65" t="s">
@@ -26169,11 +26241,11 @@
         <v>14</v>
       </c>
       <c r="I66">
-        <f>520.7-C66</f>
+        <f t="shared" ref="I66:I129" si="2">520.7-C66</f>
         <v>5.9640000000000555</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2971700000000121</v>
       </c>
       <c r="K66" t="s">
@@ -26206,11 +26278,11 @@
         <v>14</v>
       </c>
       <c r="I67">
-        <f>520.7-C67</f>
+        <f t="shared" si="2"/>
         <v>5.9350000000000591</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" ref="J67:J130" si="1">I67*0.2175</f>
+        <f t="shared" ref="J67:J130" si="3">I67*0.2175</f>
         <v>1.2908625000000129</v>
       </c>
       <c r="K67" t="s">
@@ -26241,11 +26313,11 @@
         <v>14</v>
       </c>
       <c r="I68">
-        <f>520.7-C68</f>
+        <f t="shared" si="2"/>
         <v>5.8210000000000264</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2660675000000057</v>
       </c>
       <c r="K68" t="s">
@@ -26278,11 +26350,11 @@
         <v>14</v>
       </c>
       <c r="I69">
-        <f>520.7-C69</f>
+        <f t="shared" si="2"/>
         <v>5.8210000000000264</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2660675000000057</v>
       </c>
       <c r="K69" t="s">
@@ -26315,11 +26387,11 @@
         <v>14</v>
       </c>
       <c r="I70">
-        <f>520.7-C70</f>
+        <f t="shared" si="2"/>
         <v>5.9910000000000991</v>
       </c>
       <c r="J70" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3030425000000216</v>
       </c>
       <c r="K70" t="s">
@@ -26352,11 +26424,11 @@
         <v>14</v>
       </c>
       <c r="I71">
-        <f>520.7-C71</f>
+        <f t="shared" si="2"/>
         <v>5.9039999999999964</v>
       </c>
       <c r="J71" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2841199999999993</v>
       </c>
       <c r="K71" t="s">
@@ -26387,11 +26459,11 @@
         <v>14</v>
       </c>
       <c r="I72">
-        <f>520.7-C72</f>
+        <f t="shared" si="2"/>
         <v>5.9690000000000509</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2982575000000112</v>
       </c>
       <c r="K72" t="s">
@@ -26424,11 +26496,11 @@
         <v>14</v>
       </c>
       <c r="I73">
-        <f>520.7-C73</f>
+        <f t="shared" si="2"/>
         <v>5.9420000000000073</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2923850000000017</v>
       </c>
       <c r="K73" t="s">
@@ -26461,11 +26533,11 @@
         <v>14</v>
       </c>
       <c r="I74">
-        <f>520.7-C74</f>
+        <f t="shared" si="2"/>
         <v>5.7540000000000191</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2514950000000042</v>
       </c>
       <c r="K74" t="s">
@@ -26498,11 +26570,11 @@
         <v>14</v>
       </c>
       <c r="I75">
-        <f>520.7-C75</f>
+        <f t="shared" si="2"/>
         <v>5.9700000000000273</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2984750000000058</v>
       </c>
       <c r="K75" t="s">
@@ -26533,11 +26605,11 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <f>520.7-C76</f>
+        <f t="shared" si="2"/>
         <v>5.5910000000000082</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2160425000000017</v>
       </c>
       <c r="K76" t="s">
@@ -26570,11 +26642,11 @@
         <v>15</v>
       </c>
       <c r="I77">
-        <f>520.7-C77</f>
+        <f t="shared" si="2"/>
         <v>5.7470000000000709</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2499725000000155</v>
       </c>
       <c r="K77" t="s">
@@ -26607,11 +26679,11 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <f>520.7-C78</f>
+        <f t="shared" si="2"/>
         <v>5.6180000000000518</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2219150000000112</v>
       </c>
       <c r="K78" t="s">
@@ -26644,11 +26716,11 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <f>520.7-C79</f>
+        <f t="shared" si="2"/>
         <v>5.6779999999999973</v>
       </c>
       <c r="J79" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2349649999999994</v>
       </c>
       <c r="K79" t="s">
@@ -26681,11 +26753,11 @@
         <v>15</v>
       </c>
       <c r="I80">
-        <f>520.7-C80</f>
+        <f t="shared" si="2"/>
         <v>5.7490000000000236</v>
       </c>
       <c r="J80" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2504075000000052</v>
       </c>
       <c r="K80" t="s">
@@ -26718,11 +26790,11 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <f>520.7-C81</f>
+        <f t="shared" si="2"/>
         <v>5.7630000000000337</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2534525000000074</v>
       </c>
       <c r="K81" t="s">
@@ -26753,11 +26825,11 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <f>520.7-C82</f>
+        <f t="shared" si="2"/>
         <v>5.7210000000000036</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2443175000000009</v>
       </c>
       <c r="K82" t="s">
@@ -26790,11 +26862,11 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <f>520.7-C83</f>
+        <f t="shared" si="2"/>
         <v>5.7250000000000227</v>
       </c>
       <c r="J83" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.245187500000005</v>
       </c>
       <c r="K83" t="s">
@@ -26827,11 +26899,11 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <f>520.7-C84</f>
+        <f t="shared" si="2"/>
         <v>5.7000000000000455</v>
       </c>
       <c r="J84" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2397500000000099</v>
       </c>
       <c r="K84" t="s">
@@ -26864,11 +26936,11 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <f>520.7-C85</f>
+        <f t="shared" si="2"/>
         <v>5.69500000000005</v>
       </c>
       <c r="J85" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2386625000000109</v>
       </c>
       <c r="K85" t="s">
@@ -26901,11 +26973,11 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <f>520.7-C86</f>
+        <f t="shared" si="2"/>
         <v>5.8029999999999973</v>
       </c>
       <c r="J86" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2621524999999993</v>
       </c>
       <c r="K86" t="s">
@@ -26938,11 +27010,11 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <f>520.7-C87</f>
+        <f t="shared" si="2"/>
         <v>5.8650000000000091</v>
       </c>
       <c r="J87" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.275637500000002</v>
       </c>
       <c r="K87" t="s">
@@ -26973,11 +27045,11 @@
         <v>15</v>
       </c>
       <c r="I88">
-        <f>520.7-C88</f>
+        <f t="shared" si="2"/>
         <v>5.6440000000000055</v>
       </c>
       <c r="J88" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2275700000000012</v>
       </c>
       <c r="K88" t="s">
@@ -27010,11 +27082,11 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <f>520.7-C89</f>
+        <f t="shared" si="2"/>
         <v>5.8210000000000264</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2660675000000057</v>
       </c>
       <c r="K89" t="s">
@@ -27047,11 +27119,11 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <f>520.7-C90</f>
+        <f t="shared" si="2"/>
         <v>5.6210000000000946</v>
       </c>
       <c r="J90" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2225675000000205</v>
       </c>
       <c r="K90" t="s">
@@ -27084,11 +27156,11 @@
         <v>15</v>
       </c>
       <c r="I91">
-        <f>520.7-C91</f>
+        <f t="shared" si="2"/>
         <v>5.77800000000002</v>
       </c>
       <c r="J91" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2567150000000042</v>
       </c>
       <c r="K91" t="s">
@@ -27121,11 +27193,11 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <f>520.7-C92</f>
+        <f t="shared" si="2"/>
         <v>5.66700000000003</v>
       </c>
       <c r="J92" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2325725000000065</v>
       </c>
       <c r="K92" t="s">
@@ -27158,11 +27230,11 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <f>520.7-C93</f>
+        <f t="shared" si="2"/>
         <v>5.6510000000000673</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2290925000000146</v>
       </c>
       <c r="K93" t="s">
@@ -27193,11 +27265,11 @@
         <v>15</v>
       </c>
       <c r="I94">
-        <f>520.7-C94</f>
+        <f t="shared" si="2"/>
         <v>5.7200000000000273</v>
       </c>
       <c r="J94" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.244100000000006</v>
       </c>
       <c r="K94" t="s">
@@ -27230,11 +27302,11 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <f>520.7-C95</f>
+        <f t="shared" si="2"/>
         <v>5.6829999999999927</v>
       </c>
       <c r="J95" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2360524999999984</v>
       </c>
       <c r="K95" t="s">
@@ -27267,11 +27339,11 @@
         <v>15</v>
       </c>
       <c r="I96">
-        <f>520.7-C96</f>
+        <f t="shared" si="2"/>
         <v>5.6840000000000828</v>
       </c>
       <c r="J96" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.236270000000018</v>
       </c>
       <c r="K96" t="s">
@@ -27304,11 +27376,11 @@
         <v>15</v>
       </c>
       <c r="I97">
-        <f>520.7-C97</f>
+        <f t="shared" si="2"/>
         <v>5.76400000000001</v>
       </c>
       <c r="J97" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2536700000000021</v>
       </c>
       <c r="K97" t="s">
@@ -27341,11 +27413,11 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <f>520.7-C98</f>
+        <f t="shared" si="2"/>
         <v>5.6680000000000064</v>
       </c>
       <c r="J98" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2327900000000014</v>
       </c>
       <c r="K98" t="s">
@@ -27378,11 +27450,11 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <f>520.7-C99</f>
+        <f t="shared" si="2"/>
         <v>5.6890000000000782</v>
       </c>
       <c r="J99" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.237357500000017</v>
       </c>
       <c r="K99" t="s">
@@ -27413,11 +27485,11 @@
         <v>9</v>
       </c>
       <c r="I100">
-        <f>520.7-C100</f>
+        <f t="shared" si="2"/>
         <v>6.1420000000000528</v>
       </c>
       <c r="J100" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3358850000000115</v>
       </c>
       <c r="K100" t="s">
@@ -27448,11 +27520,11 @@
         <v>9</v>
       </c>
       <c r="I101">
-        <f>520.7-C101</f>
+        <f t="shared" si="2"/>
         <v>5.7950000000000728</v>
       </c>
       <c r="J101" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2604125000000159</v>
       </c>
       <c r="K101" t="s">
@@ -27485,11 +27557,11 @@
         <v>9</v>
       </c>
       <c r="I102">
-        <f>520.7-C102</f>
+        <f t="shared" si="2"/>
         <v>5.9190000000000964</v>
       </c>
       <c r="J102" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.287382500000021</v>
       </c>
       <c r="K102" t="s">
@@ -27520,11 +27592,11 @@
         <v>9</v>
       </c>
       <c r="I103">
-        <f>520.7-C103</f>
+        <f t="shared" si="2"/>
         <v>6.0490000000000919</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3156575000000199</v>
       </c>
       <c r="K103" t="s">
@@ -27557,11 +27629,11 @@
         <v>9</v>
       </c>
       <c r="I104">
-        <f>520.7-C104</f>
+        <f t="shared" si="2"/>
         <v>5.9830000000000609</v>
       </c>
       <c r="J104" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3013025000000134</v>
       </c>
       <c r="K104" t="s">
@@ -27592,11 +27664,11 @@
         <v>9</v>
       </c>
       <c r="I105">
-        <f>520.7-C105</f>
+        <f t="shared" si="2"/>
         <v>5.9850000000000136</v>
       </c>
       <c r="J105" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3017375000000029</v>
       </c>
       <c r="K105" t="s">
@@ -27629,11 +27701,11 @@
         <v>9</v>
       </c>
       <c r="I106">
-        <f>520.7-C106</f>
+        <f t="shared" si="2"/>
         <v>5.8940000000000055</v>
       </c>
       <c r="J106" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2819450000000012</v>
       </c>
       <c r="K106" t="s">
@@ -27664,11 +27736,11 @@
         <v>9</v>
       </c>
       <c r="I107">
-        <f>520.7-C107</f>
+        <f t="shared" si="2"/>
         <v>6.0450000000000728</v>
       </c>
       <c r="J107" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3147875000000158</v>
       </c>
       <c r="K107" t="s">
@@ -27701,11 +27773,11 @@
         <v>9</v>
       </c>
       <c r="I108">
-        <f>520.7-C108</f>
+        <f t="shared" si="2"/>
         <v>5.8390000000000555</v>
       </c>
       <c r="J108" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.269982500000012</v>
       </c>
       <c r="K108" t="s">
@@ -27736,11 +27808,11 @@
         <v>14</v>
       </c>
       <c r="I109">
-        <f>520.7-C109</f>
+        <f t="shared" si="2"/>
         <v>5.9279999999999973</v>
       </c>
       <c r="J109" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2893399999999995</v>
       </c>
       <c r="K109" t="s">
@@ -27773,11 +27845,11 @@
         <v>14</v>
       </c>
       <c r="I110">
-        <f>520.7-C110</f>
+        <f t="shared" si="2"/>
         <v>5.8310000000000173</v>
       </c>
       <c r="J110" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2682425000000037</v>
       </c>
       <c r="K110" t="s">
@@ -27810,11 +27882,11 @@
         <v>14</v>
       </c>
       <c r="I111">
-        <f>520.7-C111</f>
+        <f t="shared" si="2"/>
         <v>5.8000000000000682</v>
       </c>
       <c r="J111" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2615000000000147</v>
       </c>
       <c r="K111" t="s">
@@ -27847,11 +27919,11 @@
         <v>14</v>
       </c>
       <c r="I112">
-        <f>520.7-C112</f>
+        <f t="shared" si="2"/>
         <v>5.8310000000000173</v>
       </c>
       <c r="J112" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2682425000000037</v>
       </c>
       <c r="K112" t="s">
@@ -27882,11 +27954,11 @@
         <v>14</v>
       </c>
       <c r="I113">
-        <f>520.7-C113</f>
+        <f t="shared" si="2"/>
         <v>5.8330000000000837</v>
       </c>
       <c r="J113" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2686775000000181</v>
       </c>
       <c r="K113" t="s">
@@ -27919,11 +27991,11 @@
         <v>14</v>
       </c>
       <c r="I114">
-        <f>520.7-C114</f>
+        <f t="shared" si="2"/>
         <v>5.8040000000000873</v>
       </c>
       <c r="J114" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2623700000000191</v>
       </c>
       <c r="K114" t="s">
@@ -27956,11 +28028,11 @@
         <v>14</v>
       </c>
       <c r="I115">
-        <f>520.7-C115</f>
+        <f t="shared" si="2"/>
         <v>5.7480000000000473</v>
       </c>
       <c r="J115" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2501900000000103</v>
       </c>
       <c r="K115" t="s">
@@ -27993,11 +28065,11 @@
         <v>14</v>
       </c>
       <c r="I116">
-        <f>520.7-C116</f>
+        <f t="shared" si="2"/>
         <v>5.90300000000002</v>
       </c>
       <c r="J116" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2839025000000044</v>
       </c>
       <c r="K116" t="s">
@@ -28028,11 +28100,11 @@
         <v>14</v>
       </c>
       <c r="I117">
-        <f>520.7-C117</f>
+        <f t="shared" si="2"/>
         <v>5.9000000000000909</v>
       </c>
       <c r="J117" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2832500000000198</v>
       </c>
       <c r="K117" t="s">
@@ -28065,11 +28137,11 @@
         <v>14</v>
       </c>
       <c r="I118">
-        <f>520.7-C118</f>
+        <f t="shared" si="2"/>
         <v>5.8190000000000737</v>
       </c>
       <c r="J118" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2656325000000159</v>
       </c>
       <c r="K118" t="s">
@@ -28102,11 +28174,11 @@
         <v>14</v>
       </c>
       <c r="I119">
-        <f>520.7-C119</f>
+        <f t="shared" si="2"/>
         <v>5.8029999999999973</v>
       </c>
       <c r="J119" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2621524999999993</v>
       </c>
       <c r="K119" t="s">
@@ -28139,11 +28211,11 @@
         <v>14</v>
       </c>
       <c r="I120">
-        <f>520.7-C120</f>
+        <f t="shared" si="2"/>
         <v>5.8079999999999927</v>
       </c>
       <c r="J120" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2632399999999984</v>
       </c>
       <c r="K120" t="s">
@@ -28174,11 +28246,11 @@
         <v>14</v>
       </c>
       <c r="I121">
-        <f>520.7-C121</f>
+        <f t="shared" si="2"/>
         <v>5.8210000000000264</v>
       </c>
       <c r="J121" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2660675000000057</v>
       </c>
       <c r="K121" t="s">
@@ -28211,11 +28283,11 @@
         <v>14</v>
       </c>
       <c r="I122">
-        <f>520.7-C122</f>
+        <f t="shared" si="2"/>
         <v>5.7620000000000573</v>
       </c>
       <c r="J122" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2532350000000125</v>
       </c>
       <c r="K122" t="s">
@@ -28248,11 +28320,11 @@
         <v>14</v>
       </c>
       <c r="I123">
-        <f>520.7-C123</f>
+        <f t="shared" si="2"/>
         <v>5.7789999999999964</v>
       </c>
       <c r="J123" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2569324999999991</v>
       </c>
       <c r="K123" t="s">
@@ -28285,11 +28357,11 @@
         <v>14</v>
       </c>
       <c r="I124">
-        <f>520.7-C124</f>
+        <f t="shared" si="2"/>
         <v>5.8100000000000591</v>
       </c>
       <c r="J124" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2636750000000128</v>
       </c>
       <c r="K124" t="s">
@@ -28320,11 +28392,11 @@
         <v>15</v>
       </c>
       <c r="I125">
-        <f>520.7-C125</f>
+        <f t="shared" si="2"/>
         <v>5.6349999999999909</v>
       </c>
       <c r="J125" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.225612499999998</v>
       </c>
       <c r="K125" t="s">
@@ -28357,11 +28429,11 @@
         <v>15</v>
       </c>
       <c r="I126">
-        <f>520.7-C126</f>
+        <f t="shared" si="2"/>
         <v>5.5860000000000127</v>
       </c>
       <c r="J126" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2149550000000027</v>
       </c>
       <c r="K126" t="s">
@@ -28394,11 +28466,11 @@
         <v>15</v>
       </c>
       <c r="I127">
-        <f>520.7-C127</f>
+        <f t="shared" si="2"/>
         <v>5.5780000000000882</v>
       </c>
       <c r="J127" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2132150000000193</v>
       </c>
       <c r="K127" t="s">
@@ -28431,11 +28503,11 @@
         <v>15</v>
       </c>
       <c r="I128">
-        <f>520.7-C128</f>
+        <f t="shared" si="2"/>
         <v>5.7800000000000864</v>
       </c>
       <c r="J128" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2571500000000189</v>
       </c>
       <c r="K128" t="s">
@@ -28468,11 +28540,11 @@
         <v>15</v>
       </c>
       <c r="I129">
-        <f>520.7-C129</f>
+        <f t="shared" si="2"/>
         <v>5.7030000000000882</v>
       </c>
       <c r="J129" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2404025000000192</v>
       </c>
       <c r="K129" t="s">
@@ -28505,11 +28577,11 @@
         <v>15</v>
       </c>
       <c r="I130">
-        <f>520.7-C130</f>
+        <f t="shared" ref="I130:I193" si="4">520.7-C130</f>
         <v>5.58400000000006</v>
       </c>
       <c r="J130" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2145200000000131</v>
       </c>
       <c r="K130" t="s">
@@ -28540,11 +28612,11 @@
         <v>15</v>
       </c>
       <c r="I131">
-        <f>520.7-C131</f>
+        <f t="shared" si="4"/>
         <v>5.6880000000001019</v>
       </c>
       <c r="J131" s="9">
-        <f t="shared" ref="J131:J194" si="2">I131*0.2175</f>
+        <f t="shared" ref="J131:J194" si="5">I131*0.2175</f>
         <v>1.2371400000000221</v>
       </c>
       <c r="K131" t="s">
@@ -28577,11 +28649,11 @@
         <v>15</v>
       </c>
       <c r="I132">
-        <f>520.7-C132</f>
+        <f t="shared" si="4"/>
         <v>5.6050000000000182</v>
       </c>
       <c r="J132" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2190875000000039</v>
       </c>
       <c r="K132" t="s">
@@ -28614,11 +28686,11 @@
         <v>15</v>
       </c>
       <c r="I133">
-        <f>520.7-C133</f>
+        <f t="shared" si="4"/>
         <v>5.7620000000000573</v>
       </c>
       <c r="J133" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2532350000000125</v>
       </c>
       <c r="K133" t="s">
@@ -28651,11 +28723,11 @@
         <v>15</v>
       </c>
       <c r="I134">
-        <f>520.7-C134</f>
+        <f t="shared" si="4"/>
         <v>5.7309999999999945</v>
       </c>
       <c r="J134" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2464924999999989</v>
       </c>
       <c r="K134" t="s">
@@ -28688,11 +28760,11 @@
         <v>15</v>
       </c>
       <c r="I135">
-        <f>520.7-C135</f>
+        <f t="shared" si="4"/>
         <v>5.8590000000000373</v>
       </c>
       <c r="J135" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2743325000000081</v>
       </c>
       <c r="K135" t="s">
@@ -28725,11 +28797,11 @@
         <v>15</v>
       </c>
       <c r="I136">
-        <f>520.7-C136</f>
+        <f t="shared" si="4"/>
         <v>5.6940000000000737</v>
       </c>
       <c r="J136" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.238445000000016</v>
       </c>
       <c r="K136" t="s">
@@ -28760,11 +28832,11 @@
         <v>15</v>
       </c>
       <c r="I137">
-        <f>520.7-C137</f>
+        <f t="shared" si="4"/>
         <v>5.6200000000000045</v>
       </c>
       <c r="J137" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2223500000000009</v>
       </c>
       <c r="K137" t="s">
@@ -28797,11 +28869,11 @@
         <v>15</v>
       </c>
       <c r="I138">
-        <f>520.7-C138</f>
+        <f t="shared" si="4"/>
         <v>5.5620000000000118</v>
       </c>
       <c r="J138" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2097350000000027</v>
       </c>
       <c r="K138" t="s">
@@ -28834,11 +28906,11 @@
         <v>15</v>
       </c>
       <c r="I139">
-        <f>520.7-C139</f>
+        <f t="shared" si="4"/>
         <v>5.6900000000000546</v>
       </c>
       <c r="J139" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2375750000000119</v>
       </c>
       <c r="K139" t="s">
@@ -28871,11 +28943,11 @@
         <v>15</v>
       </c>
       <c r="I140">
-        <f>520.7-C140</f>
+        <f t="shared" si="4"/>
         <v>5.59800000000007</v>
       </c>
       <c r="J140" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2175650000000153</v>
       </c>
       <c r="K140" t="s">
@@ -28908,11 +28980,11 @@
         <v>15</v>
       </c>
       <c r="I141">
-        <f>520.7-C141</f>
+        <f t="shared" si="4"/>
         <v>5.59800000000007</v>
       </c>
       <c r="J141" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2175650000000153</v>
       </c>
       <c r="K141" t="s">
@@ -28945,11 +29017,11 @@
         <v>15</v>
       </c>
       <c r="I142">
-        <f>520.7-C142</f>
+        <f t="shared" si="4"/>
         <v>5.7100000000000364</v>
       </c>
       <c r="J142" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2419250000000079</v>
       </c>
       <c r="K142" t="s">
@@ -28980,11 +29052,11 @@
         <v>15</v>
       </c>
       <c r="I143">
-        <f>520.7-C143</f>
+        <f t="shared" si="4"/>
         <v>5.6000000000000227</v>
       </c>
       <c r="J143" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2180000000000049</v>
       </c>
       <c r="K143" t="s">
@@ -29017,11 +29089,11 @@
         <v>15</v>
       </c>
       <c r="I144">
-        <f>520.7-C144</f>
+        <f t="shared" si="4"/>
         <v>5.7380000000000564</v>
       </c>
       <c r="J144" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2480150000000123</v>
       </c>
       <c r="K144" t="s">
@@ -29054,11 +29126,11 @@
         <v>15</v>
       </c>
       <c r="I145">
-        <f>520.7-C145</f>
+        <f t="shared" si="4"/>
         <v>5.7160000000000082</v>
       </c>
       <c r="J145" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2432300000000018</v>
       </c>
       <c r="K145" t="s">
@@ -29091,11 +29163,11 @@
         <v>15</v>
       </c>
       <c r="I146">
-        <f>520.7-C146</f>
+        <f t="shared" si="4"/>
         <v>5.6299999999999955</v>
       </c>
       <c r="J146" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.224524999999999</v>
       </c>
       <c r="K146" t="s">
@@ -29128,11 +29200,11 @@
         <v>15</v>
       </c>
       <c r="I147">
-        <f>520.7-C147</f>
+        <f t="shared" si="4"/>
         <v>5.5790000000000646</v>
       </c>
       <c r="J147" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2134325000000141</v>
       </c>
       <c r="K147" t="s">
@@ -29165,11 +29237,11 @@
         <v>15</v>
       </c>
       <c r="I148">
-        <f>520.7-C148</f>
+        <f t="shared" si="4"/>
         <v>5.6240000000000236</v>
       </c>
       <c r="J148" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2232200000000051</v>
       </c>
       <c r="K148" t="s">
@@ -29200,11 +29272,11 @@
         <v>9</v>
       </c>
       <c r="I149">
-        <f>520.7-C149</f>
+        <f t="shared" si="4"/>
         <v>5.9160000000000537</v>
       </c>
       <c r="J149" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2867300000000117</v>
       </c>
       <c r="K149" t="s">
@@ -29235,11 +29307,11 @@
         <v>9</v>
       </c>
       <c r="I150">
-        <f>520.7-C150</f>
+        <f t="shared" si="4"/>
         <v>5.9460000000000264</v>
       </c>
       <c r="J150" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2932550000000058</v>
       </c>
       <c r="K150" t="s">
@@ -29272,11 +29344,11 @@
         <v>9</v>
       </c>
       <c r="I151">
-        <f>520.7-C151</f>
+        <f t="shared" si="4"/>
         <v>5.8799999999999955</v>
       </c>
       <c r="J151" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.278899999999999</v>
       </c>
       <c r="K151" t="s">
@@ -29307,11 +29379,11 @@
         <v>9</v>
       </c>
       <c r="I152">
-        <f>520.7-C152</f>
+        <f t="shared" si="4"/>
         <v>6.0150000000001</v>
       </c>
       <c r="J152" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3082625000000216</v>
       </c>
       <c r="K152" t="s">
@@ -29344,11 +29416,11 @@
         <v>9</v>
       </c>
       <c r="I153">
-        <f>520.7-C153</f>
+        <f t="shared" si="4"/>
         <v>5.7660000000000764</v>
       </c>
       <c r="J153" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2541050000000167</v>
       </c>
       <c r="K153" t="s">
@@ -29379,11 +29451,11 @@
         <v>9</v>
       </c>
       <c r="I154">
-        <f>520.7-C154</f>
+        <f t="shared" si="4"/>
         <v>5.8220000000000027</v>
       </c>
       <c r="J154" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2662850000000005</v>
       </c>
       <c r="K154" t="s">
@@ -29416,11 +29488,11 @@
         <v>9</v>
       </c>
       <c r="I155">
-        <f>520.7-C155</f>
+        <f t="shared" si="4"/>
         <v>5.8980000000000246</v>
       </c>
       <c r="J155" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2828150000000054</v>
       </c>
       <c r="K155" t="s">
@@ -29451,11 +29523,11 @@
         <v>9</v>
       </c>
       <c r="I156">
-        <f>520.7-C156</f>
+        <f t="shared" si="4"/>
         <v>5.8110000000000355</v>
       </c>
       <c r="J156" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2638925000000076</v>
       </c>
       <c r="K156" t="s">
@@ -29488,11 +29560,11 @@
         <v>9</v>
       </c>
       <c r="I157">
-        <f>520.7-C157</f>
+        <f t="shared" si="4"/>
         <v>5.9530000000000882</v>
       </c>
       <c r="J157" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2947775000000192</v>
       </c>
       <c r="K157" t="s">
@@ -29523,11 +29595,11 @@
         <v>14</v>
       </c>
       <c r="I158">
-        <f>520.7-C158</f>
+        <f t="shared" si="4"/>
         <v>5.6820000000000164</v>
       </c>
       <c r="J158" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2358350000000036</v>
       </c>
       <c r="K158" t="s">
@@ -29560,11 +29632,11 @@
         <v>14</v>
       </c>
       <c r="I159">
-        <f>520.7-C159</f>
+        <f t="shared" si="4"/>
         <v>5.7700000000000955</v>
       </c>
       <c r="J159" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2549750000000208</v>
       </c>
       <c r="K159" t="s">
@@ -29597,11 +29669,11 @@
         <v>14</v>
       </c>
       <c r="I160">
-        <f>520.7-C160</f>
+        <f t="shared" si="4"/>
         <v>5.8160000000000309</v>
       </c>
       <c r="J160" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2649800000000067</v>
       </c>
       <c r="K160" t="s">
@@ -29634,11 +29706,11 @@
         <v>14</v>
       </c>
       <c r="I161">
-        <f>520.7-C161</f>
+        <f t="shared" si="4"/>
         <v>5.8680000000000518</v>
       </c>
       <c r="J161" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2762900000000112</v>
       </c>
       <c r="K161" t="s">
@@ -29669,11 +29741,11 @@
         <v>14</v>
       </c>
       <c r="I162">
-        <f>520.7-C162</f>
+        <f t="shared" si="4"/>
         <v>5.7580000000000382</v>
       </c>
       <c r="J162" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2523650000000084</v>
       </c>
       <c r="K162" t="s">
@@ -29706,11 +29778,11 @@
         <v>14</v>
       </c>
       <c r="I163">
-        <f>520.7-C163</f>
+        <f t="shared" si="4"/>
         <v>5.6840000000000828</v>
       </c>
       <c r="J163" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.236270000000018</v>
       </c>
       <c r="K163" t="s">
@@ -29743,11 +29815,11 @@
         <v>14</v>
       </c>
       <c r="I164">
-        <f>520.7-C164</f>
+        <f t="shared" si="4"/>
         <v>5.8360000000000127</v>
       </c>
       <c r="J164" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2693300000000027</v>
       </c>
       <c r="K164" t="s">
@@ -29780,11 +29852,11 @@
         <v>14</v>
       </c>
       <c r="I165">
-        <f>520.7-C165</f>
+        <f t="shared" si="4"/>
         <v>5.7960000000000491</v>
       </c>
       <c r="J165" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2606300000000106</v>
       </c>
       <c r="K165" t="s">
@@ -29815,11 +29887,11 @@
         <v>14</v>
       </c>
       <c r="I166">
-        <f>520.7-C166</f>
+        <f t="shared" si="4"/>
         <v>5.6860000000000355</v>
       </c>
       <c r="J166" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2367050000000077</v>
       </c>
       <c r="K166" t="s">
@@ -29852,11 +29924,11 @@
         <v>14</v>
       </c>
       <c r="I167">
-        <f>520.7-C167</f>
+        <f t="shared" si="4"/>
         <v>5.6829999999999927</v>
       </c>
       <c r="J167" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2360524999999984</v>
       </c>
       <c r="K167" t="s">
@@ -29889,11 +29961,11 @@
         <v>14</v>
       </c>
       <c r="I168">
-        <f>520.7-C168</f>
+        <f t="shared" si="4"/>
         <v>5.6160000000000991</v>
       </c>
       <c r="J168" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2214800000000217</v>
       </c>
       <c r="K168" t="s">
@@ -29926,11 +29998,11 @@
         <v>14</v>
       </c>
       <c r="I169">
-        <f>520.7-C169</f>
+        <f t="shared" si="4"/>
         <v>5.86099999999999</v>
       </c>
       <c r="J169" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2747674999999978</v>
       </c>
       <c r="K169" t="s">
@@ -29961,11 +30033,11 @@
         <v>14</v>
       </c>
       <c r="I170">
-        <f>520.7-C170</f>
+        <f t="shared" si="4"/>
         <v>5.8540000000000418</v>
       </c>
       <c r="J170" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2732450000000091</v>
       </c>
       <c r="K170" t="s">
@@ -29998,11 +30070,11 @@
         <v>14</v>
       </c>
       <c r="I171">
-        <f>520.7-C171</f>
+        <f t="shared" si="4"/>
         <v>5.7990000000000919</v>
       </c>
       <c r="J171" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2612825000000201</v>
       </c>
       <c r="K171" t="s">
@@ -30035,11 +30107,11 @@
         <v>14</v>
       </c>
       <c r="I172">
-        <f>520.7-C172</f>
+        <f t="shared" si="4"/>
         <v>5.7040000000000646</v>
       </c>
       <c r="J172" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.240620000000014</v>
       </c>
       <c r="K172" t="s">
@@ -30072,11 +30144,11 @@
         <v>14</v>
       </c>
       <c r="I173">
-        <f>520.7-C173</f>
+        <f t="shared" si="4"/>
         <v>5.7280000000000655</v>
       </c>
       <c r="J173" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2458400000000143</v>
       </c>
       <c r="K173" t="s">
@@ -30107,11 +30179,11 @@
         <v>15</v>
       </c>
       <c r="I174">
-        <f>520.7-C174</f>
+        <f t="shared" si="4"/>
         <v>5.6589999999999918</v>
       </c>
       <c r="J174" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2308324999999982</v>
       </c>
       <c r="K174" t="s">
@@ -30144,11 +30216,11 @@
         <v>15</v>
       </c>
       <c r="I175">
-        <f>520.7-C175</f>
+        <f t="shared" si="4"/>
         <v>5.5750000000000455</v>
       </c>
       <c r="J175" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.21256250000001</v>
       </c>
       <c r="K175" t="s">
@@ -30181,11 +30253,11 @@
         <v>15</v>
       </c>
       <c r="I176">
-        <f>520.7-C176</f>
+        <f t="shared" si="4"/>
         <v>5.6059999999999945</v>
       </c>
       <c r="J176" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2193049999999988</v>
       </c>
       <c r="K176" t="s">
@@ -30218,11 +30290,11 @@
         <v>15</v>
       </c>
       <c r="I177">
-        <f>520.7-C177</f>
+        <f t="shared" si="4"/>
         <v>5.61200000000008</v>
       </c>
       <c r="J177" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2206100000000173</v>
       </c>
       <c r="K177" t="s">
@@ -30255,11 +30327,11 @@
         <v>15</v>
       </c>
       <c r="I178">
-        <f>520.7-C178</f>
+        <f t="shared" si="4"/>
         <v>5.5830000000000837</v>
       </c>
       <c r="J178" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2143025000000183</v>
       </c>
       <c r="K178" t="s">
@@ -30292,11 +30364,11 @@
         <v>15</v>
       </c>
       <c r="I179">
-        <f>520.7-C179</f>
+        <f t="shared" si="4"/>
         <v>5.6490000000000009</v>
       </c>
       <c r="J179" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2286575000000002</v>
       </c>
       <c r="K179" t="s">
@@ -30327,11 +30399,11 @@
         <v>15</v>
       </c>
       <c r="I180">
-        <f>520.7-C180</f>
+        <f t="shared" si="4"/>
         <v>5.72300000000007</v>
       </c>
       <c r="J180" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2447525000000152</v>
       </c>
       <c r="K180" t="s">
@@ -30364,11 +30436,11 @@
         <v>15</v>
       </c>
       <c r="I181">
-        <f>520.7-C181</f>
+        <f t="shared" si="4"/>
         <v>5.7390000000000327</v>
       </c>
       <c r="J181" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2482325000000072</v>
       </c>
       <c r="K181" t="s">
@@ -30401,11 +30473,11 @@
         <v>15</v>
       </c>
       <c r="I182">
-        <f>520.7-C182</f>
+        <f t="shared" si="4"/>
         <v>5.6020000000000891</v>
       </c>
       <c r="J182" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2184350000000195</v>
       </c>
       <c r="K182" t="s">
@@ -30438,11 +30510,11 @@
         <v>15</v>
       </c>
       <c r="I183">
-        <f>520.7-C183</f>
+        <f t="shared" si="4"/>
         <v>5.5600000000000591</v>
       </c>
       <c r="J183" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2093000000000129</v>
       </c>
       <c r="K183" t="s">
@@ -30475,11 +30547,11 @@
         <v>15</v>
       </c>
       <c r="I184">
-        <f>520.7-C184</f>
+        <f t="shared" si="4"/>
         <v>5.5760000000000218</v>
       </c>
       <c r="J184" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2127800000000046</v>
       </c>
       <c r="K184" t="s">
@@ -30512,11 +30584,11 @@
         <v>15</v>
       </c>
       <c r="I185">
-        <f>520.7-C185</f>
+        <f t="shared" si="4"/>
         <v>5.6650000000000773</v>
       </c>
       <c r="J185" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2321375000000168</v>
       </c>
       <c r="K185" t="s">
@@ -30547,11 +30619,11 @@
         <v>15</v>
       </c>
       <c r="I186">
-        <f>520.7-C186</f>
+        <f t="shared" si="4"/>
         <v>5.6380000000000337</v>
       </c>
       <c r="J186" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2262650000000073</v>
       </c>
       <c r="K186" t="s">
@@ -30584,11 +30656,11 @@
         <v>15</v>
       </c>
       <c r="I187">
-        <f>520.7-C187</f>
+        <f t="shared" si="4"/>
         <v>5.73599999999999</v>
       </c>
       <c r="J187" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2475799999999979</v>
       </c>
       <c r="K187" t="s">
@@ -30621,11 +30693,11 @@
         <v>15</v>
       </c>
       <c r="I188">
-        <f>520.7-C188</f>
+        <f t="shared" si="4"/>
         <v>5.6900000000000546</v>
       </c>
       <c r="J188" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2375750000000119</v>
       </c>
       <c r="K188" t="s">
@@ -30658,11 +30730,11 @@
         <v>15</v>
       </c>
       <c r="I189">
-        <f>520.7-C189</f>
+        <f t="shared" si="4"/>
         <v>5.6280000000000427</v>
       </c>
       <c r="J189" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2240900000000092</v>
       </c>
       <c r="K189" t="s">
@@ -30695,11 +30767,11 @@
         <v>15</v>
       </c>
       <c r="I190">
-        <f>520.7-C190</f>
+        <f t="shared" si="4"/>
         <v>5.5040000000000191</v>
       </c>
       <c r="J190" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1971200000000042</v>
       </c>
       <c r="K190" t="s">
@@ -30732,11 +30804,11 @@
         <v>15</v>
       </c>
       <c r="I191">
-        <f>520.7-C191</f>
+        <f t="shared" si="4"/>
         <v>5.6090000000000373</v>
       </c>
       <c r="J191" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.219957500000008</v>
       </c>
       <c r="K191" t="s">
@@ -30767,11 +30839,11 @@
         <v>15</v>
       </c>
       <c r="I192">
-        <f>520.7-C192</f>
+        <f t="shared" si="4"/>
         <v>5.6310000000000855</v>
       </c>
       <c r="J192" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2247425000000185</v>
       </c>
       <c r="K192" t="s">
@@ -30804,11 +30876,11 @@
         <v>15</v>
       </c>
       <c r="I193">
-        <f>520.7-C193</f>
+        <f t="shared" si="4"/>
         <v>5.5990000000000464</v>
       </c>
       <c r="J193" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.21778250000001</v>
       </c>
       <c r="K193" t="s">
@@ -30841,11 +30913,11 @@
         <v>15</v>
       </c>
       <c r="I194">
-        <f>520.7-C194</f>
+        <f t="shared" ref="I194:I257" si="6">520.7-C194</f>
         <v>5.5450000000000728</v>
       </c>
       <c r="J194" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2060375000000159</v>
       </c>
       <c r="K194" t="s">
@@ -30878,11 +30950,11 @@
         <v>15</v>
       </c>
       <c r="I195">
-        <f>520.7-C195</f>
+        <f t="shared" si="6"/>
         <v>5.6280000000000427</v>
       </c>
       <c r="J195" s="9">
-        <f t="shared" ref="J195:J258" si="3">I195*0.2175</f>
+        <f t="shared" ref="J195:J258" si="7">I195*0.2175</f>
         <v>1.2240900000000092</v>
       </c>
       <c r="K195" t="s">
@@ -30915,11 +30987,11 @@
         <v>15</v>
       </c>
       <c r="I196">
-        <f>520.7-C196</f>
+        <f t="shared" si="6"/>
         <v>5.6360000000000809</v>
       </c>
       <c r="J196" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2258300000000175</v>
       </c>
       <c r="K196" t="s">
@@ -30952,11 +31024,11 @@
         <v>15</v>
       </c>
       <c r="I197">
-        <f>520.7-C197</f>
+        <f t="shared" si="6"/>
         <v>5.4990000000000236</v>
       </c>
       <c r="J197" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1960325000000052</v>
       </c>
       <c r="K197" t="s">
@@ -30987,11 +31059,11 @@
         <v>9</v>
       </c>
       <c r="I198">
-        <f>520.7-C198</f>
+        <f t="shared" si="6"/>
         <v>6.0660000000000309</v>
       </c>
       <c r="J198" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3193550000000067</v>
       </c>
       <c r="K198" t="s">
@@ -31022,11 +31094,11 @@
         <v>9</v>
       </c>
       <c r="I199">
-        <f>520.7-C199</f>
+        <f t="shared" si="6"/>
         <v>5.87600000000009</v>
       </c>
       <c r="J199" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2780300000000195</v>
       </c>
       <c r="K199" t="s">
@@ -31059,11 +31131,11 @@
         <v>9</v>
       </c>
       <c r="I200">
-        <f>520.7-C200</f>
+        <f t="shared" si="6"/>
         <v>5.9340000000000828</v>
       </c>
       <c r="J200" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.290645000000018</v>
       </c>
       <c r="K200" t="s">
@@ -31094,11 +31166,11 @@
         <v>9</v>
       </c>
       <c r="I201">
-        <f>520.7-C201</f>
+        <f t="shared" si="6"/>
         <v>5.77800000000002</v>
       </c>
       <c r="J201" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2567150000000042</v>
       </c>
       <c r="K201" t="s">
@@ -31131,11 +31203,11 @@
         <v>9</v>
       </c>
       <c r="I202">
-        <f>520.7-C202</f>
+        <f t="shared" si="6"/>
         <v>5.9440000000000737</v>
       </c>
       <c r="J202" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2928200000000161</v>
       </c>
       <c r="K202" t="s">
@@ -31166,11 +31238,11 @@
         <v>9</v>
       </c>
       <c r="I203">
-        <f>520.7-C203</f>
+        <f t="shared" si="6"/>
         <v>5.95900000000006</v>
       </c>
       <c r="J203" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2960825000000131</v>
       </c>
       <c r="K203" t="s">
@@ -31203,11 +31275,11 @@
         <v>9</v>
       </c>
       <c r="I204">
-        <f>520.7-C204</f>
+        <f t="shared" si="6"/>
         <v>5.8140000000000782</v>
       </c>
       <c r="J204" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2645450000000169</v>
       </c>
       <c r="K204" t="s">
@@ -31238,11 +31310,11 @@
         <v>9</v>
       </c>
       <c r="I205">
-        <f>520.7-C205</f>
+        <f t="shared" si="6"/>
         <v>6.0020000000000664</v>
       </c>
       <c r="J205" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3054350000000143</v>
       </c>
       <c r="K205" t="s">
@@ -31275,11 +31347,11 @@
         <v>9</v>
       </c>
       <c r="I206">
-        <f>520.7-C206</f>
+        <f t="shared" si="6"/>
         <v>6.0020000000000664</v>
       </c>
       <c r="J206" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3054350000000143</v>
       </c>
       <c r="K206" t="s">
@@ -31310,11 +31382,11 @@
         <v>14</v>
       </c>
       <c r="I207">
-        <f>520.7-C207</f>
+        <f t="shared" si="6"/>
         <v>5.8870000000000573</v>
       </c>
       <c r="J207" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2804225000000125</v>
       </c>
       <c r="K207" t="s">
@@ -31347,11 +31419,11 @@
         <v>14</v>
       </c>
       <c r="I208">
-        <f>520.7-C208</f>
+        <f t="shared" si="6"/>
         <v>5.7839999999999918</v>
       </c>
       <c r="J208" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2580199999999981</v>
       </c>
       <c r="K208" t="s">
@@ -31384,11 +31456,11 @@
         <v>14</v>
       </c>
       <c r="I209">
-        <f>520.7-C209</f>
+        <f t="shared" si="6"/>
         <v>5.7789999999999964</v>
       </c>
       <c r="J209" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2569324999999991</v>
       </c>
       <c r="K209" t="s">
@@ -31421,11 +31493,11 @@
         <v>14</v>
       </c>
       <c r="I210">
-        <f>520.7-C210</f>
+        <f t="shared" si="6"/>
         <v>5.8300000000000409</v>
       </c>
       <c r="J210" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2680250000000088</v>
       </c>
       <c r="K210" t="s">
@@ -31456,11 +31528,11 @@
         <v>14</v>
       </c>
       <c r="I211">
-        <f>520.7-C211</f>
+        <f t="shared" si="6"/>
         <v>5.8360000000000127</v>
       </c>
       <c r="J211" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2693300000000027</v>
       </c>
       <c r="K211" t="s">
@@ -31493,11 +31565,11 @@
         <v>14</v>
       </c>
       <c r="I212">
-        <f>520.7-C212</f>
+        <f t="shared" si="6"/>
         <v>5.8029999999999973</v>
       </c>
       <c r="J212" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2621524999999993</v>
       </c>
       <c r="K212" t="s">
@@ -31530,11 +31602,11 @@
         <v>14</v>
       </c>
       <c r="I213">
-        <f>520.7-C213</f>
+        <f t="shared" si="6"/>
         <v>5.73700000000008</v>
       </c>
       <c r="J213" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2477975000000174</v>
       </c>
       <c r="K213" t="s">
@@ -31567,11 +31639,11 @@
         <v>14</v>
       </c>
       <c r="I214">
-        <f>520.7-C214</f>
+        <f t="shared" si="6"/>
         <v>5.8070000000000164</v>
       </c>
       <c r="J214" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2630225000000035</v>
       </c>
       <c r="K214" t="s">
@@ -31602,11 +31674,11 @@
         <v>14</v>
       </c>
       <c r="I215">
-        <f>520.7-C215</f>
+        <f t="shared" si="6"/>
         <v>5.7170000000000982</v>
       </c>
       <c r="J215" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2434475000000214</v>
       </c>
       <c r="K215" t="s">
@@ -31639,11 +31711,11 @@
         <v>14</v>
       </c>
       <c r="I216">
-        <f>520.7-C216</f>
+        <f t="shared" si="6"/>
         <v>5.7980000000000018</v>
       </c>
       <c r="J216" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2610650000000003</v>
       </c>
       <c r="K216" t="s">
@@ -31676,11 +31748,11 @@
         <v>14</v>
       </c>
       <c r="I217">
-        <f>520.7-C217</f>
+        <f t="shared" si="6"/>
         <v>5.8740000000000236</v>
       </c>
       <c r="J217" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2775950000000051</v>
       </c>
       <c r="K217" t="s">
@@ -31713,11 +31785,11 @@
         <v>14</v>
       </c>
       <c r="I218">
-        <f>520.7-C218</f>
+        <f t="shared" si="6"/>
         <v>5.6829999999999927</v>
       </c>
       <c r="J218" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2360524999999984</v>
       </c>
       <c r="K218" t="s">
@@ -31748,11 +31820,11 @@
         <v>14</v>
       </c>
       <c r="I219">
-        <f>520.7-C219</f>
+        <f t="shared" si="6"/>
         <v>5.8330000000000837</v>
       </c>
       <c r="J219" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2686775000000181</v>
       </c>
       <c r="K219" t="s">
@@ -31785,11 +31857,11 @@
         <v>14</v>
       </c>
       <c r="I220">
-        <f>520.7-C220</f>
+        <f t="shared" si="6"/>
         <v>5.6800000000000637</v>
       </c>
       <c r="J220" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2354000000000138</v>
       </c>
       <c r="K220" t="s">
@@ -31822,11 +31894,11 @@
         <v>14</v>
       </c>
       <c r="I221">
-        <f>520.7-C221</f>
+        <f t="shared" si="6"/>
         <v>5.82000000000005</v>
       </c>
       <c r="J221" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2658500000000108</v>
       </c>
       <c r="K221" t="s">
@@ -31859,11 +31931,11 @@
         <v>14</v>
       </c>
       <c r="I222">
-        <f>520.7-C222</f>
+        <f t="shared" si="6"/>
         <v>5.8559999999999945</v>
       </c>
       <c r="J222" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2736799999999988</v>
       </c>
       <c r="K222" t="s">
@@ -31894,11 +31966,11 @@
         <v>15</v>
       </c>
       <c r="I223">
-        <f>520.7-C223</f>
+        <f t="shared" si="6"/>
         <v>5.5780000000000882</v>
       </c>
       <c r="J223" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2132150000000193</v>
       </c>
       <c r="K223" t="s">
@@ -31931,11 +32003,11 @@
         <v>15</v>
       </c>
       <c r="I224">
-        <f>520.7-C224</f>
+        <f t="shared" si="6"/>
         <v>5.5970000000000937</v>
       </c>
       <c r="J224" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2173475000000205</v>
       </c>
       <c r="K224" t="s">
@@ -31968,11 +32040,11 @@
         <v>15</v>
       </c>
       <c r="I225">
-        <f>520.7-C225</f>
+        <f t="shared" si="6"/>
         <v>5.5210000000000719</v>
       </c>
       <c r="J225" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2008175000000156</v>
       </c>
       <c r="K225" t="s">
@@ -32005,11 +32077,11 @@
         <v>15</v>
       </c>
       <c r="I226">
-        <f>520.7-C226</f>
+        <f t="shared" si="6"/>
         <v>5.6490000000000009</v>
       </c>
       <c r="J226" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2286575000000002</v>
       </c>
       <c r="K226" t="s">
@@ -32042,11 +32114,11 @@
         <v>15</v>
       </c>
       <c r="I227">
-        <f>520.7-C227</f>
+        <f t="shared" si="6"/>
         <v>5.6349999999999909</v>
       </c>
       <c r="J227" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.225612499999998</v>
       </c>
       <c r="K227" t="s">
@@ -32079,11 +32151,11 @@
         <v>15</v>
       </c>
       <c r="I228">
-        <f>520.7-C228</f>
+        <f t="shared" si="6"/>
         <v>5.6460000000000719</v>
       </c>
       <c r="J228" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2280050000000156</v>
       </c>
       <c r="K228" t="s">
@@ -32114,11 +32186,11 @@
         <v>15</v>
       </c>
       <c r="I229">
-        <f>520.7-C229</f>
+        <f t="shared" si="6"/>
         <v>5.7320000000000846</v>
       </c>
       <c r="J229" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2467100000000184</v>
       </c>
       <c r="K229" t="s">
@@ -32151,11 +32223,11 @@
         <v>15</v>
       </c>
       <c r="I230">
-        <f>520.7-C230</f>
+        <f t="shared" si="6"/>
         <v>5.8090000000000828</v>
       </c>
       <c r="J230" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2634575000000179</v>
       </c>
       <c r="K230" t="s">
@@ -32188,11 +32260,11 @@
         <v>15</v>
       </c>
       <c r="I231">
-        <f>520.7-C231</f>
+        <f t="shared" si="6"/>
         <v>5.7010000000000218</v>
       </c>
       <c r="J231" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2399675000000048</v>
       </c>
       <c r="K231" t="s">
@@ -32225,11 +32297,11 @@
         <v>15</v>
       </c>
       <c r="I232">
-        <f>520.7-C232</f>
+        <f t="shared" si="6"/>
         <v>5.7839999999999918</v>
       </c>
       <c r="J232" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2580199999999981</v>
       </c>
       <c r="K232" t="s">
@@ -32262,11 +32334,11 @@
         <v>15</v>
       </c>
       <c r="I233">
-        <f>520.7-C233</f>
+        <f t="shared" si="6"/>
         <v>5.5620000000000118</v>
       </c>
       <c r="J233" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2097350000000027</v>
       </c>
       <c r="K233" t="s">
@@ -32299,11 +32371,11 @@
         <v>15</v>
       </c>
       <c r="I234">
-        <f>520.7-C234</f>
+        <f t="shared" si="6"/>
         <v>5.5720000000000027</v>
       </c>
       <c r="J234" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2119100000000005</v>
       </c>
       <c r="K234" t="s">
@@ -32334,11 +32406,11 @@
         <v>15</v>
       </c>
       <c r="I235">
-        <f>520.7-C235</f>
+        <f t="shared" si="6"/>
         <v>5.6380000000000337</v>
       </c>
       <c r="J235" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2262650000000073</v>
       </c>
       <c r="K235" t="s">
@@ -32371,11 +32443,11 @@
         <v>15</v>
       </c>
       <c r="I236">
-        <f>520.7-C236</f>
+        <f t="shared" si="6"/>
         <v>5.7309999999999945</v>
       </c>
       <c r="J236" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2464924999999989</v>
       </c>
       <c r="K236" t="s">
@@ -32408,11 +32480,11 @@
         <v>15</v>
       </c>
       <c r="I237">
-        <f>520.7-C237</f>
+        <f t="shared" si="6"/>
         <v>5.7320000000000846</v>
       </c>
       <c r="J237" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2467100000000184</v>
       </c>
       <c r="K237" t="s">
@@ -32445,11 +32517,11 @@
         <v>15</v>
       </c>
       <c r="I238">
-        <f>520.7-C238</f>
+        <f t="shared" si="6"/>
         <v>5.6230000000000473</v>
       </c>
       <c r="J238" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2230025000000102</v>
       </c>
       <c r="K238" t="s">
@@ -32482,11 +32554,11 @@
         <v>15</v>
       </c>
       <c r="I239">
-        <f>520.7-C239</f>
+        <f t="shared" si="6"/>
         <v>5.5690000000000737</v>
       </c>
       <c r="J239" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2112575000000161</v>
       </c>
       <c r="K239" t="s">
@@ -32519,11 +32591,11 @@
         <v>15</v>
       </c>
       <c r="I240">
-        <f>520.7-C240</f>
+        <f t="shared" si="6"/>
         <v>5.7180000000000746</v>
       </c>
       <c r="J240" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2436650000000162</v>
       </c>
       <c r="K240" t="s">
@@ -32554,11 +32626,11 @@
         <v>15</v>
       </c>
       <c r="I241">
-        <f>520.7-C241</f>
+        <f t="shared" si="6"/>
         <v>5.5579999999999927</v>
       </c>
       <c r="J241" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2088649999999983</v>
       </c>
       <c r="K241" t="s">
@@ -32591,11 +32663,11 @@
         <v>15</v>
       </c>
       <c r="I242">
-        <f>520.7-C242</f>
+        <f t="shared" si="6"/>
         <v>5.5120000000000573</v>
       </c>
       <c r="J242" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1988600000000125</v>
       </c>
       <c r="K242" t="s">
@@ -32628,11 +32700,11 @@
         <v>15</v>
       </c>
       <c r="I243">
-        <f>520.7-C243</f>
+        <f t="shared" si="6"/>
         <v>5.5289999999999964</v>
       </c>
       <c r="J243" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2025574999999993</v>
       </c>
       <c r="K243" t="s">
@@ -32665,11 +32737,11 @@
         <v>15</v>
       </c>
       <c r="I244">
-        <f>520.7-C244</f>
+        <f t="shared" si="6"/>
         <v>5.6539999999999964</v>
       </c>
       <c r="J244" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2297449999999992</v>
       </c>
       <c r="K244" t="s">
@@ -32702,11 +32774,11 @@
         <v>15</v>
       </c>
       <c r="I245">
-        <f>520.7-C245</f>
+        <f t="shared" si="6"/>
         <v>5.4350000000000591</v>
       </c>
       <c r="J245" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1821125000000128</v>
       </c>
       <c r="K245" t="s">
@@ -32739,11 +32811,11 @@
         <v>15</v>
       </c>
       <c r="I246">
-        <f>520.7-C246</f>
+        <f t="shared" si="6"/>
         <v>5.6980000000000928</v>
       </c>
       <c r="J246" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2393150000000202</v>
       </c>
       <c r="K246" t="s">
@@ -32774,11 +32846,11 @@
         <v>9</v>
       </c>
       <c r="I247">
-        <f>520.7-C247</f>
+        <f t="shared" si="6"/>
         <v>6.0830000000000837</v>
       </c>
       <c r="J247" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3230525000000182</v>
       </c>
       <c r="K247" t="s">
@@ -32809,11 +32881,11 @@
         <v>9</v>
       </c>
       <c r="I248">
-        <f>520.7-C248</f>
+        <f t="shared" si="6"/>
         <v>5.9710000000000036</v>
       </c>
       <c r="J248" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2986925000000007</v>
       </c>
       <c r="K248" t="s">
@@ -32846,11 +32918,11 @@
         <v>9</v>
       </c>
       <c r="I249">
-        <f>520.7-C249</f>
+        <f t="shared" si="6"/>
         <v>5.9840000000000373</v>
       </c>
       <c r="J249" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.301520000000008</v>
       </c>
       <c r="K249" t="s">
@@ -32881,11 +32953,11 @@
         <v>9</v>
       </c>
       <c r="I250">
-        <f>520.7-C250</f>
+        <f t="shared" si="6"/>
         <v>5.8600000000000136</v>
       </c>
       <c r="J250" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.274550000000003</v>
       </c>
       <c r="K250" t="s">
@@ -32918,11 +32990,11 @@
         <v>9</v>
       </c>
       <c r="I251">
-        <f>520.7-C251</f>
+        <f t="shared" si="6"/>
         <v>5.9780000000000655</v>
       </c>
       <c r="J251" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3002150000000143</v>
       </c>
       <c r="K251" t="s">
@@ -32953,11 +33025,11 @@
         <v>9</v>
       </c>
       <c r="I252">
-        <f>520.7-C252</f>
+        <f t="shared" si="6"/>
         <v>5.9430000000000973</v>
       </c>
       <c r="J252" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2926025000000212</v>
       </c>
       <c r="K252" t="s">
@@ -32990,11 +33062,11 @@
         <v>9</v>
       </c>
       <c r="I253">
-        <f>520.7-C253</f>
+        <f t="shared" si="6"/>
         <v>5.9160000000000537</v>
       </c>
       <c r="J253" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2867300000000117</v>
       </c>
       <c r="K253" t="s">
@@ -33025,11 +33097,11 @@
         <v>9</v>
       </c>
       <c r="I254">
-        <f>520.7-C254</f>
+        <f t="shared" si="6"/>
         <v>5.98700000000008</v>
       </c>
       <c r="J254" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3021725000000175</v>
       </c>
       <c r="K254" t="s">
@@ -33062,11 +33134,11 @@
         <v>9</v>
       </c>
       <c r="I255">
-        <f>520.7-C255</f>
+        <f t="shared" si="6"/>
         <v>5.8770000000000664</v>
       </c>
       <c r="J255" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2782475000000144</v>
       </c>
       <c r="K255" t="s">
@@ -33097,11 +33169,11 @@
         <v>14</v>
       </c>
       <c r="I256">
-        <f>520.7-C256</f>
+        <f t="shared" si="6"/>
         <v>5.9210000000000491</v>
       </c>
       <c r="J256" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2878175000000107</v>
       </c>
       <c r="K256" t="s">
@@ -33134,11 +33206,11 @@
         <v>14</v>
       </c>
       <c r="I257">
-        <f>520.7-C257</f>
+        <f t="shared" si="6"/>
         <v>5.8810000000000855</v>
       </c>
       <c r="J257" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2791175000000186</v>
       </c>
       <c r="K257" t="s">
@@ -33171,11 +33243,11 @@
         <v>14</v>
       </c>
       <c r="I258">
-        <f>520.7-C258</f>
+        <f t="shared" ref="I258:I321" si="8">520.7-C258</f>
         <v>5.8570000000000846</v>
       </c>
       <c r="J258" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2738975000000183</v>
       </c>
       <c r="K258" t="s">
@@ -33208,11 +33280,11 @@
         <v>14</v>
       </c>
       <c r="I259">
-        <f>520.7-C259</f>
+        <f t="shared" si="8"/>
         <v>5.9000000000000909</v>
       </c>
       <c r="J259" s="9">
-        <f t="shared" ref="J259:J322" si="4">I259*0.2175</f>
+        <f t="shared" ref="J259:J322" si="9">I259*0.2175</f>
         <v>1.2832500000000198</v>
       </c>
       <c r="K259" t="s">
@@ -33243,11 +33315,11 @@
         <v>14</v>
       </c>
       <c r="I260">
-        <f>520.7-C260</f>
+        <f t="shared" si="8"/>
         <v>5.8550000000000182</v>
       </c>
       <c r="J260" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2734625000000039</v>
       </c>
       <c r="K260" t="s">
@@ -33280,11 +33352,11 @@
         <v>14</v>
       </c>
       <c r="I261">
-        <f>520.7-C261</f>
+        <f t="shared" si="8"/>
         <v>5.7210000000000036</v>
       </c>
       <c r="J261" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2443175000000009</v>
       </c>
       <c r="K261" t="s">
@@ -33317,11 +33389,11 @@
         <v>14</v>
       </c>
       <c r="I262">
-        <f>520.7-C262</f>
+        <f t="shared" si="8"/>
         <v>5.8790000000000191</v>
       </c>
       <c r="J262" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2786825000000042</v>
       </c>
       <c r="K262" t="s">
@@ -33354,11 +33426,11 @@
         <v>14</v>
       </c>
       <c r="I263">
-        <f>520.7-C263</f>
+        <f t="shared" si="8"/>
         <v>5.8300000000000409</v>
       </c>
       <c r="J263" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2680250000000088</v>
       </c>
       <c r="K263" t="s">
@@ -33389,11 +33461,11 @@
         <v>14</v>
       </c>
       <c r="I264">
-        <f>520.7-C264</f>
+        <f t="shared" si="8"/>
         <v>5.8910000000000764</v>
       </c>
       <c r="J264" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2812925000000166</v>
       </c>
       <c r="K264" t="s">
@@ -33426,11 +33498,11 @@
         <v>14</v>
       </c>
       <c r="I265">
-        <f>520.7-C265</f>
+        <f t="shared" si="8"/>
         <v>5.9580000000000837</v>
       </c>
       <c r="J265" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2958650000000183</v>
       </c>
       <c r="K265" t="s">
@@ -33463,11 +33535,11 @@
         <v>14</v>
       </c>
       <c r="I266">
-        <f>520.7-C266</f>
+        <f t="shared" si="8"/>
         <v>5.8290000000000646</v>
       </c>
       <c r="J266" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.267807500000014</v>
       </c>
       <c r="K266" t="s">
@@ -33500,11 +33572,11 @@
         <v>14</v>
       </c>
       <c r="I267">
-        <f>520.7-C267</f>
+        <f t="shared" si="8"/>
         <v>5.8730000000000473</v>
       </c>
       <c r="J267" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2773775000000103</v>
       </c>
       <c r="K267" t="s">
@@ -33535,11 +33607,11 @@
         <v>14</v>
       </c>
       <c r="I268">
-        <f>520.7-C268</f>
+        <f t="shared" si="8"/>
         <v>5.8440000000000509</v>
       </c>
       <c r="J268" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.271070000000011</v>
       </c>
       <c r="K268" t="s">
@@ -33572,11 +33644,11 @@
         <v>14</v>
       </c>
       <c r="I269">
-        <f>520.7-C269</f>
+        <f t="shared" si="8"/>
         <v>5.8780000000000427</v>
       </c>
       <c r="J269" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2784650000000093</v>
       </c>
       <c r="K269" t="s">
@@ -33609,11 +33681,11 @@
         <v>14</v>
       </c>
       <c r="I270">
-        <f>520.7-C270</f>
+        <f t="shared" si="8"/>
         <v>5.8020000000000209</v>
       </c>
       <c r="J270" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2619350000000045</v>
       </c>
       <c r="K270" t="s">
@@ -33646,11 +33718,11 @@
         <v>14</v>
       </c>
       <c r="I271">
-        <f>520.7-C271</f>
+        <f t="shared" si="8"/>
         <v>5.7980000000000018</v>
       </c>
       <c r="J271" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2610650000000003</v>
       </c>
       <c r="K271" t="s">
@@ -33681,11 +33753,11 @@
         <v>15</v>
       </c>
       <c r="I272">
-        <f>520.7-C272</f>
+        <f t="shared" si="8"/>
         <v>5.7970000000000255</v>
       </c>
       <c r="J272" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2608475000000055</v>
       </c>
       <c r="K272" t="s">
@@ -33718,11 +33790,11 @@
         <v>15</v>
       </c>
       <c r="I273">
-        <f>520.7-C273</f>
+        <f t="shared" si="8"/>
         <v>5.5750000000000455</v>
       </c>
       <c r="J273" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.21256250000001</v>
       </c>
       <c r="K273" t="s">
@@ -33755,11 +33827,11 @@
         <v>15</v>
       </c>
       <c r="I274">
-        <f>520.7-C274</f>
+        <f t="shared" si="8"/>
         <v>5.6380000000000337</v>
       </c>
       <c r="J274" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2262650000000073</v>
       </c>
       <c r="K274" t="s">
@@ -33792,11 +33864,11 @@
         <v>15</v>
       </c>
       <c r="I275">
-        <f>520.7-C275</f>
+        <f t="shared" si="8"/>
         <v>5.7690000000000055</v>
       </c>
       <c r="J275" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2547575000000011</v>
       </c>
       <c r="K275" t="s">
@@ -33829,11 +33901,11 @@
         <v>15</v>
       </c>
       <c r="I276">
-        <f>520.7-C276</f>
+        <f t="shared" si="8"/>
         <v>5.6900000000000546</v>
       </c>
       <c r="J276" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2375750000000119</v>
       </c>
       <c r="K276" t="s">
@@ -33866,11 +33938,11 @@
         <v>15</v>
       </c>
       <c r="I277">
-        <f>520.7-C277</f>
+        <f t="shared" si="8"/>
         <v>5.5880000000000791</v>
       </c>
       <c r="J277" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2153900000000173</v>
       </c>
       <c r="K277" t="s">
@@ -33901,11 +33973,11 @@
         <v>15</v>
       </c>
       <c r="I278">
-        <f>520.7-C278</f>
+        <f t="shared" si="8"/>
         <v>5.7660000000000764</v>
       </c>
       <c r="J278" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2541050000000167</v>
       </c>
       <c r="K278" t="s">
@@ -33938,11 +34010,11 @@
         <v>15</v>
       </c>
       <c r="I279">
-        <f>520.7-C279</f>
+        <f t="shared" si="8"/>
         <v>5.6650000000000773</v>
       </c>
       <c r="J279" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2321375000000168</v>
       </c>
       <c r="K279" t="s">
@@ -33975,11 +34047,11 @@
         <v>15</v>
       </c>
       <c r="I280">
-        <f>520.7-C280</f>
+        <f t="shared" si="8"/>
         <v>5.5049999999999955</v>
       </c>
       <c r="J280" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1973374999999991</v>
       </c>
       <c r="K280" t="s">
@@ -34012,11 +34084,11 @@
         <v>15</v>
       </c>
       <c r="I281">
-        <f>520.7-C281</f>
+        <f t="shared" si="8"/>
         <v>5.75100000000009</v>
       </c>
       <c r="J281" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2508425000000196</v>
       </c>
       <c r="K281" t="s">
@@ -34049,11 +34121,11 @@
         <v>15</v>
       </c>
       <c r="I282">
-        <f>520.7-C282</f>
+        <f t="shared" si="8"/>
         <v>5.54200000000003</v>
       </c>
       <c r="J282" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2053850000000066</v>
       </c>
       <c r="K282" t="s">
@@ -34086,11 +34158,11 @@
         <v>15</v>
       </c>
       <c r="I283">
-        <f>520.7-C283</f>
+        <f t="shared" si="8"/>
         <v>5.6140000000000327</v>
       </c>
       <c r="J283" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.221045000000007</v>
       </c>
       <c r="K283" t="s">
@@ -34121,11 +34193,11 @@
         <v>15</v>
       </c>
       <c r="I284">
-        <f>520.7-C284</f>
+        <f t="shared" si="8"/>
         <v>5.58400000000006</v>
       </c>
       <c r="J284" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2145200000000131</v>
       </c>
       <c r="K284" t="s">
@@ -34158,11 +34230,11 @@
         <v>15</v>
       </c>
       <c r="I285">
-        <f>520.7-C285</f>
+        <f t="shared" si="8"/>
         <v>5.6560000000000628</v>
       </c>
       <c r="J285" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2301800000000136</v>
       </c>
       <c r="K285" t="s">
@@ -34195,11 +34267,11 @@
         <v>15</v>
       </c>
       <c r="I286">
-        <f>520.7-C286</f>
+        <f t="shared" si="8"/>
         <v>5.7000000000000455</v>
       </c>
       <c r="J286" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2397500000000099</v>
       </c>
       <c r="K286" t="s">
@@ -34232,11 +34304,11 @@
         <v>15</v>
       </c>
       <c r="I287">
-        <f>520.7-C287</f>
+        <f t="shared" si="8"/>
         <v>5.5890000000000555</v>
       </c>
       <c r="J287" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2156075000000122</v>
       </c>
       <c r="K287" t="s">
@@ -34269,11 +34341,11 @@
         <v>15</v>
       </c>
       <c r="I288">
-        <f>520.7-C288</f>
+        <f t="shared" si="8"/>
         <v>5.6070000000000846</v>
       </c>
       <c r="J288" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2195225000000185</v>
       </c>
       <c r="K288" t="s">
@@ -34306,11 +34378,11 @@
         <v>15</v>
       </c>
       <c r="I289">
-        <f>520.7-C289</f>
+        <f t="shared" si="8"/>
         <v>5.5300000000000864</v>
       </c>
       <c r="J289" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2027750000000188</v>
       </c>
       <c r="K289" t="s">
@@ -34341,11 +34413,11 @@
         <v>15</v>
       </c>
       <c r="I290">
-        <f>520.7-C290</f>
+        <f t="shared" si="8"/>
         <v>5.4270000000000209</v>
       </c>
       <c r="J290" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1803725000000045</v>
       </c>
       <c r="K290" t="s">
@@ -34378,11 +34450,11 @@
         <v>15</v>
       </c>
       <c r="I291">
-        <f>520.7-C291</f>
+        <f t="shared" si="8"/>
         <v>5.5550000000000637</v>
       </c>
       <c r="J291" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2082125000000139</v>
       </c>
       <c r="K291" t="s">
@@ -34415,11 +34487,11 @@
         <v>15</v>
       </c>
       <c r="I292">
-        <f>520.7-C292</f>
+        <f t="shared" si="8"/>
         <v>5.61200000000008</v>
       </c>
       <c r="J292" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2206100000000173</v>
       </c>
       <c r="K292" t="s">
@@ -34452,11 +34524,11 @@
         <v>15</v>
       </c>
       <c r="I293">
-        <f>520.7-C293</f>
+        <f t="shared" si="8"/>
         <v>5.6020000000000891</v>
       </c>
       <c r="J293" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2184350000000195</v>
       </c>
       <c r="K293" t="s">
@@ -34489,11 +34561,11 @@
         <v>15</v>
       </c>
       <c r="I294">
-        <f>520.7-C294</f>
+        <f t="shared" si="8"/>
         <v>5.5529999999999973</v>
       </c>
       <c r="J294" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2077774999999995</v>
       </c>
       <c r="K294" t="s">
@@ -34526,11 +34598,11 @@
         <v>15</v>
       </c>
       <c r="I295">
-        <f>520.7-C295</f>
+        <f t="shared" si="8"/>
         <v>5.4920000000000755</v>
       </c>
       <c r="J295" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1945100000000164</v>
       </c>
       <c r="K295" t="s">
@@ -34561,11 +34633,11 @@
         <v>9</v>
       </c>
       <c r="I296">
-        <f>520.7-C296</f>
+        <f t="shared" si="8"/>
         <v>5.9940000000000282</v>
       </c>
       <c r="J296" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.303695000000006</v>
       </c>
       <c r="K296" t="s">
@@ -34596,11 +34668,11 @@
         <v>9</v>
       </c>
       <c r="I297">
-        <f>520.7-C297</f>
+        <f t="shared" si="8"/>
         <v>6.0540000000000873</v>
       </c>
       <c r="J297" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.3167450000000189</v>
       </c>
       <c r="K297" t="s">
@@ -34633,11 +34705,11 @@
         <v>9</v>
       </c>
       <c r="I298">
-        <f>520.7-C298</f>
+        <f t="shared" si="8"/>
         <v>5.875</v>
       </c>
       <c r="J298" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2778125</v>
       </c>
       <c r="K298" t="s">
@@ -34668,11 +34740,11 @@
         <v>9</v>
       </c>
       <c r="I299">
-        <f>520.7-C299</f>
+        <f t="shared" si="8"/>
         <v>6.0049999999999955</v>
       </c>
       <c r="J299" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.306087499999999</v>
       </c>
       <c r="K299" t="s">
@@ -34705,11 +34777,11 @@
         <v>9</v>
       </c>
       <c r="I300">
-        <f>520.7-C300</f>
+        <f t="shared" si="8"/>
         <v>5.9210000000000491</v>
       </c>
       <c r="J300" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2878175000000107</v>
       </c>
       <c r="K300" t="s">
@@ -34740,11 +34812,11 @@
         <v>9</v>
       </c>
       <c r="I301">
-        <f>520.7-C301</f>
+        <f t="shared" si="8"/>
         <v>5.8720000000000709</v>
       </c>
       <c r="J301" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2771600000000154</v>
       </c>
       <c r="K301" t="s">
@@ -34777,11 +34849,11 @@
         <v>9</v>
       </c>
       <c r="I302">
-        <f>520.7-C302</f>
+        <f t="shared" si="8"/>
         <v>5.8670000000000755</v>
       </c>
       <c r="J302" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2760725000000164</v>
       </c>
       <c r="K302" t="s">
@@ -34812,11 +34884,11 @@
         <v>9</v>
       </c>
       <c r="I303">
-        <f>520.7-C303</f>
+        <f t="shared" si="8"/>
         <v>5.95900000000006</v>
       </c>
       <c r="J303" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2960825000000131</v>
       </c>
       <c r="K303" t="s">
@@ -34849,11 +34921,11 @@
         <v>9</v>
       </c>
       <c r="I304">
-        <f>520.7-C304</f>
+        <f t="shared" si="8"/>
         <v>5.9100000000000819</v>
       </c>
       <c r="J304" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2854250000000178</v>
       </c>
       <c r="K304" t="s">
@@ -34884,11 +34956,11 @@
         <v>14</v>
       </c>
       <c r="I305">
-        <f>520.7-C305</f>
+        <f t="shared" si="8"/>
         <v>5.6430000000000291</v>
       </c>
       <c r="J305" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2273525000000063</v>
       </c>
       <c r="K305" t="s">
@@ -34921,11 +34993,11 @@
         <v>14</v>
       </c>
       <c r="I306">
-        <f>520.7-C306</f>
+        <f t="shared" si="8"/>
         <v>5.8420000000000982</v>
       </c>
       <c r="J306" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2706350000000213</v>
       </c>
       <c r="K306" t="s">
@@ -34958,11 +35030,11 @@
         <v>14</v>
       </c>
       <c r="I307">
-        <f>520.7-C307</f>
+        <f t="shared" si="8"/>
         <v>5.7690000000000055</v>
       </c>
       <c r="J307" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2547575000000011</v>
       </c>
       <c r="K307" t="s">
@@ -34995,11 +35067,11 @@
         <v>14</v>
       </c>
       <c r="I308">
-        <f>520.7-C308</f>
+        <f t="shared" si="8"/>
         <v>5.8020000000000209</v>
       </c>
       <c r="J308" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2619350000000045</v>
       </c>
       <c r="K308" t="s">
@@ -35030,11 +35102,11 @@
         <v>14</v>
       </c>
       <c r="I309">
-        <f>520.7-C309</f>
+        <f t="shared" si="8"/>
         <v>5.8770000000000664</v>
       </c>
       <c r="J309" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2782475000000144</v>
       </c>
       <c r="K309" t="s">
@@ -35067,11 +35139,11 @@
         <v>14</v>
       </c>
       <c r="I310">
-        <f>520.7-C310</f>
+        <f t="shared" si="8"/>
         <v>5.7690000000000055</v>
       </c>
       <c r="J310" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2547575000000011</v>
       </c>
       <c r="K310" t="s">
@@ -35104,11 +35176,11 @@
         <v>14</v>
       </c>
       <c r="I311">
-        <f>520.7-C311</f>
+        <f t="shared" si="8"/>
         <v>5.7690000000000055</v>
       </c>
       <c r="J311" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2547575000000011</v>
       </c>
       <c r="K311" t="s">
@@ -35141,11 +35213,11 @@
         <v>14</v>
       </c>
       <c r="I312">
-        <f>520.7-C312</f>
+        <f t="shared" si="8"/>
         <v>5.8490000000000464</v>
       </c>
       <c r="J312" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.27215750000001</v>
       </c>
       <c r="K312" t="s">
@@ -35176,11 +35248,11 @@
         <v>14</v>
       </c>
       <c r="I313">
-        <f>520.7-C313</f>
+        <f t="shared" si="8"/>
         <v>5.88900000000001</v>
       </c>
       <c r="J313" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2808575000000022</v>
       </c>
       <c r="K313" t="s">
@@ -35213,11 +35285,11 @@
         <v>14</v>
       </c>
       <c r="I314">
-        <f>520.7-C314</f>
+        <f t="shared" si="8"/>
         <v>5.8150000000000546</v>
       </c>
       <c r="J314" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2647625000000118</v>
       </c>
       <c r="K314" t="s">
@@ -35250,11 +35322,11 @@
         <v>14</v>
       </c>
       <c r="I315">
-        <f>520.7-C315</f>
+        <f t="shared" si="8"/>
         <v>5.6500000000000909</v>
       </c>
       <c r="J315" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2288750000000197</v>
       </c>
       <c r="K315" t="s">
@@ -35287,11 +35359,11 @@
         <v>14</v>
       </c>
       <c r="I316">
-        <f>520.7-C316</f>
+        <f t="shared" si="8"/>
         <v>5.7930000000000064</v>
       </c>
       <c r="J316" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2599775000000013</v>
       </c>
       <c r="K316" t="s">
@@ -35322,11 +35394,11 @@
         <v>14</v>
       </c>
       <c r="I317">
-        <f>520.7-C317</f>
+        <f t="shared" si="8"/>
         <v>5.8319999999999936</v>
       </c>
       <c r="J317" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2684599999999986</v>
       </c>
       <c r="K317" t="s">
@@ -35359,11 +35431,11 @@
         <v>14</v>
       </c>
       <c r="I318">
-        <f>520.7-C318</f>
+        <f t="shared" si="8"/>
         <v>5.7940000000000964</v>
       </c>
       <c r="J318" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.260195000000021</v>
       </c>
       <c r="K318" t="s">
@@ -35396,11 +35468,11 @@
         <v>14</v>
       </c>
       <c r="I319">
-        <f>520.7-C319</f>
+        <f t="shared" si="8"/>
         <v>5.7750000000000909</v>
       </c>
       <c r="J319" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2560625000000198</v>
       </c>
       <c r="K319" t="s">
@@ -35433,11 +35505,11 @@
         <v>14</v>
       </c>
       <c r="I320">
-        <f>520.7-C320</f>
+        <f t="shared" si="8"/>
         <v>5.7630000000000337</v>
       </c>
       <c r="J320" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2534525000000074</v>
       </c>
       <c r="K320" t="s">
@@ -35468,11 +35540,11 @@
         <v>15</v>
       </c>
       <c r="I321">
-        <f>520.7-C321</f>
+        <f t="shared" si="8"/>
         <v>5.6030000000000655</v>
       </c>
       <c r="J321" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2186525000000141</v>
       </c>
       <c r="K321" t="s">
@@ -35505,11 +35577,11 @@
         <v>15</v>
       </c>
       <c r="I322">
-        <f>520.7-C322</f>
+        <f t="shared" ref="I322:I385" si="10">520.7-C322</f>
         <v>5.6620000000000346</v>
       </c>
       <c r="J322" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.2314850000000075</v>
       </c>
       <c r="K322" t="s">
@@ -35542,11 +35614,11 @@
         <v>15</v>
       </c>
       <c r="I323">
-        <f>520.7-C323</f>
+        <f t="shared" si="10"/>
         <v>5.47300000000007</v>
       </c>
       <c r="J323" s="9">
-        <f t="shared" ref="J323:J386" si="5">I323*0.2175</f>
+        <f t="shared" ref="J323:J386" si="11">I323*0.2175</f>
         <v>1.1903775000000152</v>
       </c>
       <c r="K323" t="s">
@@ -35579,11 +35651,11 @@
         <v>15</v>
       </c>
       <c r="I324">
-        <f>520.7-C324</f>
+        <f t="shared" si="10"/>
         <v>5.5860000000000127</v>
       </c>
       <c r="J324" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2149550000000027</v>
       </c>
       <c r="K324" t="s">
@@ -35616,11 +35688,11 @@
         <v>15</v>
       </c>
       <c r="I325">
-        <f>520.7-C325</f>
+        <f t="shared" si="10"/>
         <v>5.5220000000000482</v>
       </c>
       <c r="J325" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2010350000000105</v>
       </c>
       <c r="K325" t="s">
@@ -35653,11 +35725,11 @@
         <v>15</v>
       </c>
       <c r="I326">
-        <f>520.7-C326</f>
+        <f t="shared" si="10"/>
         <v>5.5940000000000509</v>
       </c>
       <c r="J326" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.216695000000011</v>
       </c>
       <c r="K326" t="s">
@@ -35688,11 +35760,11 @@
         <v>15</v>
       </c>
       <c r="I327">
-        <f>520.7-C327</f>
+        <f t="shared" si="10"/>
         <v>5.6349999999999909</v>
       </c>
       <c r="J327" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.225612499999998</v>
       </c>
       <c r="K327" t="s">
@@ -35725,11 +35797,11 @@
         <v>15</v>
       </c>
       <c r="I328">
-        <f>520.7-C328</f>
+        <f t="shared" si="10"/>
         <v>5.5780000000000882</v>
       </c>
       <c r="J328" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2132150000000193</v>
       </c>
       <c r="K328" t="s">
@@ -35762,11 +35834,11 @@
         <v>15</v>
       </c>
       <c r="I329">
-        <f>520.7-C329</f>
+        <f t="shared" si="10"/>
         <v>5.5769999999999982</v>
       </c>
       <c r="J329" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2129974999999995</v>
       </c>
       <c r="K329" t="s">
@@ -35799,11 +35871,11 @@
         <v>15</v>
       </c>
       <c r="I330">
-        <f>520.7-C330</f>
+        <f t="shared" si="10"/>
         <v>5.7130000000000791</v>
       </c>
       <c r="J330" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2425775000000172</v>
       </c>
       <c r="K330" t="s">
@@ -35836,11 +35908,11 @@
         <v>15</v>
       </c>
       <c r="I331">
-        <f>520.7-C331</f>
+        <f t="shared" si="10"/>
         <v>5.7220000000000937</v>
       </c>
       <c r="J331" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2445350000000204</v>
       </c>
       <c r="K331" t="s">
@@ -35873,11 +35945,11 @@
         <v>15</v>
       </c>
       <c r="I332">
-        <f>520.7-C332</f>
+        <f t="shared" si="10"/>
         <v>5.5130000000000337</v>
       </c>
       <c r="J332" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1990775000000073</v>
       </c>
       <c r="K332" t="s">
@@ -35908,11 +35980,11 @@
         <v>15</v>
       </c>
       <c r="I333">
-        <f>520.7-C333</f>
+        <f t="shared" si="10"/>
         <v>5.7750000000000909</v>
       </c>
       <c r="J333" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2560625000000198</v>
       </c>
       <c r="K333" t="s">
@@ -35945,11 +36017,11 @@
         <v>15</v>
       </c>
       <c r="I334">
-        <f>520.7-C334</f>
+        <f t="shared" si="10"/>
         <v>5.6610000000000582</v>
       </c>
       <c r="J334" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2312675000000126</v>
       </c>
       <c r="K334" t="s">
@@ -35982,11 +36054,11 @@
         <v>15</v>
       </c>
       <c r="I335">
-        <f>520.7-C335</f>
+        <f t="shared" si="10"/>
         <v>5.4890000000000327</v>
       </c>
       <c r="J335" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1938575000000071</v>
       </c>
       <c r="K335" t="s">
@@ -36019,11 +36091,11 @@
         <v>15</v>
       </c>
       <c r="I336">
-        <f>520.7-C336</f>
+        <f t="shared" si="10"/>
         <v>5.6450000000000955</v>
       </c>
       <c r="J336" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2277875000000207</v>
       </c>
       <c r="K336" t="s">
@@ -36056,11 +36128,11 @@
         <v>15</v>
       </c>
       <c r="I337">
-        <f>520.7-C337</f>
+        <f t="shared" si="10"/>
         <v>5.4680000000000746</v>
       </c>
       <c r="J337" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1892900000000162</v>
       </c>
       <c r="K337" t="s">
@@ -36093,11 +36165,11 @@
         <v>15</v>
       </c>
       <c r="I338">
-        <f>520.7-C338</f>
+        <f t="shared" si="10"/>
         <v>5.6009999999999991</v>
       </c>
       <c r="J338" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2182174999999997</v>
       </c>
       <c r="K338" t="s">
@@ -36128,11 +36200,11 @@
         <v>15</v>
       </c>
       <c r="I339">
-        <f>520.7-C339</f>
+        <f t="shared" si="10"/>
         <v>5.50100000000009</v>
       </c>
       <c r="J339" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1964675000000196</v>
       </c>
       <c r="K339" t="s">
@@ -36165,11 +36237,11 @@
         <v>15</v>
       </c>
       <c r="I340">
-        <f>520.7-C340</f>
+        <f t="shared" si="10"/>
         <v>5.6460000000000719</v>
       </c>
       <c r="J340" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2280050000000156</v>
       </c>
       <c r="K340" t="s">
@@ -36202,11 +36274,11 @@
         <v>15</v>
       </c>
       <c r="I341">
-        <f>520.7-C341</f>
+        <f t="shared" si="10"/>
         <v>5.7150000000000318</v>
       </c>
       <c r="J341" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.243012500000007</v>
       </c>
       <c r="K341" t="s">
@@ -36239,11 +36311,11 @@
         <v>15</v>
       </c>
       <c r="I342">
-        <f>520.7-C342</f>
+        <f t="shared" si="10"/>
         <v>5.6150000000000091</v>
       </c>
       <c r="J342" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2212625000000019</v>
       </c>
       <c r="K342" t="s">
@@ -36276,11 +36348,11 @@
         <v>15</v>
       </c>
       <c r="I343">
-        <f>520.7-C343</f>
+        <f t="shared" si="10"/>
         <v>5.5630000000001019</v>
       </c>
       <c r="J343" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2099525000000222</v>
       </c>
       <c r="K343" t="s">
@@ -36313,11 +36385,11 @@
         <v>15</v>
       </c>
       <c r="I344">
-        <f>520.7-C344</f>
+        <f t="shared" si="10"/>
         <v>5.5380000000000109</v>
       </c>
       <c r="J344" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2045150000000024</v>
       </c>
       <c r="K344" t="s">
@@ -36348,11 +36420,11 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <f>520.7-C345</f>
+        <f t="shared" si="10"/>
         <v>5.9900000000000091</v>
       </c>
       <c r="J345" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.3028250000000019</v>
       </c>
       <c r="K345" t="s">
@@ -36383,11 +36455,11 @@
         <v>9</v>
       </c>
       <c r="I346">
-        <f>520.7-C346</f>
+        <f t="shared" si="10"/>
         <v>5.84800000000007</v>
       </c>
       <c r="J346" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2719400000000152</v>
       </c>
       <c r="K346" t="s">
@@ -36420,11 +36492,11 @@
         <v>9</v>
       </c>
       <c r="I347">
-        <f>520.7-C347</f>
+        <f t="shared" si="10"/>
         <v>5.914000000000101</v>
       </c>
       <c r="J347" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2862950000000219</v>
       </c>
       <c r="K347" t="s">
@@ -36455,11 +36527,11 @@
         <v>9</v>
       </c>
       <c r="I348">
-        <f>520.7-C348</f>
+        <f t="shared" si="10"/>
         <v>5.9480000000000928</v>
       </c>
       <c r="J348" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2936900000000202</v>
       </c>
       <c r="K348" t="s">
@@ -36492,11 +36564,11 @@
         <v>9</v>
       </c>
       <c r="I349">
-        <f>520.7-C349</f>
+        <f t="shared" si="10"/>
         <v>6.0240000000000009</v>
       </c>
       <c r="J349" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.3102200000000002</v>
       </c>
       <c r="K349" t="s">
@@ -36527,11 +36599,11 @@
         <v>9</v>
       </c>
       <c r="I350">
-        <f>520.7-C350</f>
+        <f t="shared" si="10"/>
         <v>5.8550000000000182</v>
       </c>
       <c r="J350" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2734625000000039</v>
       </c>
       <c r="K350" t="s">
@@ -36564,11 +36636,11 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f>520.7-C351</f>
+        <f t="shared" si="10"/>
         <v>5.9670000000000982</v>
       </c>
       <c r="J351" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2978225000000214</v>
       </c>
       <c r="K351" t="s">
@@ -36599,11 +36671,11 @@
         <v>9</v>
       </c>
       <c r="I352">
-        <f>520.7-C352</f>
+        <f t="shared" si="10"/>
         <v>5.9329999999999927</v>
       </c>
       <c r="J352" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2904274999999985</v>
       </c>
       <c r="K352" t="s">
@@ -36636,11 +36708,11 @@
         <v>9</v>
       </c>
       <c r="I353">
-        <f>520.7-C353</f>
+        <f t="shared" si="10"/>
         <v>6.0890000000000555</v>
       </c>
       <c r="J353" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.3243575000000121</v>
       </c>
       <c r="K353" t="s">
@@ -36671,11 +36743,11 @@
         <v>14</v>
       </c>
       <c r="I354">
-        <f>520.7-C354</f>
+        <f t="shared" si="10"/>
         <v>5.7540000000000191</v>
       </c>
       <c r="J354" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2514950000000042</v>
       </c>
       <c r="K354" t="s">
@@ -36708,11 +36780,11 @@
         <v>14</v>
       </c>
       <c r="I355">
-        <f>520.7-C355</f>
+        <f t="shared" si="10"/>
         <v>5.7650000000001</v>
       </c>
       <c r="J355" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2538875000000218</v>
       </c>
       <c r="K355" t="s">
@@ -36745,11 +36817,11 @@
         <v>14</v>
       </c>
       <c r="I356">
-        <f>520.7-C356</f>
+        <f t="shared" si="10"/>
         <v>5.8269999999999982</v>
       </c>
       <c r="J356" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2673724999999996</v>
       </c>
       <c r="K356" t="s">
@@ -36782,11 +36854,11 @@
         <v>14</v>
       </c>
       <c r="I357">
-        <f>520.7-C357</f>
+        <f t="shared" si="10"/>
         <v>5.8780000000000427</v>
       </c>
       <c r="J357" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2784650000000093</v>
       </c>
       <c r="K357" t="s">
@@ -36817,11 +36889,11 @@
         <v>14</v>
       </c>
       <c r="I358">
-        <f>520.7-C358</f>
+        <f t="shared" si="10"/>
         <v>5.8420000000000982</v>
       </c>
       <c r="J358" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2706350000000213</v>
       </c>
       <c r="K358" t="s">
@@ -36854,11 +36926,11 @@
         <v>14</v>
       </c>
       <c r="I359">
-        <f>520.7-C359</f>
+        <f t="shared" si="10"/>
         <v>5.6940000000000737</v>
       </c>
       <c r="J359" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.238445000000016</v>
       </c>
       <c r="K359" t="s">
@@ -36891,11 +36963,11 @@
         <v>14</v>
       </c>
       <c r="I360">
-        <f>520.7-C360</f>
+        <f t="shared" si="10"/>
         <v>5.8450000000000273</v>
       </c>
       <c r="J360" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2712875000000059</v>
       </c>
       <c r="K360" t="s">
@@ -36928,11 +37000,11 @@
         <v>14</v>
       </c>
       <c r="I361">
-        <f>520.7-C361</f>
+        <f t="shared" si="10"/>
         <v>5.8000000000000682</v>
       </c>
       <c r="J361" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2615000000000147</v>
       </c>
       <c r="K361" t="s">
@@ -36963,11 +37035,11 @@
         <v>14</v>
       </c>
       <c r="I362">
-        <f>520.7-C362</f>
+        <f t="shared" si="10"/>
         <v>5.8130000000001019</v>
       </c>
       <c r="J362" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2643275000000223</v>
       </c>
       <c r="K362" t="s">
@@ -37000,11 +37072,11 @@
         <v>14</v>
       </c>
       <c r="I363">
-        <f>520.7-C363</f>
+        <f t="shared" si="10"/>
         <v>5.6980000000000928</v>
       </c>
       <c r="J363" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2393150000000202</v>
       </c>
       <c r="K363" t="s">
@@ -37037,11 +37109,11 @@
         <v>14</v>
       </c>
       <c r="I364">
-        <f>520.7-C364</f>
+        <f t="shared" si="10"/>
         <v>5.9080000000000155</v>
       </c>
       <c r="J364" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2849900000000034</v>
       </c>
       <c r="K364" t="s">
@@ -37074,11 +37146,11 @@
         <v>14</v>
       </c>
       <c r="I365">
-        <f>520.7-C365</f>
+        <f t="shared" si="10"/>
         <v>5.7069999999999936</v>
       </c>
       <c r="J365" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2412724999999987</v>
       </c>
       <c r="K365" t="s">
@@ -37109,11 +37181,11 @@
         <v>14</v>
       </c>
       <c r="I366">
-        <f>520.7-C366</f>
+        <f t="shared" si="10"/>
         <v>5.88900000000001</v>
       </c>
       <c r="J366" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2808575000000022</v>
       </c>
       <c r="K366" t="s">
@@ -37146,11 +37218,11 @@
         <v>14</v>
       </c>
       <c r="I367">
-        <f>520.7-C367</f>
+        <f t="shared" si="10"/>
         <v>5.8300000000000409</v>
       </c>
       <c r="J367" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2680250000000088</v>
       </c>
       <c r="K367" t="s">
@@ -37183,11 +37255,11 @@
         <v>14</v>
       </c>
       <c r="I368">
-        <f>520.7-C368</f>
+        <f t="shared" si="10"/>
         <v>5.7150000000000318</v>
       </c>
       <c r="J368" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.243012500000007</v>
       </c>
       <c r="K368" t="s">
@@ -37220,11 +37292,11 @@
         <v>14</v>
       </c>
       <c r="I369">
-        <f>520.7-C369</f>
+        <f t="shared" si="10"/>
         <v>5.8120000000000118</v>
       </c>
       <c r="J369" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2641100000000025</v>
       </c>
       <c r="K369" t="s">
@@ -37255,11 +37327,11 @@
         <v>15</v>
       </c>
       <c r="I370">
-        <f>520.7-C370</f>
+        <f t="shared" si="10"/>
         <v>5.5970000000000937</v>
       </c>
       <c r="J370" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2173475000000205</v>
       </c>
       <c r="K370" t="s">
@@ -37292,11 +37364,11 @@
         <v>15</v>
       </c>
       <c r="I371">
-        <f>520.7-C371</f>
+        <f t="shared" si="10"/>
         <v>5.45900000000006</v>
       </c>
       <c r="J371" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.187332500000013</v>
       </c>
       <c r="K371" t="s">
@@ -37329,11 +37401,11 @@
         <v>15</v>
       </c>
       <c r="I372">
-        <f>520.7-C372</f>
+        <f t="shared" si="10"/>
         <v>5.6930000000000973</v>
       </c>
       <c r="J372" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2382275000000211</v>
       </c>
       <c r="K372" t="s">
@@ -37366,11 +37438,11 @@
         <v>15</v>
       </c>
       <c r="I373">
-        <f>520.7-C373</f>
+        <f t="shared" si="10"/>
         <v>5.4410000000000309</v>
       </c>
       <c r="J373" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.1834175000000067</v>
       </c>
       <c r="K373" t="s">
@@ -37403,11 +37475,11 @@
         <v>15</v>
       </c>
       <c r="I374">
-        <f>520.7-C374</f>
+        <f t="shared" si="10"/>
         <v>5.6850000000000591</v>
       </c>
       <c r="J374" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2364875000000128</v>
       </c>
       <c r="K374" t="s">
@@ -37440,11 +37512,11 @@
         <v>15</v>
       </c>
       <c r="I375">
-        <f>520.7-C375</f>
+        <f t="shared" si="10"/>
         <v>5.5210000000000719</v>
       </c>
       <c r="J375" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2008175000000156</v>
       </c>
       <c r="K375" t="s">
@@ -37475,11 +37547,11 @@
         <v>15</v>
       </c>
       <c r="I376">
-        <f>520.7-C376</f>
+        <f t="shared" si="10"/>
         <v>5.6620000000000346</v>
       </c>
       <c r="J376" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2314850000000075</v>
       </c>
       <c r="K376" t="s">
@@ -37512,11 +37584,11 @@
         <v>15</v>
       </c>
       <c r="I377">
-        <f>520.7-C377</f>
+        <f t="shared" si="10"/>
         <v>5.7560000000000855</v>
       </c>
       <c r="J377" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2519300000000186</v>
       </c>
       <c r="K377" t="s">
@@ -37549,11 +37621,11 @@
         <v>15</v>
       </c>
       <c r="I378">
-        <f>520.7-C378</f>
+        <f t="shared" si="10"/>
         <v>5.6940000000000737</v>
       </c>
       <c r="J378" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.238445000000016</v>
       </c>
       <c r="K378" t="s">
@@ -37586,11 +37658,11 @@
         <v>15</v>
       </c>
       <c r="I379">
-        <f>520.7-C379</f>
+        <f t="shared" si="10"/>
         <v>5.7080000000000837</v>
       </c>
       <c r="J379" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2414900000000182</v>
       </c>
       <c r="K379" t="s">
@@ -37623,11 +37695,11 @@
         <v>15</v>
       </c>
       <c r="I380">
-        <f>520.7-C380</f>
+        <f t="shared" si="10"/>
         <v>5.6580000000000155</v>
       </c>
       <c r="J380" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2306150000000033</v>
       </c>
       <c r="K380" t="s">
@@ -37660,11 +37732,11 @@
         <v>15</v>
       </c>
       <c r="I381">
-        <f>520.7-C381</f>
+        <f t="shared" si="10"/>
         <v>5.7850000000000819</v>
       </c>
       <c r="J381" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2582375000000179</v>
       </c>
       <c r="K381" t="s">
@@ -37695,11 +37767,11 @@
         <v>15</v>
       </c>
       <c r="I382">
-        <f>520.7-C382</f>
+        <f t="shared" si="10"/>
         <v>5.8400000000000318</v>
       </c>
       <c r="J382" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2702000000000069</v>
       </c>
       <c r="K382" t="s">
@@ -37732,11 +37804,11 @@
         <v>15</v>
       </c>
       <c r="I383">
-        <f>520.7-C383</f>
+        <f t="shared" si="10"/>
         <v>5.5640000000000782</v>
       </c>
       <c r="J383" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2101700000000171</v>
       </c>
       <c r="K383" t="s">
@@ -37769,11 +37841,11 @@
         <v>15</v>
       </c>
       <c r="I384">
-        <f>520.7-C384</f>
+        <f t="shared" si="10"/>
         <v>5.6080000000000609</v>
       </c>
       <c r="J384" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2197400000000131</v>
       </c>
       <c r="K384" t="s">
@@ -37806,11 +37878,11 @@
         <v>15</v>
       </c>
       <c r="I385">
-        <f>520.7-C385</f>
+        <f t="shared" si="10"/>
         <v>5.69500000000005</v>
       </c>
       <c r="J385" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.2386625000000109</v>
       </c>
       <c r="K385" t="s">
@@ -37843,11 +37915,11 @@
         <v>15</v>
       </c>
       <c r="I386">
-        <f>520.7-C386</f>
+        <f t="shared" ref="I386:I449" si="12">520.7-C386</f>
         <v>5.7150000000000318</v>
       </c>
       <c r="J386" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.243012500000007</v>
       </c>
       <c r="K386" t="s">
@@ -37880,11 +37952,11 @@
         <v>15</v>
       </c>
       <c r="I387">
-        <f>520.7-C387</f>
+        <f t="shared" si="12"/>
         <v>5.5710000000000264</v>
       </c>
       <c r="J387" s="9">
-        <f t="shared" ref="J387:J450" si="6">I387*0.2175</f>
+        <f t="shared" ref="J387:J450" si="13">I387*0.2175</f>
         <v>1.2116925000000058</v>
       </c>
       <c r="K387" t="s">
@@ -37915,11 +37987,11 @@
         <v>15</v>
       </c>
       <c r="I388">
-        <f>520.7-C388</f>
+        <f t="shared" si="12"/>
         <v>5.7040000000000646</v>
       </c>
       <c r="J388" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.240620000000014</v>
       </c>
       <c r="K388" t="s">
@@ -37952,11 +38024,11 @@
         <v>15</v>
       </c>
       <c r="I389">
-        <f>520.7-C389</f>
+        <f t="shared" si="12"/>
         <v>5.4830000000000609</v>
       </c>
       <c r="J389" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.1925525000000132</v>
       </c>
       <c r="K389" t="s">
@@ -37989,11 +38061,11 @@
         <v>15</v>
       </c>
       <c r="I390">
-        <f>520.7-C390</f>
+        <f t="shared" si="12"/>
         <v>5.62600000000009</v>
       </c>
       <c r="J390" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2236550000000195</v>
       </c>
       <c r="K390" t="s">
@@ -38026,11 +38098,11 @@
         <v>15</v>
       </c>
       <c r="I391">
-        <f>520.7-C391</f>
+        <f t="shared" si="12"/>
         <v>5.5230000000000246</v>
       </c>
       <c r="J391" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2012525000000054</v>
       </c>
       <c r="K391" t="s">
@@ -38063,11 +38135,11 @@
         <v>15</v>
       </c>
       <c r="I392">
-        <f>520.7-C392</f>
+        <f t="shared" si="12"/>
         <v>5.6570000000000391</v>
       </c>
       <c r="J392" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2303975000000085</v>
       </c>
       <c r="K392" t="s">
@@ -38100,11 +38172,11 @@
         <v>15</v>
       </c>
       <c r="I393">
-        <f>520.7-C393</f>
+        <f t="shared" si="12"/>
         <v>5.6200000000000045</v>
       </c>
       <c r="J393" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2223500000000009</v>
       </c>
       <c r="K393" t="s">
@@ -38135,11 +38207,11 @@
         <v>9</v>
       </c>
       <c r="I394">
-        <f>520.7-C394</f>
+        <f t="shared" si="12"/>
         <v>6.0460000000000491</v>
       </c>
       <c r="J394" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3150050000000106</v>
       </c>
       <c r="K394" t="s">
@@ -38170,11 +38242,11 @@
         <v>9</v>
       </c>
       <c r="I395">
-        <f>520.7-C395</f>
+        <f t="shared" si="12"/>
         <v>5.9300000000000637</v>
       </c>
       <c r="J395" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2897750000000139</v>
       </c>
       <c r="K395" t="s">
@@ -38207,11 +38279,11 @@
         <v>9</v>
       </c>
       <c r="I396">
-        <f>520.7-C396</f>
+        <f t="shared" si="12"/>
         <v>5.8680000000000518</v>
       </c>
       <c r="J396" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2762900000000112</v>
       </c>
       <c r="K396" t="s">
@@ -38242,11 +38314,11 @@
         <v>9</v>
       </c>
       <c r="I397">
-        <f>520.7-C397</f>
+        <f t="shared" si="12"/>
         <v>5.8980000000000246</v>
       </c>
       <c r="J397" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2828150000000054</v>
       </c>
       <c r="K397" t="s">
@@ -38279,11 +38351,11 @@
         <v>9</v>
       </c>
       <c r="I398">
-        <f>520.7-C398</f>
+        <f t="shared" si="12"/>
         <v>5.9260000000000446</v>
       </c>
       <c r="J398" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2889050000000097</v>
       </c>
       <c r="K398" t="s">
@@ -38314,11 +38386,11 @@
         <v>9</v>
       </c>
       <c r="I399">
-        <f>520.7-C399</f>
+        <f t="shared" si="12"/>
         <v>6.0570000000000164</v>
       </c>
       <c r="J399" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3173975000000036</v>
       </c>
       <c r="K399" t="s">
@@ -38351,11 +38423,11 @@
         <v>9</v>
       </c>
       <c r="I400">
-        <f>520.7-C400</f>
+        <f t="shared" si="12"/>
         <v>5.7930000000000064</v>
       </c>
       <c r="J400" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2599775000000013</v>
       </c>
       <c r="K400" t="s">
@@ -38386,11 +38458,11 @@
         <v>9</v>
       </c>
       <c r="I401">
-        <f>520.7-C401</f>
+        <f t="shared" si="12"/>
         <v>5.9380000000001019</v>
       </c>
       <c r="J401" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2915150000000222</v>
       </c>
       <c r="K401" t="s">
@@ -38423,11 +38495,11 @@
         <v>9</v>
       </c>
       <c r="I402">
-        <f>520.7-C402</f>
+        <f t="shared" si="12"/>
         <v>5.8310000000000173</v>
       </c>
       <c r="J402" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2682425000000037</v>
       </c>
       <c r="K402" t="s">
@@ -38458,11 +38530,11 @@
         <v>14</v>
       </c>
       <c r="I403">
-        <f>520.7-C403</f>
+        <f t="shared" si="12"/>
         <v>5.8420000000000982</v>
       </c>
       <c r="J403" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2706350000000213</v>
       </c>
       <c r="K403" t="s">
@@ -38495,11 +38567,11 @@
         <v>14</v>
       </c>
       <c r="I404">
-        <f>520.7-C404</f>
+        <f t="shared" si="12"/>
         <v>5.7900000000000773</v>
       </c>
       <c r="J404" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2593250000000169</v>
       </c>
       <c r="K404" t="s">
@@ -38532,11 +38604,11 @@
         <v>14</v>
       </c>
       <c r="I405">
-        <f>520.7-C405</f>
+        <f t="shared" si="12"/>
         <v>5.7350000000000136</v>
       </c>
       <c r="J405" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.247362500000003</v>
       </c>
       <c r="K405" t="s">
@@ -38569,11 +38641,11 @@
         <v>14</v>
       </c>
       <c r="I406">
-        <f>520.7-C406</f>
+        <f t="shared" si="12"/>
         <v>5.7970000000000255</v>
       </c>
       <c r="J406" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2608475000000055</v>
       </c>
       <c r="K406" t="s">
@@ -38604,11 +38676,11 @@
         <v>14</v>
       </c>
       <c r="I407">
-        <f>520.7-C407</f>
+        <f t="shared" si="12"/>
         <v>5.83400000000006</v>
       </c>
       <c r="J407" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.268895000000013</v>
       </c>
       <c r="K407" t="s">
@@ -38641,11 +38713,11 @@
         <v>14</v>
       </c>
       <c r="I408">
-        <f>520.7-C408</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="J408" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3049999999999999</v>
       </c>
       <c r="K408" t="s">
@@ -38678,11 +38750,11 @@
         <v>14</v>
       </c>
       <c r="I409">
-        <f>520.7-C409</f>
+        <f t="shared" si="12"/>
         <v>5.7680000000000291</v>
       </c>
       <c r="J409" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2545400000000064</v>
       </c>
       <c r="K409" t="s">
@@ -38715,11 +38787,11 @@
         <v>14</v>
       </c>
       <c r="I410">
-        <f>520.7-C410</f>
+        <f t="shared" si="12"/>
         <v>5.7990000000000919</v>
       </c>
       <c r="J410" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2612825000000201</v>
       </c>
       <c r="K410" t="s">
@@ -38750,11 +38822,11 @@
         <v>14</v>
       </c>
       <c r="I411">
-        <f>520.7-C411</f>
+        <f t="shared" si="12"/>
         <v>5.8319999999999936</v>
       </c>
       <c r="J411" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2684599999999986</v>
       </c>
       <c r="K411" t="s">
@@ -38787,11 +38859,11 @@
         <v>14</v>
       </c>
       <c r="I412">
-        <f>520.7-C412</f>
+        <f t="shared" si="12"/>
         <v>5.8780000000000427</v>
       </c>
       <c r="J412" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2784650000000093</v>
       </c>
       <c r="K412" t="s">
@@ -38824,11 +38896,11 @@
         <v>14</v>
       </c>
       <c r="I413">
-        <f>520.7-C413</f>
+        <f t="shared" si="12"/>
         <v>5.7470000000000709</v>
       </c>
       <c r="J413" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2499725000000155</v>
       </c>
       <c r="K413" t="s">
@@ -38861,11 +38933,11 @@
         <v>14</v>
       </c>
       <c r="I414">
-        <f>520.7-C414</f>
+        <f t="shared" si="12"/>
         <v>5.8210000000000264</v>
       </c>
       <c r="J414" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2660675000000057</v>
       </c>
       <c r="K414" t="s">
@@ -38896,11 +38968,11 @@
         <v>14</v>
       </c>
       <c r="I415">
-        <f>520.7-C415</f>
+        <f t="shared" si="12"/>
         <v>5.5830000000000837</v>
       </c>
       <c r="J415" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2143025000000183</v>
       </c>
       <c r="K415" t="s">
@@ -38933,11 +39005,11 @@
         <v>14</v>
       </c>
       <c r="I416">
-        <f>520.7-C416</f>
+        <f t="shared" si="12"/>
         <v>5.7080000000000837</v>
       </c>
       <c r="J416" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2414900000000182</v>
       </c>
       <c r="K416" t="s">
@@ -38970,11 +39042,11 @@
         <v>14</v>
       </c>
       <c r="I417">
-        <f>520.7-C417</f>
+        <f t="shared" si="12"/>
         <v>5.7650000000001</v>
       </c>
       <c r="J417" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2538875000000218</v>
       </c>
       <c r="K417" t="s">
@@ -39007,11 +39079,11 @@
         <v>14</v>
       </c>
       <c r="I418">
-        <f>520.7-C418</f>
+        <f t="shared" si="12"/>
         <v>5.7280000000000655</v>
       </c>
       <c r="J418" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2458400000000143</v>
       </c>
       <c r="K418" t="s">
@@ -39042,11 +39114,11 @@
         <v>15</v>
       </c>
       <c r="I419">
-        <f>520.7-C419</f>
+        <f t="shared" si="12"/>
         <v>5.5930000000000746</v>
       </c>
       <c r="J419" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2164775000000163</v>
       </c>
       <c r="K419" t="s">
@@ -39079,11 +39151,11 @@
         <v>15</v>
       </c>
       <c r="I420">
-        <f>520.7-C420</f>
+        <f t="shared" si="12"/>
         <v>5.6050000000000182</v>
       </c>
       <c r="J420" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2190875000000039</v>
       </c>
       <c r="K420" t="s">
@@ -39116,11 +39188,11 @@
         <v>15</v>
       </c>
       <c r="I421">
-        <f>520.7-C421</f>
+        <f t="shared" si="12"/>
         <v>5.5690000000000737</v>
       </c>
       <c r="J421" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2112575000000161</v>
       </c>
       <c r="K421" t="s">
@@ -39153,11 +39225,11 @@
         <v>15</v>
       </c>
       <c r="I422">
-        <f>520.7-C422</f>
+        <f t="shared" si="12"/>
         <v>5.5660000000000309</v>
       </c>
       <c r="J422" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2106050000000068</v>
       </c>
       <c r="K422" t="s">
@@ -39190,11 +39262,11 @@
         <v>15</v>
       </c>
       <c r="I423">
-        <f>520.7-C423</f>
+        <f t="shared" si="12"/>
         <v>5.7400000000000091</v>
       </c>
       <c r="J423" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2484500000000021</v>
       </c>
       <c r="K423" t="s">
@@ -39227,11 +39299,11 @@
         <v>15</v>
       </c>
       <c r="I424">
-        <f>520.7-C424</f>
+        <f t="shared" si="12"/>
         <v>5.6960000000000264</v>
       </c>
       <c r="J424" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2388800000000058</v>
       </c>
       <c r="K424" t="s">
@@ -39262,11 +39334,11 @@
         <v>15</v>
       </c>
       <c r="I425">
-        <f>520.7-C425</f>
+        <f t="shared" si="12"/>
         <v>5.6280000000000427</v>
       </c>
       <c r="J425" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2240900000000092</v>
       </c>
       <c r="K425" t="s">
@@ -39299,11 +39371,11 @@
         <v>15</v>
       </c>
       <c r="I426">
-        <f>520.7-C426</f>
+        <f t="shared" si="12"/>
         <v>5.5350000000000819</v>
       </c>
       <c r="J426" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2038625000000178</v>
       </c>
       <c r="K426" t="s">
@@ -39336,11 +39408,11 @@
         <v>15</v>
       </c>
       <c r="I427">
-        <f>520.7-C427</f>
+        <f t="shared" si="12"/>
         <v>5.63900000000001</v>
       </c>
       <c r="J427" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2264825000000021</v>
       </c>
       <c r="K427" t="s">
@@ -39373,11 +39445,11 @@
         <v>15</v>
       </c>
       <c r="I428">
-        <f>520.7-C428</f>
+        <f t="shared" si="12"/>
         <v>5.6440000000000055</v>
       </c>
       <c r="J428" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2275700000000012</v>
       </c>
       <c r="K428" t="s">
@@ -39410,11 +39482,11 @@
         <v>15</v>
       </c>
       <c r="I429">
-        <f>520.7-C429</f>
+        <f t="shared" si="12"/>
         <v>5.5430000000000064</v>
       </c>
       <c r="J429" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2056025000000015</v>
       </c>
       <c r="K429" t="s">
@@ -39447,11 +39519,11 @@
         <v>15</v>
       </c>
       <c r="I430">
-        <f>520.7-C430</f>
+        <f t="shared" si="12"/>
         <v>5.6840000000000828</v>
       </c>
       <c r="J430" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.236270000000018</v>
       </c>
       <c r="K430" t="s">
@@ -39482,11 +39554,11 @@
         <v>15</v>
       </c>
       <c r="I431">
-        <f>520.7-C431</f>
+        <f t="shared" si="12"/>
         <v>5.7330000000000609</v>
       </c>
       <c r="J431" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2469275000000133</v>
       </c>
       <c r="K431" t="s">
@@ -39519,11 +39591,11 @@
         <v>15</v>
       </c>
       <c r="I432">
-        <f>520.7-C432</f>
+        <f t="shared" si="12"/>
         <v>5.6700000000000728</v>
       </c>
       <c r="J432" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2332250000000158</v>
       </c>
       <c r="K432" t="s">
@@ -39556,11 +39628,11 @@
         <v>15</v>
       </c>
       <c r="I433">
-        <f>520.7-C433</f>
+        <f t="shared" si="12"/>
         <v>5.6920000000000073</v>
       </c>
       <c r="J433" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2380100000000016</v>
       </c>
       <c r="K433" t="s">
@@ -39593,11 +39665,11 @@
         <v>15</v>
       </c>
       <c r="I434">
-        <f>520.7-C434</f>
+        <f t="shared" si="12"/>
         <v>5.7750000000000909</v>
       </c>
       <c r="J434" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2560625000000198</v>
       </c>
       <c r="K434" t="s">
@@ -39630,11 +39702,11 @@
         <v>15</v>
       </c>
       <c r="I435">
-        <f>520.7-C435</f>
+        <f t="shared" si="12"/>
         <v>5.59800000000007</v>
       </c>
       <c r="J435" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2175650000000153</v>
       </c>
       <c r="K435" t="s">
@@ -39667,11 +39739,11 @@
         <v>15</v>
       </c>
       <c r="I436">
-        <f>520.7-C436</f>
+        <f t="shared" si="12"/>
         <v>5.6450000000000955</v>
       </c>
       <c r="J436" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2277875000000207</v>
       </c>
       <c r="K436" t="s">
@@ -39702,11 +39774,11 @@
         <v>15</v>
       </c>
       <c r="I437">
-        <f>520.7-C437</f>
+        <f t="shared" si="12"/>
         <v>5.6320000000000618</v>
       </c>
       <c r="J437" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2249600000000134</v>
       </c>
       <c r="K437" t="s">
@@ -39739,11 +39811,11 @@
         <v>15</v>
       </c>
       <c r="I438">
-        <f>520.7-C438</f>
+        <f t="shared" si="12"/>
         <v>5.6180000000000518</v>
       </c>
       <c r="J438" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2219150000000112</v>
       </c>
       <c r="K438" t="s">
@@ -39776,11 +39848,11 @@
         <v>15</v>
       </c>
       <c r="I439">
-        <f>520.7-C439</f>
+        <f t="shared" si="12"/>
         <v>5.6080000000000609</v>
       </c>
       <c r="J439" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2197400000000131</v>
       </c>
       <c r="K439" t="s">
@@ -39813,11 +39885,11 @@
         <v>15</v>
       </c>
       <c r="I440">
-        <f>520.7-C440</f>
+        <f t="shared" si="12"/>
         <v>5.5880000000000791</v>
       </c>
       <c r="J440" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2153900000000173</v>
       </c>
       <c r="K440" t="s">
@@ -39850,11 +39922,11 @@
         <v>15</v>
       </c>
       <c r="I441">
-        <f>520.7-C441</f>
+        <f t="shared" si="12"/>
         <v>5.5760000000000218</v>
       </c>
       <c r="J441" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2127800000000046</v>
       </c>
       <c r="K441" t="s">
@@ -39887,11 +39959,11 @@
         <v>15</v>
       </c>
       <c r="I442">
-        <f>520.7-C442</f>
+        <f t="shared" si="12"/>
         <v>5.8509999999999991</v>
       </c>
       <c r="J442" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2725924999999998</v>
       </c>
       <c r="K442" t="s">
@@ -39922,11 +39994,11 @@
         <v>9</v>
       </c>
       <c r="I443">
-        <f>520.7-C443</f>
+        <f t="shared" si="12"/>
         <v>5.90300000000002</v>
       </c>
       <c r="J443" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2839025000000044</v>
       </c>
       <c r="K443" t="s">
@@ -39957,11 +40029,11 @@
         <v>9</v>
       </c>
       <c r="I444">
-        <f>520.7-C444</f>
+        <f t="shared" si="12"/>
         <v>5.9530000000000882</v>
       </c>
       <c r="J444" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2947775000000192</v>
       </c>
       <c r="K444" t="s">
@@ -39994,11 +40066,11 @@
         <v>9</v>
       </c>
       <c r="I445">
-        <f>520.7-C445</f>
+        <f t="shared" si="12"/>
         <v>5.77800000000002</v>
       </c>
       <c r="J445" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2567150000000042</v>
       </c>
       <c r="K445" t="s">
@@ -40029,11 +40101,11 @@
         <v>9</v>
       </c>
       <c r="I446">
-        <f>520.7-C446</f>
+        <f t="shared" si="12"/>
         <v>5.9900000000000091</v>
       </c>
       <c r="J446" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3028250000000019</v>
       </c>
       <c r="K446" t="s">
@@ -40066,11 +40138,11 @@
         <v>9</v>
       </c>
       <c r="I447">
-        <f>520.7-C447</f>
+        <f t="shared" si="12"/>
         <v>5.9830000000000609</v>
       </c>
       <c r="J447" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3013025000000134</v>
       </c>
       <c r="K447" t="s">
@@ -40101,11 +40173,11 @@
         <v>9</v>
       </c>
       <c r="I448">
-        <f>520.7-C448</f>
+        <f t="shared" si="12"/>
         <v>5.94500000000005</v>
       </c>
       <c r="J448" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2930375000000109</v>
       </c>
       <c r="K448" t="s">
@@ -40138,11 +40210,11 @@
         <v>9</v>
       </c>
       <c r="I449">
-        <f>520.7-C449</f>
+        <f t="shared" si="12"/>
         <v>6.0030000000000427</v>
       </c>
       <c r="J449" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3056525000000092</v>
       </c>
       <c r="K449" t="s">
@@ -40173,11 +40245,11 @@
         <v>9</v>
       </c>
       <c r="I450">
-        <f>520.7-C450</f>
+        <f t="shared" ref="I450:I513" si="14">520.7-C450</f>
         <v>5.8770000000000664</v>
       </c>
       <c r="J450" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2782475000000144</v>
       </c>
       <c r="K450" t="s">
@@ -40210,11 +40282,11 @@
         <v>9</v>
       </c>
       <c r="I451">
-        <f>520.7-C451</f>
+        <f t="shared" si="14"/>
         <v>5.9100000000000819</v>
       </c>
       <c r="J451" s="9">
-        <f t="shared" ref="J451:J514" si="7">I451*0.2175</f>
+        <f t="shared" ref="J451:J514" si="15">I451*0.2175</f>
         <v>1.2854250000000178</v>
       </c>
       <c r="K451" t="s">
@@ -40245,11 +40317,11 @@
         <v>14</v>
       </c>
       <c r="I452">
-        <f>520.7-C452</f>
+        <f t="shared" si="14"/>
         <v>5.6610000000000582</v>
       </c>
       <c r="J452" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2312675000000126</v>
       </c>
       <c r="K452" t="s">
@@ -40282,11 +40354,11 @@
         <v>14</v>
       </c>
       <c r="I453">
-        <f>520.7-C453</f>
+        <f t="shared" si="14"/>
         <v>5.8190000000000737</v>
       </c>
       <c r="J453" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2656325000000159</v>
       </c>
       <c r="K453" t="s">
@@ -40319,11 +40391,11 @@
         <v>14</v>
       </c>
       <c r="I454">
-        <f>520.7-C454</f>
+        <f t="shared" si="14"/>
         <v>5.84800000000007</v>
       </c>
       <c r="J454" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2719400000000152</v>
       </c>
       <c r="K454" t="s">
@@ -40356,11 +40428,11 @@
         <v>14</v>
       </c>
       <c r="I455">
-        <f>520.7-C455</f>
+        <f t="shared" si="14"/>
         <v>5.625</v>
       </c>
       <c r="J455" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2234375</v>
       </c>
       <c r="K455" t="s">
@@ -40391,11 +40463,11 @@
         <v>14</v>
       </c>
       <c r="I456">
-        <f>520.7-C456</f>
+        <f t="shared" si="14"/>
         <v>5.6970000000000027</v>
       </c>
       <c r="J456" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2390975000000006</v>
       </c>
       <c r="K456" t="s">
@@ -40428,11 +40500,11 @@
         <v>14</v>
       </c>
       <c r="I457">
-        <f>520.7-C457</f>
+        <f t="shared" si="14"/>
         <v>5.6880000000001019</v>
       </c>
       <c r="J457" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2371400000000221</v>
       </c>
       <c r="K457" t="s">
@@ -40465,11 +40537,11 @@
         <v>14</v>
       </c>
       <c r="I458">
-        <f>520.7-C458</f>
+        <f t="shared" si="14"/>
         <v>5.77800000000002</v>
       </c>
       <c r="J458" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2567150000000042</v>
       </c>
       <c r="K458" t="s">
@@ -40502,11 +40574,11 @@
         <v>14</v>
       </c>
       <c r="I459">
-        <f>520.7-C459</f>
+        <f t="shared" si="14"/>
         <v>5.5920000000000982</v>
       </c>
       <c r="J459" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2162600000000214</v>
       </c>
       <c r="K459" t="s">
@@ -40537,11 +40609,11 @@
         <v>14</v>
       </c>
       <c r="I460">
-        <f>520.7-C460</f>
+        <f t="shared" si="14"/>
         <v>5.7130000000000791</v>
       </c>
       <c r="J460" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2425775000000172</v>
       </c>
       <c r="K460" t="s">
@@ -40574,11 +40646,11 @@
         <v>14</v>
       </c>
       <c r="I461">
-        <f>520.7-C461</f>
+        <f t="shared" si="14"/>
         <v>5.8520000000000891</v>
       </c>
       <c r="J461" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2728100000000193</v>
       </c>
       <c r="K461" t="s">
@@ -40611,11 +40683,11 @@
         <v>14</v>
       </c>
       <c r="I462">
-        <f>520.7-C462</f>
+        <f t="shared" si="14"/>
         <v>5.9039999999999964</v>
       </c>
       <c r="J462" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2841199999999993</v>
       </c>
       <c r="K462" t="s">
@@ -40648,11 +40720,11 @@
         <v>14</v>
       </c>
       <c r="I463">
-        <f>520.7-C463</f>
+        <f t="shared" si="14"/>
         <v>5.8160000000000309</v>
       </c>
       <c r="J463" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2649800000000067</v>
       </c>
       <c r="K463" t="s">
@@ -40683,11 +40755,11 @@
         <v>14</v>
       </c>
       <c r="I464">
-        <f>520.7-C464</f>
+        <f t="shared" si="14"/>
         <v>5.789000000000101</v>
       </c>
       <c r="J464" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.259107500000022</v>
       </c>
       <c r="K464" t="s">
@@ -40720,11 +40792,11 @@
         <v>14</v>
       </c>
       <c r="I465">
-        <f>520.7-C465</f>
+        <f t="shared" si="14"/>
         <v>5.7599999999999909</v>
       </c>
       <c r="J465" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2527999999999979</v>
       </c>
       <c r="K465" t="s">
@@ -40757,11 +40829,11 @@
         <v>14</v>
       </c>
       <c r="I466">
-        <f>520.7-C466</f>
+        <f t="shared" si="14"/>
         <v>5.8310000000000173</v>
       </c>
       <c r="J466" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2682425000000037</v>
       </c>
       <c r="K466" t="s">
@@ -40794,11 +40866,11 @@
         <v>14</v>
       </c>
       <c r="I467">
-        <f>520.7-C467</f>
+        <f t="shared" si="14"/>
         <v>5.7880000000000109</v>
       </c>
       <c r="J467" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2588900000000023</v>
       </c>
       <c r="K467" t="s">
@@ -40829,11 +40901,11 @@
         <v>15</v>
       </c>
       <c r="I468">
-        <f>520.7-C468</f>
+        <f t="shared" si="14"/>
         <v>5.6650000000000773</v>
       </c>
       <c r="J468" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2321375000000168</v>
       </c>
       <c r="K468" t="s">
@@ -40866,11 +40938,11 @@
         <v>15</v>
       </c>
       <c r="I469">
-        <f>520.7-C469</f>
+        <f t="shared" si="14"/>
         <v>5.6730000000000018</v>
       </c>
       <c r="J469" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2338775000000004</v>
       </c>
       <c r="K469" t="s">
@@ -40903,11 +40975,11 @@
         <v>15</v>
       </c>
       <c r="I470">
-        <f>520.7-C470</f>
+        <f t="shared" si="14"/>
         <v>5.5819999999999936</v>
       </c>
       <c r="J470" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2140849999999985</v>
       </c>
       <c r="K470" t="s">
@@ -40940,11 +41012,11 @@
         <v>15</v>
       </c>
       <c r="I471">
-        <f>520.7-C471</f>
+        <f t="shared" si="14"/>
         <v>5.5720000000000027</v>
       </c>
       <c r="J471" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2119100000000005</v>
       </c>
       <c r="K471" t="s">
@@ -40977,11 +41049,11 @@
         <v>15</v>
       </c>
       <c r="I472">
-        <f>520.7-C472</f>
+        <f t="shared" si="14"/>
         <v>5.5579999999999927</v>
       </c>
       <c r="J472" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2088649999999983</v>
       </c>
       <c r="K472" t="s">
@@ -41014,11 +41086,11 @@
         <v>15</v>
       </c>
       <c r="I473">
-        <f>520.7-C473</f>
+        <f t="shared" si="14"/>
         <v>5.6550000000000864</v>
       </c>
       <c r="J473" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2299625000000187</v>
       </c>
       <c r="K473" t="s">
@@ -41049,11 +41121,11 @@
         <v>15</v>
       </c>
       <c r="I474">
-        <f>520.7-C474</f>
+        <f t="shared" si="14"/>
         <v>5.6490000000000009</v>
       </c>
       <c r="J474" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2286575000000002</v>
       </c>
       <c r="K474" t="s">
@@ -41086,11 +41158,11 @@
         <v>15</v>
       </c>
       <c r="I475">
-        <f>520.7-C475</f>
+        <f t="shared" si="14"/>
         <v>5.7290000000000418</v>
       </c>
       <c r="J475" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2460575000000091</v>
       </c>
       <c r="K475" t="s">
@@ -41123,11 +41195,11 @@
         <v>15</v>
       </c>
       <c r="I476">
-        <f>520.7-C476</f>
+        <f t="shared" si="14"/>
         <v>5.4410000000000309</v>
       </c>
       <c r="J476" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.1834175000000067</v>
       </c>
       <c r="K476" t="s">
@@ -41160,11 +41232,11 @@
         <v>15</v>
       </c>
       <c r="I477">
-        <f>520.7-C477</f>
+        <f t="shared" si="14"/>
         <v>5.6070000000000846</v>
       </c>
       <c r="J477" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2195225000000185</v>
       </c>
       <c r="K477" t="s">
@@ -41197,11 +41269,11 @@
         <v>15</v>
       </c>
       <c r="I478">
-        <f>520.7-C478</f>
+        <f t="shared" si="14"/>
         <v>5.6000000000000227</v>
       </c>
       <c r="J478" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2180000000000049</v>
       </c>
       <c r="K478" t="s">
@@ -41234,11 +41306,11 @@
         <v>15</v>
       </c>
       <c r="I479">
-        <f>520.7-C479</f>
+        <f t="shared" si="14"/>
         <v>5.5620000000000118</v>
       </c>
       <c r="J479" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2097350000000027</v>
       </c>
       <c r="K479" t="s">
@@ -41269,11 +41341,11 @@
         <v>15</v>
       </c>
       <c r="I480">
-        <f>520.7-C480</f>
+        <f t="shared" si="14"/>
         <v>5.6380000000000337</v>
       </c>
       <c r="J480" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2262650000000073</v>
       </c>
       <c r="K480" t="s">
@@ -41306,11 +41378,11 @@
         <v>15</v>
       </c>
       <c r="I481">
-        <f>520.7-C481</f>
+        <f t="shared" si="14"/>
         <v>5.5080000000000382</v>
       </c>
       <c r="J481" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.1979900000000083</v>
       </c>
       <c r="K481" t="s">
@@ -41343,11 +41415,11 @@
         <v>15</v>
       </c>
       <c r="I482">
-        <f>520.7-C482</f>
+        <f t="shared" si="14"/>
         <v>5.5339999999999918</v>
       </c>
       <c r="J482" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2036449999999983</v>
       </c>
       <c r="K482" t="s">
@@ -41380,11 +41452,11 @@
         <v>15</v>
       </c>
       <c r="I483">
-        <f>520.7-C483</f>
+        <f t="shared" si="14"/>
         <v>5.6680000000000064</v>
       </c>
       <c r="J483" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2327900000000014</v>
       </c>
       <c r="K483" t="s">
@@ -41417,11 +41489,11 @@
         <v>15</v>
       </c>
       <c r="I484">
-        <f>520.7-C484</f>
+        <f t="shared" si="14"/>
         <v>5.6930000000000973</v>
       </c>
       <c r="J484" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2382275000000211</v>
       </c>
       <c r="K484" t="s">
@@ -41454,11 +41526,11 @@
         <v>15</v>
       </c>
       <c r="I485">
-        <f>520.7-C485</f>
+        <f t="shared" si="14"/>
         <v>5.65300000000002</v>
       </c>
       <c r="J485" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2295275000000043</v>
       </c>
       <c r="K485" t="s">
@@ -41489,11 +41561,11 @@
         <v>15</v>
       </c>
       <c r="I486">
-        <f>520.7-C486</f>
+        <f t="shared" si="14"/>
         <v>5.6480000000000246</v>
       </c>
       <c r="J486" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2284400000000053</v>
       </c>
       <c r="K486" t="s">
@@ -41526,11 +41598,11 @@
         <v>15</v>
       </c>
       <c r="I487">
-        <f>520.7-C487</f>
+        <f t="shared" si="14"/>
         <v>5.7560000000000855</v>
       </c>
       <c r="J487" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2519300000000186</v>
       </c>
       <c r="K487" t="s">
@@ -41563,11 +41635,11 @@
         <v>15</v>
       </c>
       <c r="I488">
-        <f>520.7-C488</f>
+        <f t="shared" si="14"/>
         <v>5.7320000000000846</v>
       </c>
       <c r="J488" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2467100000000184</v>
       </c>
       <c r="K488" t="s">
@@ -41600,11 +41672,11 @@
         <v>15</v>
       </c>
       <c r="I489">
-        <f>520.7-C489</f>
+        <f t="shared" si="14"/>
         <v>5.6190000000000282</v>
       </c>
       <c r="J489" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2221325000000061</v>
       </c>
       <c r="K489" t="s">
@@ -41637,11 +41709,11 @@
         <v>15</v>
       </c>
       <c r="I490">
-        <f>520.7-C490</f>
+        <f t="shared" si="14"/>
         <v>5.7830000000000155</v>
       </c>
       <c r="J490" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2578025000000033</v>
       </c>
       <c r="K490" t="s">
@@ -41674,11 +41746,11 @@
         <v>15</v>
       </c>
       <c r="I491">
-        <f>520.7-C491</f>
+        <f t="shared" si="14"/>
         <v>5.6589999999999918</v>
       </c>
       <c r="J491" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2308324999999982</v>
       </c>
       <c r="K491" t="s">
@@ -41709,11 +41781,11 @@
         <v>9</v>
       </c>
       <c r="I492">
-        <f>520.7-C492</f>
+        <f t="shared" si="14"/>
         <v>5.93100000000004</v>
       </c>
       <c r="J492" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2899925000000088</v>
       </c>
       <c r="K492" t="s">
@@ -41744,11 +41816,11 @@
         <v>9</v>
       </c>
       <c r="I493">
-        <f>520.7-C493</f>
+        <f t="shared" si="14"/>
         <v>5.9190000000000964</v>
       </c>
       <c r="J493" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.287382500000021</v>
       </c>
       <c r="K493" t="s">
@@ -41781,11 +41853,11 @@
         <v>9</v>
       </c>
       <c r="I494">
-        <f>520.7-C494</f>
+        <f t="shared" si="14"/>
         <v>5.8900000000001</v>
       </c>
       <c r="J494" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2810750000000217</v>
       </c>
       <c r="K494" t="s">
@@ -41816,11 +41888,11 @@
         <v>9</v>
       </c>
       <c r="I495">
-        <f>520.7-C495</f>
+        <f t="shared" si="14"/>
         <v>5.8410000000000082</v>
       </c>
       <c r="J495" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2704175000000018</v>
       </c>
       <c r="K495" t="s">
@@ -41853,11 +41925,11 @@
         <v>9</v>
       </c>
       <c r="I496">
-        <f>520.7-C496</f>
+        <f t="shared" si="14"/>
         <v>6.0250000000000909</v>
       </c>
       <c r="J496" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.3104375000000197</v>
       </c>
       <c r="K496" t="s">
@@ -41888,11 +41960,11 @@
         <v>9</v>
       </c>
       <c r="I497">
-        <f>520.7-C497</f>
+        <f t="shared" si="14"/>
         <v>5.8960000000000719</v>
       </c>
       <c r="J497" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2823800000000156</v>
       </c>
       <c r="K497" t="s">
@@ -41925,11 +41997,11 @@
         <v>9</v>
       </c>
       <c r="I498">
-        <f>520.7-C498</f>
+        <f t="shared" si="14"/>
         <v>5.90300000000002</v>
       </c>
       <c r="J498" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2839025000000044</v>
       </c>
       <c r="K498" t="s">
@@ -41960,11 +42032,11 @@
         <v>9</v>
       </c>
       <c r="I499">
-        <f>520.7-C499</f>
+        <f t="shared" si="14"/>
         <v>5.8730000000000473</v>
       </c>
       <c r="J499" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2773775000000103</v>
       </c>
       <c r="K499" t="s">
@@ -41997,11 +42069,11 @@
         <v>9</v>
       </c>
       <c r="I500">
-        <f>520.7-C500</f>
+        <f t="shared" si="14"/>
         <v>5.8700000000000045</v>
       </c>
       <c r="J500" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.276725000000001</v>
       </c>
       <c r="K500" t="s">
@@ -42032,11 +42104,11 @@
         <v>14</v>
       </c>
       <c r="I501">
-        <f>520.7-C501</f>
+        <f t="shared" si="14"/>
         <v>5.5990000000000464</v>
       </c>
       <c r="J501" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.21778250000001</v>
       </c>
       <c r="K501" t="s">
@@ -42069,11 +42141,11 @@
         <v>14</v>
       </c>
       <c r="I502">
-        <f>520.7-C502</f>
+        <f t="shared" si="14"/>
         <v>5.7470000000000709</v>
       </c>
       <c r="J502" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2499725000000155</v>
       </c>
       <c r="K502" t="s">
@@ -42106,11 +42178,11 @@
         <v>14</v>
       </c>
       <c r="I503">
-        <f>520.7-C503</f>
+        <f t="shared" si="14"/>
         <v>5.7599999999999909</v>
       </c>
       <c r="J503" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2527999999999979</v>
       </c>
       <c r="K503" t="s">
@@ -42143,11 +42215,11 @@
         <v>14</v>
       </c>
       <c r="I504">
-        <f>520.7-C504</f>
+        <f t="shared" si="14"/>
         <v>5.6980000000000928</v>
       </c>
       <c r="J504" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2393150000000202</v>
       </c>
       <c r="K504" t="s">
@@ -42178,11 +42250,11 @@
         <v>14</v>
       </c>
       <c r="I505">
-        <f>520.7-C505</f>
+        <f t="shared" si="14"/>
         <v>5.75</v>
       </c>
       <c r="J505" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2506250000000001</v>
       </c>
       <c r="K505" t="s">
@@ -42215,11 +42287,11 @@
         <v>14</v>
       </c>
       <c r="I506">
-        <f>520.7-C506</f>
+        <f t="shared" si="14"/>
         <v>5.6690000000000964</v>
       </c>
       <c r="J506" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2330075000000209</v>
       </c>
       <c r="K506" t="s">
@@ -42252,11 +42324,11 @@
         <v>14</v>
       </c>
       <c r="I507">
-        <f>520.7-C507</f>
+        <f t="shared" si="14"/>
         <v>5.7309999999999945</v>
       </c>
       <c r="J507" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2464924999999989</v>
       </c>
       <c r="K507" t="s">
@@ -42289,11 +42361,11 @@
         <v>14</v>
       </c>
       <c r="I508">
-        <f>520.7-C508</f>
+        <f t="shared" si="14"/>
         <v>5.8870000000000573</v>
       </c>
       <c r="J508" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2804225000000125</v>
       </c>
       <c r="K508" t="s">
@@ -42324,11 +42396,11 @@
         <v>14</v>
       </c>
       <c r="I509">
-        <f>520.7-C509</f>
+        <f t="shared" si="14"/>
         <v>5.6860000000000355</v>
       </c>
       <c r="J509" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2367050000000077</v>
       </c>
       <c r="K509" t="s">
@@ -42361,11 +42433,11 @@
         <v>14</v>
       </c>
       <c r="I510">
-        <f>520.7-C510</f>
+        <f t="shared" si="14"/>
         <v>5.6690000000000964</v>
       </c>
       <c r="J510" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2330075000000209</v>
       </c>
       <c r="K510" t="s">
@@ -42398,11 +42470,11 @@
         <v>14</v>
       </c>
       <c r="I511">
-        <f>520.7-C511</f>
+        <f t="shared" si="14"/>
         <v>5.8120000000000118</v>
       </c>
       <c r="J511" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2641100000000025</v>
       </c>
       <c r="K511" t="s">
@@ -42435,11 +42507,11 @@
         <v>14</v>
       </c>
       <c r="I512">
-        <f>520.7-C512</f>
+        <f t="shared" si="14"/>
         <v>5.6860000000000355</v>
       </c>
       <c r="J512" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2367050000000077</v>
       </c>
       <c r="K512" t="s">
@@ -42470,11 +42542,11 @@
         <v>14</v>
       </c>
       <c r="I513">
-        <f>520.7-C513</f>
+        <f t="shared" si="14"/>
         <v>5.5810000000000173</v>
       </c>
       <c r="J513" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2138675000000037</v>
       </c>
       <c r="K513" t="s">
@@ -42507,11 +42579,11 @@
         <v>14</v>
       </c>
       <c r="I514">
-        <f>520.7-C514</f>
+        <f t="shared" ref="I514:I577" si="16">520.7-C514</f>
         <v>5.6870000000000118</v>
       </c>
       <c r="J514" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2369225000000026</v>
       </c>
       <c r="K514" t="s">
@@ -42544,11 +42616,11 @@
         <v>14</v>
       </c>
       <c r="I515">
-        <f>520.7-C515</f>
+        <f t="shared" si="16"/>
         <v>5.6470000000000482</v>
       </c>
       <c r="J515" s="9">
-        <f t="shared" ref="J515:J578" si="8">I515*0.2175</f>
+        <f t="shared" ref="J515:J578" si="17">I515*0.2175</f>
         <v>1.2282225000000104</v>
       </c>
       <c r="K515" t="s">
@@ -42581,11 +42653,11 @@
         <v>14</v>
       </c>
       <c r="I516">
-        <f>520.7-C516</f>
+        <f t="shared" si="16"/>
         <v>5.7250000000000227</v>
       </c>
       <c r="J516" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.245187500000005</v>
       </c>
       <c r="K516" t="s">
@@ -42616,11 +42688,11 @@
         <v>15</v>
       </c>
       <c r="I517">
-        <f>520.7-C517</f>
+        <f t="shared" si="16"/>
         <v>5.6500000000000909</v>
       </c>
       <c r="J517" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2288750000000197</v>
       </c>
       <c r="K517" t="s">
@@ -42653,11 +42725,11 @@
         <v>15</v>
       </c>
       <c r="I518">
-        <f>520.7-C518</f>
+        <f t="shared" si="16"/>
         <v>5.5910000000000082</v>
       </c>
       <c r="J518" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2160425000000017</v>
       </c>
       <c r="K518" t="s">
@@ -42690,11 +42762,11 @@
         <v>15</v>
       </c>
       <c r="I519">
-        <f>520.7-C519</f>
+        <f t="shared" si="16"/>
         <v>5.5740000000000691</v>
       </c>
       <c r="J519" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2123450000000151</v>
       </c>
       <c r="K519" t="s">
@@ -42727,11 +42799,11 @@
         <v>15</v>
       </c>
       <c r="I520">
-        <f>520.7-C520</f>
+        <f t="shared" si="16"/>
         <v>5.5750000000000455</v>
       </c>
       <c r="J520" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.21256250000001</v>
       </c>
       <c r="K520" t="s">
@@ -42764,11 +42836,11 @@
         <v>15</v>
       </c>
       <c r="I521">
-        <f>520.7-C521</f>
+        <f t="shared" si="16"/>
         <v>5.7220000000000937</v>
       </c>
       <c r="J521" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2445350000000204</v>
       </c>
       <c r="K521" t="s">
@@ -42801,11 +42873,11 @@
         <v>15</v>
       </c>
       <c r="I522">
-        <f>520.7-C522</f>
+        <f t="shared" si="16"/>
         <v>5.5760000000000218</v>
       </c>
       <c r="J522" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2127800000000046</v>
       </c>
       <c r="K522" t="s">
@@ -42836,11 +42908,11 @@
         <v>15</v>
       </c>
       <c r="I523">
-        <f>520.7-C523</f>
+        <f t="shared" si="16"/>
         <v>5.6570000000000391</v>
       </c>
       <c r="J523" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2303975000000085</v>
       </c>
       <c r="K523" t="s">
@@ -42873,11 +42945,11 @@
         <v>15</v>
       </c>
       <c r="I524">
-        <f>520.7-C524</f>
+        <f t="shared" si="16"/>
         <v>5.5220000000000482</v>
       </c>
       <c r="J524" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2010350000000105</v>
       </c>
       <c r="K524" t="s">
@@ -42910,11 +42982,11 @@
         <v>15</v>
       </c>
       <c r="I525">
-        <f>520.7-C525</f>
+        <f t="shared" si="16"/>
         <v>5.5250000000000909</v>
       </c>
       <c r="J525" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2016875000000198</v>
       </c>
       <c r="K525" t="s">
@@ -42947,11 +43019,11 @@
         <v>15</v>
       </c>
       <c r="I526">
-        <f>520.7-C526</f>
+        <f t="shared" si="16"/>
         <v>5.5940000000000509</v>
       </c>
       <c r="J526" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.216695000000011</v>
       </c>
       <c r="K526" t="s">
@@ -42984,11 +43056,11 @@
         <v>15</v>
       </c>
       <c r="I527">
-        <f>520.7-C527</f>
+        <f t="shared" si="16"/>
         <v>5.5120000000000573</v>
       </c>
       <c r="J527" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.1988600000000125</v>
       </c>
       <c r="K527" t="s">
@@ -43021,11 +43093,11 @@
         <v>15</v>
       </c>
       <c r="I528">
-        <f>520.7-C528</f>
+        <f t="shared" si="16"/>
         <v>5.7119999999999891</v>
       </c>
       <c r="J528" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2423599999999977</v>
       </c>
       <c r="K528" t="s">
@@ -43056,11 +43128,11 @@
         <v>15</v>
       </c>
       <c r="I529">
-        <f>520.7-C529</f>
+        <f t="shared" si="16"/>
         <v>5.6180000000000518</v>
       </c>
       <c r="J529" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2219150000000112</v>
       </c>
       <c r="K529" t="s">
@@ -43093,11 +43165,11 @@
         <v>15</v>
       </c>
       <c r="I530">
-        <f>520.7-C530</f>
+        <f t="shared" si="16"/>
         <v>5.6750000000000682</v>
       </c>
       <c r="J530" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2343125000000148</v>
       </c>
       <c r="K530" t="s">
@@ -43130,11 +43202,11 @@
         <v>15</v>
       </c>
       <c r="I531">
-        <f>520.7-C531</f>
+        <f t="shared" si="16"/>
         <v>5.6760000000000446</v>
       </c>
       <c r="J531" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2345300000000097</v>
       </c>
       <c r="K531" t="s">
@@ -43167,11 +43239,11 @@
         <v>15</v>
       </c>
       <c r="I532">
-        <f>520.7-C532</f>
+        <f t="shared" si="16"/>
         <v>5.5830000000000837</v>
       </c>
       <c r="J532" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2143025000000183</v>
       </c>
       <c r="K532" t="s">
@@ -43204,11 +43276,11 @@
         <v>15</v>
       </c>
       <c r="I533">
-        <f>520.7-C533</f>
+        <f t="shared" si="16"/>
         <v>5.5550000000000637</v>
       </c>
       <c r="J533" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2082125000000139</v>
       </c>
       <c r="K533" t="s">
@@ -43241,11 +43313,11 @@
         <v>15</v>
       </c>
       <c r="I534">
-        <f>520.7-C534</f>
+        <f t="shared" si="16"/>
         <v>5.7030000000000882</v>
       </c>
       <c r="J534" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2404025000000192</v>
       </c>
       <c r="K534" t="s">
@@ -43276,11 +43348,11 @@
         <v>15</v>
       </c>
       <c r="I535">
-        <f>520.7-C535</f>
+        <f t="shared" si="16"/>
         <v>5.6779999999999973</v>
       </c>
       <c r="J535" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2349649999999994</v>
       </c>
       <c r="K535" t="s">
@@ -43313,11 +43385,11 @@
         <v>15</v>
       </c>
       <c r="I536">
-        <f>520.7-C536</f>
+        <f t="shared" si="16"/>
         <v>5.59800000000007</v>
       </c>
       <c r="J536" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2175650000000153</v>
       </c>
       <c r="K536" t="s">
@@ -43350,11 +43422,11 @@
         <v>15</v>
       </c>
       <c r="I537">
-        <f>520.7-C537</f>
+        <f t="shared" si="16"/>
         <v>5.6160000000000991</v>
       </c>
       <c r="J537" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2214800000000217</v>
       </c>
       <c r="K537" t="s">
@@ -43387,11 +43459,11 @@
         <v>15</v>
       </c>
       <c r="I538">
-        <f>520.7-C538</f>
+        <f t="shared" si="16"/>
         <v>5.6340000000000146</v>
       </c>
       <c r="J538" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2253950000000031</v>
       </c>
       <c r="K538" t="s">
@@ -43424,11 +43496,11 @@
         <v>15</v>
       </c>
       <c r="I539">
-        <f>520.7-C539</f>
+        <f t="shared" si="16"/>
         <v>5.45900000000006</v>
       </c>
       <c r="J539" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.187332500000013</v>
       </c>
       <c r="K539" t="s">
@@ -43461,11 +43533,11 @@
         <v>15</v>
       </c>
       <c r="I540">
-        <f>520.7-C540</f>
+        <f t="shared" si="16"/>
         <v>5.6310000000000855</v>
       </c>
       <c r="J540" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2247425000000185</v>
       </c>
       <c r="K540" t="s">
@@ -43496,11 +43568,11 @@
         <v>9</v>
       </c>
       <c r="I541">
-        <f>520.7-C541</f>
+        <f t="shared" si="16"/>
         <v>5.9470000000000027</v>
       </c>
       <c r="J541" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2934725000000007</v>
       </c>
       <c r="K541" t="s">
@@ -43531,11 +43603,11 @@
         <v>9</v>
       </c>
       <c r="I542">
-        <f>520.7-C542</f>
+        <f t="shared" si="16"/>
         <v>5.8300000000000409</v>
       </c>
       <c r="J542" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2680250000000088</v>
       </c>
       <c r="K542" t="s">
@@ -43568,11 +43640,11 @@
         <v>9</v>
       </c>
       <c r="I543">
-        <f>520.7-C543</f>
+        <f t="shared" si="16"/>
         <v>5.9080000000000155</v>
       </c>
       <c r="J543" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2849900000000034</v>
       </c>
       <c r="K543" t="s">
@@ -43603,11 +43675,11 @@
         <v>9</v>
       </c>
       <c r="I544">
-        <f>520.7-C544</f>
+        <f t="shared" si="16"/>
         <v>5.9569999999999936</v>
       </c>
       <c r="J544" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2956474999999985</v>
       </c>
       <c r="K544" t="s">
@@ -43640,11 +43712,11 @@
         <v>9</v>
       </c>
       <c r="I545">
-        <f>520.7-C545</f>
+        <f t="shared" si="16"/>
         <v>5.88900000000001</v>
       </c>
       <c r="J545" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2808575000000022</v>
       </c>
       <c r="K545" t="s">
@@ -43675,11 +43747,11 @@
         <v>9</v>
       </c>
       <c r="I546">
-        <f>520.7-C546</f>
+        <f t="shared" si="16"/>
         <v>5.8570000000000846</v>
       </c>
       <c r="J546" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2738975000000183</v>
       </c>
       <c r="K546" t="s">
@@ -43712,11 +43784,11 @@
         <v>9</v>
       </c>
       <c r="I547">
-        <f>520.7-C547</f>
+        <f t="shared" si="16"/>
         <v>5.8380000000000791</v>
       </c>
       <c r="J547" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2697650000000171</v>
       </c>
       <c r="K547" t="s">
@@ -43747,11 +43819,11 @@
         <v>9</v>
       </c>
       <c r="I548">
-        <f>520.7-C548</f>
+        <f t="shared" si="16"/>
         <v>5.8650000000000091</v>
       </c>
       <c r="J548" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.275637500000002</v>
       </c>
       <c r="K548" t="s">
@@ -43784,11 +43856,11 @@
         <v>9</v>
       </c>
       <c r="I549">
-        <f>520.7-C549</f>
+        <f t="shared" si="16"/>
         <v>5.9820000000000846</v>
       </c>
       <c r="J549" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.3010850000000185</v>
       </c>
       <c r="K549" t="s">
@@ -43819,11 +43891,11 @@
         <v>14</v>
       </c>
       <c r="I550">
-        <f>520.7-C550</f>
+        <f t="shared" si="16"/>
         <v>5.8820000000000618</v>
       </c>
       <c r="J550" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2793350000000134</v>
       </c>
       <c r="K550" t="s">
@@ -43856,11 +43928,11 @@
         <v>14</v>
       </c>
       <c r="I551">
-        <f>520.7-C551</f>
+        <f t="shared" si="16"/>
         <v>5.7990000000000919</v>
       </c>
       <c r="J551" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2612825000000201</v>
       </c>
       <c r="K551" t="s">
@@ -43893,11 +43965,11 @@
         <v>14</v>
       </c>
       <c r="I552">
-        <f>520.7-C552</f>
+        <f t="shared" si="16"/>
         <v>5.9329999999999927</v>
       </c>
       <c r="J552" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2904274999999985</v>
       </c>
       <c r="K552" t="s">
@@ -43930,11 +44002,11 @@
         <v>14</v>
       </c>
       <c r="I553">
-        <f>520.7-C553</f>
+        <f t="shared" si="16"/>
         <v>5.7730000000000246</v>
       </c>
       <c r="J553" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2556275000000052</v>
       </c>
       <c r="K553" t="s">
@@ -43965,11 +44037,11 @@
         <v>14</v>
       </c>
       <c r="I554">
-        <f>520.7-C554</f>
+        <f t="shared" si="16"/>
         <v>5.7420000000000755</v>
       </c>
       <c r="J554" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2488850000000165</v>
       </c>
       <c r="K554" t="s">
@@ -44002,11 +44074,11 @@
         <v>14</v>
       </c>
       <c r="I555">
-        <f>520.7-C555</f>
+        <f t="shared" si="16"/>
         <v>5.7750000000000909</v>
       </c>
       <c r="J555" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2560625000000198</v>
       </c>
       <c r="K555" t="s">
@@ -44039,11 +44111,11 @@
         <v>14</v>
       </c>
       <c r="I556">
-        <f>520.7-C556</f>
+        <f t="shared" si="16"/>
         <v>5.7030000000000882</v>
       </c>
       <c r="J556" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2404025000000192</v>
       </c>
       <c r="K556" t="s">
@@ -44076,11 +44148,11 @@
         <v>14</v>
       </c>
       <c r="I557">
-        <f>520.7-C557</f>
+        <f t="shared" si="16"/>
         <v>5.9320000000000164</v>
       </c>
       <c r="J557" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2902100000000036</v>
       </c>
       <c r="K557" t="s">
@@ -44111,11 +44183,11 @@
         <v>14</v>
       </c>
       <c r="I558">
-        <f>520.7-C558</f>
+        <f t="shared" si="16"/>
         <v>5.8050000000000637</v>
       </c>
       <c r="J558" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2625875000000137</v>
       </c>
       <c r="K558" t="s">
@@ -44148,11 +44220,11 @@
         <v>14</v>
       </c>
       <c r="I559">
-        <f>520.7-C559</f>
+        <f t="shared" si="16"/>
         <v>5.6290000000000191</v>
       </c>
       <c r="J559" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2243075000000041</v>
       </c>
       <c r="K559" t="s">
@@ -44185,11 +44257,11 @@
         <v>14</v>
       </c>
       <c r="I560">
-        <f>520.7-C560</f>
+        <f t="shared" si="16"/>
         <v>5.8880000000000337</v>
       </c>
       <c r="J560" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2806400000000073</v>
       </c>
       <c r="K560" t="s">
@@ -44222,11 +44294,11 @@
         <v>14</v>
       </c>
       <c r="I561">
-        <f>520.7-C561</f>
+        <f t="shared" si="16"/>
         <v>5.7250000000000227</v>
       </c>
       <c r="J561" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.245187500000005</v>
       </c>
       <c r="K561" t="s">
@@ -44257,11 +44329,11 @@
         <v>14</v>
       </c>
       <c r="I562">
-        <f>520.7-C562</f>
+        <f t="shared" si="16"/>
         <v>5.8280000000000882</v>
       </c>
       <c r="J562" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2675900000000191</v>
       </c>
       <c r="K562" t="s">
@@ -44294,11 +44366,11 @@
         <v>14</v>
       </c>
       <c r="I563">
-        <f>520.7-C563</f>
+        <f t="shared" si="16"/>
         <v>5.7760000000000673</v>
       </c>
       <c r="J563" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2562800000000147</v>
       </c>
       <c r="K563" t="s">
@@ -44331,11 +44403,11 @@
         <v>14</v>
       </c>
       <c r="I564">
-        <f>520.7-C564</f>
+        <f t="shared" si="16"/>
         <v>5.6820000000000164</v>
       </c>
       <c r="J564" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2358350000000036</v>
       </c>
       <c r="K564" t="s">
@@ -44368,11 +44440,11 @@
         <v>14</v>
       </c>
       <c r="I565">
-        <f>520.7-C565</f>
+        <f t="shared" si="16"/>
         <v>5.8350000000000364</v>
       </c>
       <c r="J565" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2691125000000079</v>
       </c>
       <c r="K565" t="s">
@@ -44403,11 +44475,11 @@
         <v>15</v>
       </c>
       <c r="I566">
-        <f>520.7-C566</f>
+        <f t="shared" si="16"/>
         <v>5.4380000000001019</v>
       </c>
       <c r="J566" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.182765000000022</v>
       </c>
       <c r="K566" t="s">
@@ -44440,11 +44512,11 @@
         <v>15</v>
       </c>
       <c r="I567">
-        <f>520.7-C567</f>
+        <f t="shared" si="16"/>
         <v>5.7170000000000982</v>
       </c>
       <c r="J567" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2434475000000214</v>
       </c>
       <c r="K567" t="s">
@@ -44477,11 +44549,11 @@
         <v>15</v>
       </c>
       <c r="I568">
-        <f>520.7-C568</f>
+        <f t="shared" si="16"/>
         <v>5.5330000000000155</v>
       </c>
       <c r="J568" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2034275000000034</v>
       </c>
       <c r="K568" t="s">
@@ -44514,11 +44586,11 @@
         <v>15</v>
       </c>
       <c r="I569">
-        <f>520.7-C569</f>
+        <f t="shared" si="16"/>
         <v>5.5550000000000637</v>
       </c>
       <c r="J569" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2082125000000139</v>
       </c>
       <c r="K569" t="s">
@@ -44551,11 +44623,11 @@
         <v>15</v>
       </c>
       <c r="I570">
-        <f>520.7-C570</f>
+        <f t="shared" si="16"/>
         <v>5.83400000000006</v>
       </c>
       <c r="J570" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.268895000000013</v>
       </c>
       <c r="K570" t="s">
@@ -44588,11 +44660,11 @@
         <v>15</v>
       </c>
       <c r="I571">
-        <f>520.7-C571</f>
+        <f t="shared" si="16"/>
         <v>5.6460000000000719</v>
       </c>
       <c r="J571" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2280050000000156</v>
       </c>
       <c r="K571" t="s">
@@ -44623,11 +44695,11 @@
         <v>15</v>
       </c>
       <c r="I572">
-        <f>520.7-C572</f>
+        <f t="shared" si="16"/>
         <v>5.7530000000000427</v>
       </c>
       <c r="J572" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2512775000000094</v>
       </c>
       <c r="K572" t="s">
@@ -44660,11 +44732,11 @@
         <v>15</v>
       </c>
       <c r="I573">
-        <f>520.7-C573</f>
+        <f t="shared" si="16"/>
         <v>5.8040000000000873</v>
       </c>
       <c r="J573" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2623700000000191</v>
       </c>
       <c r="K573" t="s">
@@ -44697,11 +44769,11 @@
         <v>15</v>
       </c>
       <c r="I574">
-        <f>520.7-C574</f>
+        <f t="shared" si="16"/>
         <v>5.66700000000003</v>
       </c>
       <c r="J574" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2325725000000065</v>
       </c>
       <c r="K574" t="s">
@@ -44734,11 +44806,11 @@
         <v>15</v>
       </c>
       <c r="I575">
-        <f>520.7-C575</f>
+        <f t="shared" si="16"/>
         <v>5.7610000000000809</v>
       </c>
       <c r="J575" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2530175000000177</v>
       </c>
       <c r="K575" t="s">
@@ -44771,11 +44843,11 @@
         <v>15</v>
       </c>
       <c r="I576">
-        <f>520.7-C576</f>
+        <f t="shared" si="16"/>
         <v>5.7530000000000427</v>
       </c>
       <c r="J576" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2512775000000094</v>
       </c>
       <c r="K576" t="s">
@@ -44808,11 +44880,11 @@
         <v>15</v>
       </c>
       <c r="I577">
-        <f>520.7-C577</f>
+        <f t="shared" si="16"/>
         <v>5.7540000000000191</v>
       </c>
       <c r="J577" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2514950000000042</v>
       </c>
       <c r="K577" t="s">
@@ -44843,11 +44915,11 @@
         <v>15</v>
       </c>
       <c r="I578">
-        <f>520.7-C578</f>
+        <f t="shared" ref="I578:I589" si="18">520.7-C578</f>
         <v>5.8530000000000655</v>
       </c>
       <c r="J578" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.2730275000000142</v>
       </c>
       <c r="K578" t="s">
@@ -44880,11 +44952,11 @@
         <v>15</v>
       </c>
       <c r="I579">
-        <f>520.7-C579</f>
+        <f t="shared" si="18"/>
         <v>5.8010000000000446</v>
       </c>
       <c r="J579" s="9">
-        <f t="shared" ref="J579:J589" si="9">I579*0.2175</f>
+        <f t="shared" ref="J579:J589" si="19">I579*0.2175</f>
         <v>1.2617175000000096</v>
       </c>
       <c r="K579" t="s">
@@ -44917,11 +44989,11 @@
         <v>15</v>
       </c>
       <c r="I580">
-        <f>520.7-C580</f>
+        <f t="shared" si="18"/>
         <v>5.6000000000000227</v>
       </c>
       <c r="J580" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2180000000000049</v>
       </c>
       <c r="K580" t="s">
@@ -44954,11 +45026,11 @@
         <v>15</v>
       </c>
       <c r="I581">
-        <f>520.7-C581</f>
+        <f t="shared" si="18"/>
         <v>5.7250000000000227</v>
       </c>
       <c r="J581" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.245187500000005</v>
       </c>
       <c r="K581" t="s">
@@ -44991,11 +45063,11 @@
         <v>15</v>
       </c>
       <c r="I582">
-        <f>520.7-C582</f>
+        <f t="shared" si="18"/>
         <v>5.70900000000006</v>
       </c>
       <c r="J582" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2417075000000131</v>
       </c>
       <c r="K582" t="s">
@@ -45028,11 +45100,11 @@
         <v>15</v>
       </c>
       <c r="I583">
-        <f>520.7-C583</f>
+        <f t="shared" si="18"/>
         <v>5.6820000000000164</v>
       </c>
       <c r="J583" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2358350000000036</v>
       </c>
       <c r="K583" t="s">
@@ -45063,11 +45135,11 @@
         <v>15</v>
       </c>
       <c r="I584">
-        <f>520.7-C584</f>
+        <f t="shared" si="18"/>
         <v>5.6230000000000473</v>
       </c>
       <c r="J584" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2230025000000102</v>
       </c>
       <c r="K584" t="s">
@@ -45100,11 +45172,11 @@
         <v>15</v>
       </c>
       <c r="I585">
-        <f>520.7-C585</f>
+        <f t="shared" si="18"/>
         <v>5.7309999999999945</v>
       </c>
       <c r="J585" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2464924999999989</v>
       </c>
       <c r="K585" t="s">
@@ -45137,11 +45209,11 @@
         <v>15</v>
       </c>
       <c r="I586">
-        <f>520.7-C586</f>
+        <f t="shared" si="18"/>
         <v>5.7950000000000728</v>
       </c>
       <c r="J586" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2604125000000159</v>
       </c>
       <c r="K586" t="s">
@@ -45174,11 +45246,11 @@
         <v>15</v>
       </c>
       <c r="I587">
-        <f>520.7-C587</f>
+        <f t="shared" si="18"/>
         <v>5.7549999999999955</v>
       </c>
       <c r="J587" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2517124999999989</v>
       </c>
       <c r="K587" t="s">
@@ -45211,11 +45283,11 @@
         <v>15</v>
       </c>
       <c r="I588">
-        <f>520.7-C588</f>
+        <f t="shared" si="18"/>
         <v>5.7280000000000655</v>
       </c>
       <c r="J588" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2458400000000143</v>
       </c>
       <c r="K588" t="s">
@@ -45248,11 +45320,11 @@
         <v>15</v>
       </c>
       <c r="I589">
-        <f>520.7-C589</f>
+        <f t="shared" si="18"/>
         <v>5.8590000000000373</v>
       </c>
       <c r="J589" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.2743325000000081</v>
       </c>
       <c r="K589" t="s">

--- a/examples/data_inline.xlsx
+++ b/examples/data_inline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VL251876\Documents\Python\SPECTROview-1\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328658F6-D9BD-4225-90A8-D79048F8632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7121A88-BCFF-4B1D-8807-59E911EC8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38430" yWindow="480" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="4590" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -222,6 +222,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -526,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L589"/>
+  <dimension ref="A1:O589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="A1:XFD1048576"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +574,11 @@
       <c r="L1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -610,7 +616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44.667000000000002</v>
       </c>
@@ -648,7 +654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>31.584</v>
       </c>
@@ -688,7 +694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -726,7 +732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>-31.584</v>
       </c>
@@ -766,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>-44.667000000000002</v>
       </c>
@@ -804,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>-31.584</v>
       </c>
@@ -844,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -882,7 +888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>31.584</v>
       </c>
@@ -922,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>89.332999999999998</v>
       </c>
@@ -960,7 +966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>82.533000000000001</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>63.167999999999999</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>34.186</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>-34.186</v>
       </c>
@@ -23787,15 +23793,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4DAA12-D9A6-4C89-A6AF-803390C58A71}">
-  <dimension ref="A1:M589"/>
+  <dimension ref="A1:N589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332:D589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23835,8 +23841,9 @@
       <c r="M1" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -23847,7 +23854,7 @@
         <v>514.56100000000004</v>
       </c>
       <c r="D2" s="6">
-        <v>8954.1229999999996</v>
+        <v>6000</v>
       </c>
       <c r="E2" s="7">
         <v>54357.61</v>
@@ -23877,7 +23884,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44.667000000000002</v>
       </c>
@@ -23888,7 +23895,7 @@
         <v>514.56799999999998</v>
       </c>
       <c r="D3" s="6">
-        <v>8841.1839999999993</v>
+        <v>6000</v>
       </c>
       <c r="E3" s="7">
         <v>54022.970999999998</v>
@@ -23918,7 +23925,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>31.584</v>
       </c>
@@ -23929,7 +23936,7 @@
         <v>514.77499999999998</v>
       </c>
       <c r="D4" s="6">
-        <v>8885.4740000000002</v>
+        <v>6000</v>
       </c>
       <c r="E4" s="7">
         <v>54540.743000000002</v>
@@ -23961,7 +23968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -23972,7 +23979,7 @@
         <v>514.87900000000002</v>
       </c>
       <c r="D5" s="6">
-        <v>8760.634</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="7">
         <v>54422.118999999999</v>
@@ -24002,7 +24009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>-31.584</v>
       </c>
@@ -24013,7 +24020,7 @@
         <v>514.72699999999998</v>
       </c>
       <c r="D6" s="6">
-        <v>8839.3359999999993</v>
+        <v>6000</v>
       </c>
       <c r="E6" s="7">
         <v>54387.567000000003</v>
@@ -24045,7 +24052,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>-44.667000000000002</v>
       </c>
@@ -24056,7 +24063,7 @@
         <v>514.822</v>
       </c>
       <c r="D7" s="6">
-        <v>8816.4750000000004</v>
+        <v>6000</v>
       </c>
       <c r="E7" s="7">
         <v>54573.781000000003</v>
@@ -24086,7 +24093,7 @@
         <v>38474</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>-31.584</v>
       </c>
@@ -24097,7 +24104,7 @@
         <v>514.76099999999997</v>
       </c>
       <c r="D8" s="6">
-        <v>8738.2780000000002</v>
+        <v>6000</v>
       </c>
       <c r="E8" s="7">
         <v>54440.072999999997</v>
@@ -24129,7 +24136,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -24140,7 +24147,7 @@
         <v>514.67999999999995</v>
       </c>
       <c r="D9" s="6">
-        <v>9141.2440000000006</v>
+        <v>6000</v>
       </c>
       <c r="E9" s="7">
         <v>56243.701000000001</v>
@@ -24170,7 +24177,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>31.584</v>
       </c>
@@ -24181,7 +24188,7 @@
         <v>514.68899999999996</v>
       </c>
       <c r="D10" s="6">
-        <v>8870.9519999999993</v>
+        <v>6000</v>
       </c>
       <c r="E10" s="7">
         <v>54936.330999999998</v>
@@ -24213,7 +24220,7 @@
         <v>373671</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>89.332999999999998</v>
       </c>
@@ -24224,7 +24231,7 @@
         <v>514.93799999999999</v>
       </c>
       <c r="D11" s="6">
-        <v>7755.268</v>
+        <v>6000</v>
       </c>
       <c r="E11" s="7">
         <v>47799.195</v>
@@ -24248,7 +24255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>82.533000000000001</v>
       </c>
@@ -24259,7 +24266,7 @@
         <v>514.86400000000003</v>
       </c>
       <c r="D12" s="6">
-        <v>7663.3090000000002</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="7">
         <v>47377.048999999999</v>
@@ -24285,7 +24292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>63.167999999999999</v>
       </c>
@@ -24296,7 +24303,7 @@
         <v>514.83399999999995</v>
       </c>
       <c r="D13" s="6">
-        <v>7682.1750000000002</v>
+        <v>6000</v>
       </c>
       <c r="E13" s="7">
         <v>47016.383999999998</v>
@@ -24322,7 +24329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>34.186</v>
       </c>
@@ -24333,7 +24340,7 @@
         <v>514.86099999999999</v>
       </c>
       <c r="D14" s="6">
-        <v>7529.6930000000002</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="7">
         <v>46670.309000000001</v>
@@ -24359,7 +24366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -24370,7 +24377,7 @@
         <v>514.75199999999995</v>
       </c>
       <c r="D15" s="6">
-        <v>7529.4549999999999</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="7">
         <v>46424.25</v>
@@ -24394,7 +24401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>-34.186</v>
       </c>
@@ -24405,7 +24412,7 @@
         <v>514.86300000000006</v>
       </c>
       <c r="D16" s="6">
-        <v>7464.4120000000003</v>
+        <v>6000</v>
       </c>
       <c r="E16" s="7">
         <v>46199.076999999997</v>
@@ -24442,7 +24449,7 @@
         <v>514.99599999999998</v>
       </c>
       <c r="D17" s="6">
-        <v>7877.0039999999999</v>
+        <v>6000</v>
       </c>
       <c r="E17" s="7">
         <v>48599.334999999999</v>
@@ -24479,7 +24486,7 @@
         <v>515.03599999999994</v>
       </c>
       <c r="D18" s="6">
-        <v>7636.9560000000001</v>
+        <v>6000</v>
       </c>
       <c r="E18" s="7">
         <v>46983.92</v>
@@ -24516,7 +24523,7 @@
         <v>514.81700000000001</v>
       </c>
       <c r="D19" s="6">
-        <v>8072.97</v>
+        <v>6000</v>
       </c>
       <c r="E19" s="7">
         <v>49466.419000000002</v>
@@ -24551,7 +24558,7 @@
         <v>514.827</v>
       </c>
       <c r="D20" s="6">
-        <v>7625.0680000000002</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="7">
         <v>46874.305999999997</v>
@@ -24588,7 +24595,7 @@
         <v>514.81500000000005</v>
       </c>
       <c r="D21" s="6">
-        <v>7580.2669999999998</v>
+        <v>6000</v>
       </c>
       <c r="E21" s="7">
         <v>46459.783000000003</v>
@@ -24625,7 +24632,7 @@
         <v>514.9</v>
       </c>
       <c r="D22" s="6">
-        <v>8140.625</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="7">
         <v>50521.01</v>
@@ -24662,7 +24669,7 @@
         <v>514.87</v>
       </c>
       <c r="D23" s="6">
-        <v>7736.4250000000002</v>
+        <v>6000</v>
       </c>
       <c r="E23" s="7">
         <v>47124.26</v>
@@ -24697,7 +24704,7 @@
         <v>514.92100000000005</v>
       </c>
       <c r="D24" s="6">
-        <v>7924.6949999999997</v>
+        <v>6000</v>
       </c>
       <c r="E24" s="7">
         <v>48745.466</v>
@@ -24734,7 +24741,7 @@
         <v>514.76</v>
       </c>
       <c r="D25" s="6">
-        <v>7660.2950000000001</v>
+        <v>6000</v>
       </c>
       <c r="E25" s="7">
         <v>47133.321000000004</v>
@@ -24771,7 +24778,7 @@
         <v>514.88199999999995</v>
       </c>
       <c r="D26" s="6">
-        <v>7680.3549999999996</v>
+        <v>6000</v>
       </c>
       <c r="E26" s="7">
         <v>47172.930999999997</v>
@@ -24808,7 +24815,7 @@
         <v>515.04399999999998</v>
       </c>
       <c r="D27" s="6">
-        <v>7860.5649999999996</v>
+        <v>6000</v>
       </c>
       <c r="E27" s="7">
         <v>48609.03</v>
@@ -24843,7 +24850,7 @@
         <v>514.99900000000002</v>
       </c>
       <c r="D28" s="6">
-        <v>8328.6530000000002</v>
+        <v>6000</v>
       </c>
       <c r="E28" s="7">
         <v>50970.807999999997</v>
@@ -24880,7 +24887,7 @@
         <v>514.97699999999998</v>
       </c>
       <c r="D29" s="6">
-        <v>8289.6190000000006</v>
+        <v>6000</v>
       </c>
       <c r="E29" s="7">
         <v>51393.446000000004</v>
@@ -24917,7 +24924,7 @@
         <v>515</v>
       </c>
       <c r="D30" s="6">
-        <v>8308.4570000000003</v>
+        <v>6000</v>
       </c>
       <c r="E30" s="7">
         <v>51019.383999999998</v>
@@ -24954,7 +24961,7 @@
         <v>514.85599999999999</v>
       </c>
       <c r="D31" s="6">
-        <v>8131.84</v>
+        <v>6000</v>
       </c>
       <c r="E31" s="7">
         <v>51189.800999999999</v>
@@ -24991,7 +24998,7 @@
         <v>515.005</v>
       </c>
       <c r="D32" s="6">
-        <v>8359.8889999999992</v>
+        <v>6000</v>
       </c>
       <c r="E32" s="7">
         <v>52697.137999999999</v>
@@ -25028,7 +25035,7 @@
         <v>515.00599999999997</v>
       </c>
       <c r="D33" s="6">
-        <v>8371.4079999999994</v>
+        <v>6000</v>
       </c>
       <c r="E33" s="7">
         <v>52074.332000000002</v>
@@ -25063,7 +25070,7 @@
         <v>514.822</v>
       </c>
       <c r="D34" s="6">
-        <v>7746.5969999999998</v>
+        <v>6000</v>
       </c>
       <c r="E34" s="7">
         <v>48348.506999999998</v>
@@ -25100,7 +25107,7 @@
         <v>515.11599999999999</v>
       </c>
       <c r="D35" s="6">
-        <v>8578.0490000000009</v>
+        <v>6000</v>
       </c>
       <c r="E35" s="7">
         <v>53619.152999999998</v>
@@ -25137,7 +25144,7 @@
         <v>514.91800000000001</v>
       </c>
       <c r="D36" s="6">
-        <v>7680.5039999999999</v>
+        <v>6000</v>
       </c>
       <c r="E36" s="7">
         <v>47864.911</v>
@@ -25174,7 +25181,7 @@
         <v>514.91099999999994</v>
       </c>
       <c r="D37" s="6">
-        <v>8722.1919999999991</v>
+        <v>6000</v>
       </c>
       <c r="E37" s="7">
         <v>53731.608999999997</v>
@@ -25211,7 +25218,7 @@
         <v>514.93600000000004</v>
       </c>
       <c r="D38" s="6">
-        <v>8494.3739999999998</v>
+        <v>6000</v>
       </c>
       <c r="E38" s="7">
         <v>52613.131000000001</v>
@@ -25248,7 +25255,7 @@
         <v>515.11599999999999</v>
       </c>
       <c r="D39" s="6">
-        <v>8662.9110000000001</v>
+        <v>6000</v>
       </c>
       <c r="E39" s="7">
         <v>54313.349000000002</v>
@@ -25283,7 +25290,7 @@
         <v>514.98599999999999</v>
       </c>
       <c r="D40" s="6">
-        <v>8310.5319999999992</v>
+        <v>6000</v>
       </c>
       <c r="E40" s="7">
         <v>52289.527000000002</v>
@@ -25320,7 +25327,7 @@
         <v>514.92600000000004</v>
       </c>
       <c r="D41" s="6">
-        <v>8652.9950000000008</v>
+        <v>6000</v>
       </c>
       <c r="E41" s="7">
         <v>54250.461000000003</v>
@@ -25357,7 +25364,7 @@
         <v>515.07100000000003</v>
       </c>
       <c r="D42" s="6">
-        <v>8160.9809999999998</v>
+        <v>6000</v>
       </c>
       <c r="E42" s="7">
         <v>50872.678</v>
@@ -25394,7 +25401,7 @@
         <v>514.80999999999995</v>
       </c>
       <c r="D43" s="6">
-        <v>8771.4089999999997</v>
+        <v>6000</v>
       </c>
       <c r="E43" s="7">
         <v>54121.648999999998</v>
@@ -25431,7 +25438,7 @@
         <v>515.13900000000001</v>
       </c>
       <c r="D44" s="6">
-        <v>7991.3940000000002</v>
+        <v>6000</v>
       </c>
       <c r="E44" s="7">
         <v>49880.648999999998</v>
@@ -25468,7 +25475,7 @@
         <v>515.12800000000004</v>
       </c>
       <c r="D45" s="6">
-        <v>8221.14</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="7">
         <v>51209.146999999997</v>
@@ -25503,7 +25510,7 @@
         <v>515.06899999999996</v>
       </c>
       <c r="D46" s="6">
-        <v>8308.5580000000009</v>
+        <v>6000</v>
       </c>
       <c r="E46" s="7">
         <v>51622.993999999999</v>
@@ -25540,7 +25547,7 @@
         <v>515.00199999999995</v>
       </c>
       <c r="D47" s="6">
-        <v>7966.5680000000002</v>
+        <v>6000</v>
       </c>
       <c r="E47" s="7">
         <v>49672.072999999997</v>
@@ -25577,7 +25584,7 @@
         <v>514.95399999999995</v>
       </c>
       <c r="D48" s="6">
-        <v>8396.4570000000003</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="7">
         <v>52219.745999999999</v>
@@ -25614,7 +25621,7 @@
         <v>514.95100000000002</v>
       </c>
       <c r="D49" s="6">
-        <v>7972.2690000000002</v>
+        <v>6000</v>
       </c>
       <c r="E49" s="7">
         <v>49621.188000000002</v>
@@ -25651,7 +25658,7 @@
         <v>514.87599999999998</v>
       </c>
       <c r="D50" s="6">
-        <v>8244.4410000000007</v>
+        <v>6000</v>
       </c>
       <c r="E50" s="7">
         <v>50640.133000000002</v>
@@ -25688,7 +25695,7 @@
         <v>514.44100000000003</v>
       </c>
       <c r="D51" s="6">
-        <v>8197.7160000000003</v>
+        <v>6000</v>
       </c>
       <c r="E51" s="7">
         <v>49641.663999999997</v>
@@ -25723,7 +25730,7 @@
         <v>514.70299999999997</v>
       </c>
       <c r="D52" s="6">
-        <v>8639.5380000000005</v>
+        <v>6000</v>
       </c>
       <c r="E52" s="7">
         <v>52770.163</v>
@@ -25758,7 +25765,7 @@
         <v>514.69100000000003</v>
       </c>
       <c r="D53" s="6">
-        <v>8700.3130000000001</v>
+        <v>6000</v>
       </c>
       <c r="E53" s="7">
         <v>53160.887999999999</v>
@@ -25795,7 +25802,7 @@
         <v>514.63800000000003</v>
       </c>
       <c r="D54" s="6">
-        <v>8698.9439999999995</v>
+        <v>6000</v>
       </c>
       <c r="E54" s="7">
         <v>53113.057000000001</v>
@@ -25830,7 +25837,7 @@
         <v>514.64099999999996</v>
       </c>
       <c r="D55" s="6">
-        <v>8493.2919999999995</v>
+        <v>6000</v>
       </c>
       <c r="E55" s="7">
         <v>51977.305</v>
@@ -25867,7 +25874,7 @@
         <v>514.62800000000004</v>
       </c>
       <c r="D56" s="6">
-        <v>8602.0669999999991</v>
+        <v>6000</v>
       </c>
       <c r="E56" s="7">
         <v>52870.785000000003</v>
@@ -25902,7 +25909,7 @@
         <v>514.75900000000001</v>
       </c>
       <c r="D57" s="6">
-        <v>8757.6890000000003</v>
+        <v>6000</v>
       </c>
       <c r="E57" s="7">
         <v>53328.055999999997</v>
@@ -25939,7 +25946,7 @@
         <v>514.80600000000004</v>
       </c>
       <c r="D58" s="6">
-        <v>8876.5529999999999</v>
+        <v>6000</v>
       </c>
       <c r="E58" s="7">
         <v>54764.116999999998</v>
@@ -25974,7 +25981,7 @@
         <v>514.66899999999998</v>
       </c>
       <c r="D59" s="6">
-        <v>8852.3580000000002</v>
+        <v>6000</v>
       </c>
       <c r="E59" s="7">
         <v>53733.921000000002</v>
@@ -26011,7 +26018,7 @@
         <v>514.98299999999995</v>
       </c>
       <c r="D60" s="6">
-        <v>7559.8389999999999</v>
+        <v>6000</v>
       </c>
       <c r="E60" s="7">
         <v>45733.357000000004</v>
@@ -26046,7 +26053,7 @@
         <v>514.79300000000001</v>
       </c>
       <c r="D61" s="6">
-        <v>7653.9369999999999</v>
+        <v>6000</v>
       </c>
       <c r="E61" s="7">
         <v>46154.468999999997</v>
@@ -26083,7 +26090,7 @@
         <v>514.77800000000002</v>
       </c>
       <c r="D62" s="6">
-        <v>7629.2780000000002</v>
+        <v>6000</v>
       </c>
       <c r="E62" s="7">
         <v>46413.982000000004</v>
@@ -26120,7 +26127,7 @@
         <v>514.95699999999999</v>
       </c>
       <c r="D63" s="6">
-        <v>7155.1030000000001</v>
+        <v>6000</v>
       </c>
       <c r="E63" s="7">
         <v>43565.514999999999</v>
@@ -26157,7 +26164,7 @@
         <v>514.82899999999995</v>
       </c>
       <c r="D64" s="6">
-        <v>7537.2020000000002</v>
+        <v>6000</v>
       </c>
       <c r="E64" s="7">
         <v>45767.722000000002</v>
@@ -26192,7 +26199,7 @@
         <v>514.72799999999995</v>
       </c>
       <c r="D65" s="6">
-        <v>6855.9769999999999</v>
+        <v>6000</v>
       </c>
       <c r="E65" s="7">
         <v>41555.332999999999</v>
@@ -26229,7 +26236,7 @@
         <v>514.73599999999999</v>
       </c>
       <c r="D66" s="6">
-        <v>7681.9170000000004</v>
+        <v>6000</v>
       </c>
       <c r="E66" s="7">
         <v>45644.432999999997</v>
@@ -26266,7 +26273,7 @@
         <v>514.76499999999999</v>
       </c>
       <c r="D67" s="6">
-        <v>7481.8549999999996</v>
+        <v>6000</v>
       </c>
       <c r="E67" s="7">
         <v>45119.902000000002</v>
@@ -26303,7 +26310,7 @@
         <v>514.87900000000002</v>
       </c>
       <c r="D68" s="6">
-        <v>7763.692</v>
+        <v>6000</v>
       </c>
       <c r="E68" s="7">
         <v>47000.425000000003</v>
@@ -26338,7 +26345,7 @@
         <v>514.87900000000002</v>
       </c>
       <c r="D69" s="6">
-        <v>6896.0119999999997</v>
+        <v>6000</v>
       </c>
       <c r="E69" s="7">
         <v>42040.031999999999</v>
@@ -26375,7 +26382,7 @@
         <v>514.70899999999995</v>
       </c>
       <c r="D70" s="6">
-        <v>7729.87</v>
+        <v>6000</v>
       </c>
       <c r="E70" s="7">
         <v>46997.714999999997</v>
@@ -26412,7 +26419,7 @@
         <v>514.79600000000005</v>
       </c>
       <c r="D71" s="6">
-        <v>7985.3130000000001</v>
+        <v>6000</v>
       </c>
       <c r="E71" s="7">
         <v>48375.885999999999</v>
@@ -26449,7 +26456,7 @@
         <v>514.73099999999999</v>
       </c>
       <c r="D72" s="6">
-        <v>7965.6809999999996</v>
+        <v>6000</v>
       </c>
       <c r="E72" s="7">
         <v>47877.178999999996</v>
@@ -26484,7 +26491,7 @@
         <v>514.75800000000004</v>
       </c>
       <c r="D73" s="6">
-        <v>7839.348</v>
+        <v>6000</v>
       </c>
       <c r="E73" s="7">
         <v>47096.828000000001</v>
@@ -26521,7 +26528,7 @@
         <v>514.94600000000003</v>
       </c>
       <c r="D74" s="6">
-        <v>7737.1909999999998</v>
+        <v>6000</v>
       </c>
       <c r="E74" s="7">
         <v>46896.790999999997</v>
@@ -26558,7 +26565,7 @@
         <v>514.73</v>
       </c>
       <c r="D75" s="6">
-        <v>7714.8230000000003</v>
+        <v>6000</v>
       </c>
       <c r="E75" s="7">
         <v>45988.555</v>
@@ -26595,7 +26602,7 @@
         <v>515.10900000000004</v>
       </c>
       <c r="D76" s="6">
-        <v>8151.174</v>
+        <v>6000</v>
       </c>
       <c r="E76" s="7">
         <v>49925.389000000003</v>
@@ -26630,7 +26637,7 @@
         <v>514.95299999999997</v>
       </c>
       <c r="D77" s="6">
-        <v>7951.0249999999996</v>
+        <v>6000</v>
       </c>
       <c r="E77" s="7">
         <v>47918.760999999999</v>
@@ -26667,7 +26674,7 @@
         <v>515.08199999999999</v>
       </c>
       <c r="D78" s="6">
-        <v>8143.8090000000002</v>
+        <v>6000</v>
       </c>
       <c r="E78" s="7">
         <v>50296.913999999997</v>
@@ -26704,7 +26711,7 @@
         <v>515.02200000000005</v>
       </c>
       <c r="D79" s="6">
-        <v>8044.982</v>
+        <v>6000</v>
       </c>
       <c r="E79" s="7">
         <v>49539.006999999998</v>
@@ -26741,7 +26748,7 @@
         <v>514.95100000000002</v>
       </c>
       <c r="D80" s="6">
-        <v>8181.8159999999998</v>
+        <v>6000</v>
       </c>
       <c r="E80" s="7">
         <v>50161.173999999999</v>
@@ -26778,7 +26785,7 @@
         <v>514.93700000000001</v>
       </c>
       <c r="D81" s="6">
-        <v>8172.8</v>
+        <v>6000</v>
       </c>
       <c r="E81" s="7">
         <v>50008.57</v>
@@ -26815,7 +26822,7 @@
         <v>514.97900000000004</v>
       </c>
       <c r="D82" s="6">
-        <v>8284.3649999999998</v>
+        <v>6000</v>
       </c>
       <c r="E82" s="7">
         <v>51529.421999999999</v>
@@ -26850,7 +26857,7 @@
         <v>514.97500000000002</v>
       </c>
       <c r="D83" s="6">
-        <v>7776.5720000000001</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="7">
         <v>47489.650999999998</v>
@@ -26887,7 +26894,7 @@
         <v>515</v>
       </c>
       <c r="D84" s="6">
-        <v>7695.8879999999999</v>
+        <v>6000</v>
       </c>
       <c r="E84" s="7">
         <v>47602.936999999998</v>
@@ -26924,7 +26931,7 @@
         <v>515.005</v>
       </c>
       <c r="D85" s="6">
-        <v>7605.9489999999996</v>
+        <v>6000</v>
       </c>
       <c r="E85" s="7">
         <v>46809.587</v>
@@ -26961,7 +26968,7 @@
         <v>514.89700000000005</v>
       </c>
       <c r="D86" s="6">
-        <v>8072.393</v>
+        <v>6000</v>
       </c>
       <c r="E86" s="7">
         <v>49452.305999999997</v>
@@ -26998,7 +27005,7 @@
         <v>514.83500000000004</v>
       </c>
       <c r="D87" s="6">
-        <v>7897.085</v>
+        <v>6000</v>
       </c>
       <c r="E87" s="7">
         <v>48204.220999999998</v>
@@ -27035,7 +27042,7 @@
         <v>515.05600000000004</v>
       </c>
       <c r="D88" s="6">
-        <v>8325.9549999999999</v>
+        <v>6000</v>
       </c>
       <c r="E88" s="7">
         <v>52060.659</v>
@@ -27070,7 +27077,7 @@
         <v>514.87900000000002</v>
       </c>
       <c r="D89" s="6">
-        <v>7862.9520000000002</v>
+        <v>6000</v>
       </c>
       <c r="E89" s="7">
         <v>48474.59</v>
@@ -27107,7 +27114,7 @@
         <v>515.07899999999995</v>
       </c>
       <c r="D90" s="6">
-        <v>8406.27</v>
+        <v>6000</v>
       </c>
       <c r="E90" s="7">
         <v>51970.720999999998</v>
@@ -27144,7 +27151,7 @@
         <v>514.92200000000003</v>
       </c>
       <c r="D91" s="6">
-        <v>8537.0570000000007</v>
+        <v>6000</v>
       </c>
       <c r="E91" s="7">
         <v>52523.741000000002</v>
@@ -27181,7 +27188,7 @@
         <v>515.03300000000002</v>
       </c>
       <c r="D92" s="6">
-        <v>7670.9409999999998</v>
+        <v>6000</v>
       </c>
       <c r="E92" s="7">
         <v>47192.754999999997</v>
@@ -27218,7 +27225,7 @@
         <v>515.04899999999998</v>
       </c>
       <c r="D93" s="6">
-        <v>8225.277</v>
+        <v>6000</v>
       </c>
       <c r="E93" s="7">
         <v>50264.012000000002</v>
@@ -27255,7 +27262,7 @@
         <v>514.98</v>
       </c>
       <c r="D94" s="6">
-        <v>8434.3279999999995</v>
+        <v>6000</v>
       </c>
       <c r="E94" s="7">
         <v>51546.777000000002</v>
@@ -27290,7 +27297,7 @@
         <v>515.01700000000005</v>
       </c>
       <c r="D95" s="6">
-        <v>8281.7459999999992</v>
+        <v>6000</v>
       </c>
       <c r="E95" s="7">
         <v>50997.838000000003</v>
@@ -27327,7 +27334,7 @@
         <v>515.01599999999996</v>
       </c>
       <c r="D96" s="6">
-        <v>8281.4719999999998</v>
+        <v>6000</v>
       </c>
       <c r="E96" s="7">
         <v>50695.196000000004</v>
@@ -27364,7 +27371,7 @@
         <v>514.93600000000004</v>
       </c>
       <c r="D97" s="6">
-        <v>8394.2060000000001</v>
+        <v>6000</v>
       </c>
       <c r="E97" s="7">
         <v>51085.536</v>
@@ -27401,7 +27408,7 @@
         <v>515.03200000000004</v>
       </c>
       <c r="D98" s="6">
-        <v>7931.4809999999998</v>
+        <v>6000</v>
       </c>
       <c r="E98" s="7">
         <v>48907.504000000001</v>
@@ -27438,7 +27445,7 @@
         <v>515.01099999999997</v>
       </c>
       <c r="D99" s="6">
-        <v>7842.7370000000001</v>
+        <v>6000</v>
       </c>
       <c r="E99" s="7">
         <v>48009.81</v>
@@ -27475,7 +27482,7 @@
         <v>514.55799999999999</v>
       </c>
       <c r="D100" s="6">
-        <v>8618.4920000000002</v>
+        <v>6000</v>
       </c>
       <c r="E100" s="7">
         <v>51993.45</v>
@@ -27510,7 +27517,7 @@
         <v>514.90499999999997</v>
       </c>
       <c r="D101" s="6">
-        <v>8893.5540000000001</v>
+        <v>6000</v>
       </c>
       <c r="E101" s="7">
         <v>54559.455999999998</v>
@@ -27545,7 +27552,7 @@
         <v>514.78099999999995</v>
       </c>
       <c r="D102" s="6">
-        <v>8766.7849999999999</v>
+        <v>6000</v>
       </c>
       <c r="E102" s="7">
         <v>54046.584000000003</v>
@@ -27582,7 +27589,7 @@
         <v>514.65099999999995</v>
       </c>
       <c r="D103" s="6">
-        <v>8578.16</v>
+        <v>6000</v>
       </c>
       <c r="E103" s="7">
         <v>52655.764999999999</v>
@@ -27617,7 +27624,7 @@
         <v>514.71699999999998</v>
       </c>
       <c r="D104" s="6">
-        <v>8804.1939999999995</v>
+        <v>6000</v>
       </c>
       <c r="E104" s="7">
         <v>53651.336000000003</v>
@@ -27654,7 +27661,7 @@
         <v>514.71500000000003</v>
       </c>
       <c r="D105" s="6">
-        <v>8798.4</v>
+        <v>6000</v>
       </c>
       <c r="E105" s="7">
         <v>54555.637999999999</v>
@@ -27689,7 +27696,7 @@
         <v>514.80600000000004</v>
       </c>
       <c r="D106" s="6">
-        <v>8418.6290000000008</v>
+        <v>6000</v>
       </c>
       <c r="E106" s="7">
         <v>52478.745999999999</v>
@@ -27726,7 +27733,7 @@
         <v>514.65499999999997</v>
       </c>
       <c r="D107" s="6">
-        <v>8858.2980000000007</v>
+        <v>6000</v>
       </c>
       <c r="E107" s="7">
         <v>54643.546999999999</v>
@@ -27761,7 +27768,7 @@
         <v>514.86099999999999</v>
       </c>
       <c r="D108" s="6">
-        <v>8020.97</v>
+        <v>6000</v>
       </c>
       <c r="E108" s="7">
         <v>49920.36</v>
@@ -27798,7 +27805,7 @@
         <v>514.77200000000005</v>
       </c>
       <c r="D109" s="6">
-        <v>7753.433</v>
+        <v>6000</v>
       </c>
       <c r="E109" s="7">
         <v>47221.55</v>
@@ -27833,7 +27840,7 @@
         <v>514.86900000000003</v>
       </c>
       <c r="D110" s="6">
-        <v>6986.3620000000001</v>
+        <v>6000</v>
       </c>
       <c r="E110" s="7">
         <v>43286.063999999998</v>
@@ -27870,7 +27877,7 @@
         <v>514.9</v>
       </c>
       <c r="D111" s="6">
-        <v>7770.835</v>
+        <v>6000</v>
       </c>
       <c r="E111" s="7">
         <v>47512.444000000003</v>
@@ -27907,7 +27914,7 @@
         <v>514.86900000000003</v>
       </c>
       <c r="D112" s="6">
-        <v>7731.8890000000001</v>
+        <v>6000</v>
       </c>
       <c r="E112" s="7">
         <v>47323.095000000001</v>
@@ -27944,7 +27951,7 @@
         <v>514.86699999999996</v>
       </c>
       <c r="D113" s="6">
-        <v>7466.7730000000001</v>
+        <v>6000</v>
       </c>
       <c r="E113" s="7">
         <v>45522.260999999999</v>
@@ -27979,7 +27986,7 @@
         <v>514.89599999999996</v>
       </c>
       <c r="D114" s="6">
-        <v>7317.6130000000003</v>
+        <v>6000</v>
       </c>
       <c r="E114" s="7">
         <v>44927.091</v>
@@ -28016,7 +28023,7 @@
         <v>514.952</v>
       </c>
       <c r="D115" s="6">
-        <v>7780.116</v>
+        <v>6000</v>
       </c>
       <c r="E115" s="7">
         <v>48613.356</v>
@@ -28053,7 +28060,7 @@
         <v>514.79700000000003</v>
       </c>
       <c r="D116" s="6">
-        <v>7822.6279999999997</v>
+        <v>6000</v>
       </c>
       <c r="E116" s="7">
         <v>47894.455000000002</v>
@@ -28090,7 +28097,7 @@
         <v>514.79999999999995</v>
       </c>
       <c r="D117" s="6">
-        <v>7033.0649999999996</v>
+        <v>6000</v>
       </c>
       <c r="E117" s="7">
         <v>42868.737000000001</v>
@@ -28125,7 +28132,7 @@
         <v>514.88099999999997</v>
       </c>
       <c r="D118" s="6">
-        <v>7669.13</v>
+        <v>6000</v>
       </c>
       <c r="E118" s="7">
         <v>47175.035000000003</v>
@@ -28162,7 +28169,7 @@
         <v>514.89700000000005</v>
       </c>
       <c r="D119" s="6">
-        <v>7912.0259999999998</v>
+        <v>6000</v>
       </c>
       <c r="E119" s="7">
         <v>48642.972000000002</v>
@@ -28199,7 +28206,7 @@
         <v>514.89200000000005</v>
       </c>
       <c r="D120" s="6">
-        <v>7106.7269999999999</v>
+        <v>6000</v>
       </c>
       <c r="E120" s="7">
         <v>43717.29</v>
@@ -28236,7 +28243,7 @@
         <v>514.87900000000002</v>
       </c>
       <c r="D121" s="6">
-        <v>7767.875</v>
+        <v>6000</v>
       </c>
       <c r="E121" s="7">
         <v>47384.877</v>
@@ -28271,7 +28278,7 @@
         <v>514.93799999999999</v>
       </c>
       <c r="D122" s="6">
-        <v>7970.174</v>
+        <v>6000</v>
       </c>
       <c r="E122" s="7">
         <v>49256.243000000002</v>
@@ -28308,7 +28315,7 @@
         <v>514.92100000000005</v>
       </c>
       <c r="D123" s="6">
-        <v>6591.82</v>
+        <v>6000</v>
       </c>
       <c r="E123" s="7">
         <v>40838.059000000001</v>
@@ -28345,7 +28352,7 @@
         <v>514.89</v>
       </c>
       <c r="D124" s="6">
-        <v>7753.9930000000004</v>
+        <v>6000</v>
       </c>
       <c r="E124" s="7">
         <v>47581.760999999999</v>
@@ -28382,7 +28389,7 @@
         <v>515.06500000000005</v>
       </c>
       <c r="D125" s="6">
-        <v>8241.1080000000002</v>
+        <v>6000</v>
       </c>
       <c r="E125" s="7">
         <v>51086.610999999997</v>
@@ -28417,7 +28424,7 @@
         <v>515.11400000000003</v>
       </c>
       <c r="D126" s="6">
-        <v>8236.5310000000009</v>
+        <v>6000</v>
       </c>
       <c r="E126" s="7">
         <v>51673.813999999998</v>
@@ -28454,7 +28461,7 @@
         <v>515.12199999999996</v>
       </c>
       <c r="D127" s="6">
-        <v>8174.701</v>
+        <v>6000</v>
       </c>
       <c r="E127" s="7">
         <v>51105.252999999997</v>
@@ -28491,7 +28498,7 @@
         <v>514.91999999999996</v>
       </c>
       <c r="D128" s="6">
-        <v>8270.7849999999999</v>
+        <v>6000</v>
       </c>
       <c r="E128" s="7">
         <v>51207.400999999998</v>
@@ -28528,7 +28535,7 @@
         <v>514.99699999999996</v>
       </c>
       <c r="D129" s="6">
-        <v>7723.018</v>
+        <v>6000</v>
       </c>
       <c r="E129" s="7">
         <v>47919.42</v>
@@ -28565,7 +28572,7 @@
         <v>515.11599999999999</v>
       </c>
       <c r="D130" s="6">
-        <v>8372.9689999999991</v>
+        <v>6000</v>
       </c>
       <c r="E130" s="7">
         <v>52221.311999999998</v>
@@ -28602,7 +28609,7 @@
         <v>515.01199999999994</v>
       </c>
       <c r="D131" s="6">
-        <v>8565.1450000000004</v>
+        <v>6000</v>
       </c>
       <c r="E131" s="7">
         <v>53056.091999999997</v>
@@ -28637,7 +28644,7 @@
         <v>515.09500000000003</v>
       </c>
       <c r="D132" s="6">
-        <v>7999.576</v>
+        <v>6000</v>
       </c>
       <c r="E132" s="7">
         <v>50098.474000000002</v>
@@ -28674,7 +28681,7 @@
         <v>514.93799999999999</v>
       </c>
       <c r="D133" s="6">
-        <v>8848.1740000000009</v>
+        <v>6000</v>
       </c>
       <c r="E133" s="7">
         <v>54953.086000000003</v>
@@ -28711,7 +28718,7 @@
         <v>514.96900000000005</v>
       </c>
       <c r="D134" s="6">
-        <v>7967.6540000000005</v>
+        <v>6000</v>
       </c>
       <c r="E134" s="7">
         <v>49678.900999999998</v>
@@ -28748,7 +28755,7 @@
         <v>514.84100000000001</v>
       </c>
       <c r="D135" s="6">
-        <v>8422.5660000000007</v>
+        <v>6000</v>
       </c>
       <c r="E135" s="7">
         <v>52306.430999999997</v>
@@ -28785,7 +28792,7 @@
         <v>515.00599999999997</v>
       </c>
       <c r="D136" s="6">
-        <v>8215.2749999999996</v>
+        <v>6000</v>
       </c>
       <c r="E136" s="7">
         <v>51364.381999999998</v>
@@ -28822,7 +28829,7 @@
         <v>515.08000000000004</v>
       </c>
       <c r="D137" s="6">
-        <v>8735.2430000000004</v>
+        <v>6000</v>
       </c>
       <c r="E137" s="7">
         <v>54315.298999999999</v>
@@ -28857,7 +28864,7 @@
         <v>515.13800000000003</v>
       </c>
       <c r="D138" s="6">
-        <v>8529.6589999999997</v>
+        <v>6000</v>
       </c>
       <c r="E138" s="7">
         <v>53457.946000000004</v>
@@ -28894,7 +28901,7 @@
         <v>515.01</v>
       </c>
       <c r="D139" s="6">
-        <v>8735.1170000000002</v>
+        <v>6000</v>
       </c>
       <c r="E139" s="7">
         <v>53930.612999999998</v>
@@ -28931,7 +28938,7 @@
         <v>515.10199999999998</v>
       </c>
       <c r="D140" s="6">
-        <v>8659.8850000000002</v>
+        <v>6000</v>
       </c>
       <c r="E140" s="7">
         <v>53589.089</v>
@@ -28968,7 +28975,7 @@
         <v>515.10199999999998</v>
       </c>
       <c r="D141" s="6">
-        <v>8748.4609999999993</v>
+        <v>6000</v>
       </c>
       <c r="E141" s="7">
         <v>54066.542999999998</v>
@@ -29005,7 +29012,7 @@
         <v>514.99</v>
       </c>
       <c r="D142" s="6">
-        <v>8772.5229999999992</v>
+        <v>6000</v>
       </c>
       <c r="E142" s="7">
         <v>53724.482000000004</v>
@@ -29042,7 +29049,7 @@
         <v>515.1</v>
       </c>
       <c r="D143" s="6">
-        <v>8736.2060000000001</v>
+        <v>6000</v>
       </c>
       <c r="E143" s="7">
         <v>53433.209000000003</v>
@@ -29077,7 +29084,7 @@
         <v>514.96199999999999</v>
       </c>
       <c r="D144" s="6">
-        <v>8589.7980000000007</v>
+        <v>6000</v>
       </c>
       <c r="E144" s="7">
         <v>52651.156999999999</v>
@@ -29114,7 +29121,7 @@
         <v>514.98400000000004</v>
       </c>
       <c r="D145" s="6">
-        <v>8566.64</v>
+        <v>6000</v>
       </c>
       <c r="E145" s="7">
         <v>52814.732000000004</v>
@@ -29151,7 +29158,7 @@
         <v>515.07000000000005</v>
       </c>
       <c r="D146" s="6">
-        <v>8523.6530000000002</v>
+        <v>6000</v>
       </c>
       <c r="E146" s="7">
         <v>52663.834999999999</v>
@@ -29188,7 +29195,7 @@
         <v>515.12099999999998</v>
       </c>
       <c r="D147" s="6">
-        <v>8347.3790000000008</v>
+        <v>6000</v>
       </c>
       <c r="E147" s="7">
         <v>51784.627999999997</v>
@@ -29225,7 +29232,7 @@
         <v>515.07600000000002</v>
       </c>
       <c r="D148" s="6">
-        <v>8035.7629999999999</v>
+        <v>6000</v>
       </c>
       <c r="E148" s="7">
         <v>49452.468000000001</v>
@@ -29262,7 +29269,7 @@
         <v>514.78399999999999</v>
       </c>
       <c r="D149" s="6">
-        <v>8673.6049999999996</v>
+        <v>6000</v>
       </c>
       <c r="E149" s="7">
         <v>52760.353999999999</v>
@@ -29297,7 +29304,7 @@
         <v>514.75400000000002</v>
       </c>
       <c r="D150" s="6">
-        <v>8984.3379999999997</v>
+        <v>6000</v>
       </c>
       <c r="E150" s="7">
         <v>55162.514999999999</v>
@@ -29332,7 +29339,7 @@
         <v>514.82000000000005</v>
       </c>
       <c r="D151" s="6">
-        <v>8887.9040000000005</v>
+        <v>6000</v>
       </c>
       <c r="E151" s="7">
         <v>54199.199999999997</v>
@@ -29369,7 +29376,7 @@
         <v>514.68499999999995</v>
       </c>
       <c r="D152" s="6">
-        <v>8797.8430000000008</v>
+        <v>6000</v>
       </c>
       <c r="E152" s="7">
         <v>54108.991000000002</v>
@@ -29404,7 +29411,7 @@
         <v>514.93399999999997</v>
       </c>
       <c r="D153" s="6">
-        <v>8811.1489999999994</v>
+        <v>6000</v>
       </c>
       <c r="E153" s="7">
         <v>54308.940999999999</v>
@@ -29441,7 +29448,7 @@
         <v>514.87800000000004</v>
       </c>
       <c r="D154" s="6">
-        <v>8878.991</v>
+        <v>6000</v>
       </c>
       <c r="E154" s="7">
         <v>54374.792999999998</v>
@@ -29476,7 +29483,7 @@
         <v>514.80200000000002</v>
       </c>
       <c r="D155" s="6">
-        <v>8942.4169999999995</v>
+        <v>6000</v>
       </c>
       <c r="E155" s="7">
         <v>55173.661999999997</v>
@@ -29513,7 +29520,7 @@
         <v>514.88900000000001</v>
       </c>
       <c r="D156" s="6">
-        <v>8898.5889999999999</v>
+        <v>6000</v>
       </c>
       <c r="E156" s="7">
         <v>55372.877999999997</v>
@@ -29548,7 +29555,7 @@
         <v>514.74699999999996</v>
       </c>
       <c r="D157" s="6">
-        <v>8994.5540000000001</v>
+        <v>6000</v>
       </c>
       <c r="E157" s="7">
         <v>55230.186000000002</v>
@@ -29585,7 +29592,7 @@
         <v>515.01800000000003</v>
       </c>
       <c r="D158" s="6">
-        <v>7734.875</v>
+        <v>6000</v>
       </c>
       <c r="E158" s="7">
         <v>47469.413999999997</v>
@@ -29620,7 +29627,7 @@
         <v>514.92999999999995</v>
       </c>
       <c r="D159" s="6">
-        <v>7722.951</v>
+        <v>6000</v>
       </c>
       <c r="E159" s="7">
         <v>47411.841</v>
@@ -29657,7 +29664,7 @@
         <v>514.88400000000001</v>
       </c>
       <c r="D160" s="6">
-        <v>7691.5079999999998</v>
+        <v>6000</v>
       </c>
       <c r="E160" s="7">
         <v>46928.542000000001</v>
@@ -29694,7 +29701,7 @@
         <v>514.83199999999999</v>
       </c>
       <c r="D161" s="6">
-        <v>7636.732</v>
+        <v>6000</v>
       </c>
       <c r="E161" s="7">
         <v>46415.366999999998</v>
@@ -29731,7 +29738,7 @@
         <v>514.94200000000001</v>
       </c>
       <c r="D162" s="6">
-        <v>7498.4579999999996</v>
+        <v>6000</v>
       </c>
       <c r="E162" s="7">
         <v>46235.197</v>
@@ -29766,7 +29773,7 @@
         <v>515.01599999999996</v>
       </c>
       <c r="D163" s="6">
-        <v>7339.4089999999997</v>
+        <v>6000</v>
       </c>
       <c r="E163" s="7">
         <v>44752.383000000002</v>
@@ -29803,7 +29810,7 @@
         <v>514.86400000000003</v>
       </c>
       <c r="D164" s="6">
-        <v>7838.0609999999997</v>
+        <v>6000</v>
       </c>
       <c r="E164" s="7">
         <v>48043.373</v>
@@ -29840,7 +29847,7 @@
         <v>514.904</v>
       </c>
       <c r="D165" s="6">
-        <v>7162.8519999999999</v>
+        <v>6000</v>
       </c>
       <c r="E165" s="7">
         <v>43971.752</v>
@@ -29877,7 +29884,7 @@
         <v>515.01400000000001</v>
       </c>
       <c r="D166" s="6">
-        <v>7895.5709999999999</v>
+        <v>6000</v>
       </c>
       <c r="E166" s="7">
         <v>48371.017999999996</v>
@@ -29912,7 +29919,7 @@
         <v>515.01700000000005</v>
       </c>
       <c r="D167" s="6">
-        <v>7889.9830000000002</v>
+        <v>6000</v>
       </c>
       <c r="E167" s="7">
         <v>48046.150999999998</v>
@@ -29949,7 +29956,7 @@
         <v>515.08399999999995</v>
       </c>
       <c r="D168" s="6">
-        <v>7457.6379999999999</v>
+        <v>6000</v>
       </c>
       <c r="E168" s="7">
         <v>45855.5</v>
@@ -29986,7 +29993,7 @@
         <v>514.83900000000006</v>
       </c>
       <c r="D169" s="6">
-        <v>7663.799</v>
+        <v>6000</v>
       </c>
       <c r="E169" s="7">
         <v>47208.404999999999</v>
@@ -30023,7 +30030,7 @@
         <v>514.846</v>
       </c>
       <c r="D170" s="6">
-        <v>7798.96</v>
+        <v>6000</v>
       </c>
       <c r="E170" s="7">
         <v>46997.495999999999</v>
@@ -30058,7 +30065,7 @@
         <v>514.90099999999995</v>
       </c>
       <c r="D171" s="6">
-        <v>7668.4089999999997</v>
+        <v>6000</v>
       </c>
       <c r="E171" s="7">
         <v>47472.133000000002</v>
@@ -30095,7 +30102,7 @@
         <v>514.99599999999998</v>
       </c>
       <c r="D172" s="6">
-        <v>7900.6809999999996</v>
+        <v>6000</v>
       </c>
       <c r="E172" s="7">
         <v>48604.084000000003</v>
@@ -30132,7 +30139,7 @@
         <v>514.97199999999998</v>
       </c>
       <c r="D173" s="6">
-        <v>7720.4179999999997</v>
+        <v>6000</v>
       </c>
       <c r="E173" s="7">
         <v>47231.21</v>
@@ -30169,7 +30176,7 @@
         <v>515.04100000000005</v>
       </c>
       <c r="D174" s="6">
-        <v>8250.4459999999999</v>
+        <v>6000</v>
       </c>
       <c r="E174" s="7">
         <v>50630.000999999997</v>
@@ -30204,7 +30211,7 @@
         <v>515.125</v>
       </c>
       <c r="D175" s="6">
-        <v>8161.9170000000004</v>
+        <v>6000</v>
       </c>
       <c r="E175" s="7">
         <v>50335.845000000001</v>
@@ -30241,7 +30248,7 @@
         <v>515.09400000000005</v>
       </c>
       <c r="D176" s="6">
-        <v>8308.5220000000008</v>
+        <v>6000</v>
       </c>
       <c r="E176" s="7">
         <v>50724.358999999997</v>
@@ -30278,7 +30285,7 @@
         <v>515.08799999999997</v>
       </c>
       <c r="D177" s="6">
-        <v>8255.0159999999996</v>
+        <v>6000</v>
       </c>
       <c r="E177" s="7">
         <v>51123.97</v>
@@ -30315,7 +30322,7 @@
         <v>515.11699999999996</v>
       </c>
       <c r="D178" s="6">
-        <v>8333.8430000000008</v>
+        <v>6000</v>
       </c>
       <c r="E178" s="7">
         <v>51942.360999999997</v>
@@ -30352,7 +30359,7 @@
         <v>515.05100000000004</v>
       </c>
       <c r="D179" s="6">
-        <v>8474.9500000000007</v>
+        <v>6000</v>
       </c>
       <c r="E179" s="7">
         <v>53023.163999999997</v>
@@ -30389,7 +30396,7 @@
         <v>514.97699999999998</v>
       </c>
       <c r="D180" s="6">
-        <v>8689.25</v>
+        <v>6000</v>
       </c>
       <c r="E180" s="7">
         <v>53170.595000000001</v>
@@ -30424,7 +30431,7 @@
         <v>514.96100000000001</v>
       </c>
       <c r="D181" s="6">
-        <v>7949.8159999999998</v>
+        <v>6000</v>
       </c>
       <c r="E181" s="7">
         <v>49394.749000000003</v>
@@ -30461,7 +30468,7 @@
         <v>515.09799999999996</v>
       </c>
       <c r="D182" s="6">
-        <v>8026.54</v>
+        <v>6000</v>
       </c>
       <c r="E182" s="7">
         <v>49770.976999999999</v>
@@ -30498,7 +30505,7 @@
         <v>515.14</v>
       </c>
       <c r="D183" s="6">
-        <v>7445.174</v>
+        <v>6000</v>
       </c>
       <c r="E183" s="7">
         <v>46799.154999999999</v>
@@ -30535,7 +30542,7 @@
         <v>515.12400000000002</v>
       </c>
       <c r="D184" s="6">
-        <v>8500.7849999999999</v>
+        <v>6000</v>
       </c>
       <c r="E184" s="7">
         <v>53220.612999999998</v>
@@ -30572,7 +30579,7 @@
         <v>515.03499999999997</v>
       </c>
       <c r="D185" s="6">
-        <v>8043.1279999999997</v>
+        <v>6000</v>
       </c>
       <c r="E185" s="7">
         <v>49958.631999999998</v>
@@ -30609,7 +30616,7 @@
         <v>515.06200000000001</v>
       </c>
       <c r="D186" s="6">
-        <v>8455.6389999999992</v>
+        <v>6000</v>
       </c>
       <c r="E186" s="7">
         <v>52848.85</v>
@@ -30644,7 +30651,7 @@
         <v>514.96400000000006</v>
       </c>
       <c r="D187" s="6">
-        <v>8319.9380000000001</v>
+        <v>6000</v>
       </c>
       <c r="E187" s="7">
         <v>51587.05</v>
@@ -30681,7 +30688,7 @@
         <v>515.01</v>
       </c>
       <c r="D188" s="6">
-        <v>8643.759</v>
+        <v>6000</v>
       </c>
       <c r="E188" s="7">
         <v>53415.510999999999</v>
@@ -30718,7 +30725,7 @@
         <v>515.072</v>
       </c>
       <c r="D189" s="6">
-        <v>8243.2469999999994</v>
+        <v>6000</v>
       </c>
       <c r="E189" s="7">
         <v>50858.504000000001</v>
@@ -30755,7 +30762,7 @@
         <v>515.19600000000003</v>
       </c>
       <c r="D190" s="6">
-        <v>8557.5130000000008</v>
+        <v>6000</v>
       </c>
       <c r="E190" s="7">
         <v>52837.997000000003</v>
@@ -30792,7 +30799,7 @@
         <v>515.09100000000001</v>
       </c>
       <c r="D191" s="6">
-        <v>7922.5479999999998</v>
+        <v>6000</v>
       </c>
       <c r="E191" s="7">
         <v>48952.635999999999</v>
@@ -30829,7 +30836,7 @@
         <v>515.06899999999996</v>
       </c>
       <c r="D192" s="6">
-        <v>7800.8440000000001</v>
+        <v>6000</v>
       </c>
       <c r="E192" s="7">
         <v>47838.548999999999</v>
@@ -30864,7 +30871,7 @@
         <v>515.101</v>
       </c>
       <c r="D193" s="6">
-        <v>7500.9390000000003</v>
+        <v>6000</v>
       </c>
       <c r="E193" s="7">
         <v>45643.548999999999</v>
@@ -30901,7 +30908,7 @@
         <v>515.15499999999997</v>
       </c>
       <c r="D194" s="6">
-        <v>8405.7340000000004</v>
+        <v>6000</v>
       </c>
       <c r="E194" s="7">
         <v>51178.663999999997</v>
@@ -30938,7 +30945,7 @@
         <v>515.072</v>
       </c>
       <c r="D195" s="6">
-        <v>8216.64</v>
+        <v>6000</v>
       </c>
       <c r="E195" s="7">
         <v>50371.911999999997</v>
@@ -30975,7 +30982,7 @@
         <v>515.06399999999996</v>
       </c>
       <c r="D196" s="6">
-        <v>7595.7479999999996</v>
+        <v>6000</v>
       </c>
       <c r="E196" s="7">
         <v>46412.472000000002</v>
@@ -31012,7 +31019,7 @@
         <v>515.20100000000002</v>
       </c>
       <c r="D197" s="6">
-        <v>7923.8069999999998</v>
+        <v>6000</v>
       </c>
       <c r="E197" s="7">
         <v>48784.370999999999</v>
@@ -31049,7 +31056,7 @@
         <v>514.63400000000001</v>
       </c>
       <c r="D198" s="6">
-        <v>8414.8520000000008</v>
+        <v>6000</v>
       </c>
       <c r="E198" s="7">
         <v>50715.574999999997</v>
@@ -31084,7 +31091,7 @@
         <v>514.82399999999996</v>
       </c>
       <c r="D199" s="6">
-        <v>8266.1049999999996</v>
+        <v>6000</v>
       </c>
       <c r="E199" s="7">
         <v>49986.495000000003</v>
@@ -31119,7 +31126,7 @@
         <v>514.76599999999996</v>
       </c>
       <c r="D200" s="6">
-        <v>8380.9590000000007</v>
+        <v>6000</v>
       </c>
       <c r="E200" s="7">
         <v>51112.516000000003</v>
@@ -31156,7 +31163,7 @@
         <v>514.92200000000003</v>
       </c>
       <c r="D201" s="6">
-        <v>8275.4519999999993</v>
+        <v>6000</v>
       </c>
       <c r="E201" s="7">
         <v>50600.353000000003</v>
@@ -31191,7 +31198,7 @@
         <v>514.75599999999997</v>
       </c>
       <c r="D202" s="6">
-        <v>7109.0259999999998</v>
+        <v>6000</v>
       </c>
       <c r="E202" s="7">
         <v>43020.262000000002</v>
@@ -31228,7 +31235,7 @@
         <v>514.74099999999999</v>
       </c>
       <c r="D203" s="6">
-        <v>7282.0680000000002</v>
+        <v>6000</v>
       </c>
       <c r="E203" s="7">
         <v>44356.063999999998</v>
@@ -31263,7 +31270,7 @@
         <v>514.88599999999997</v>
       </c>
       <c r="D204" s="6">
-        <v>8415.3330000000005</v>
+        <v>6000</v>
       </c>
       <c r="E204" s="7">
         <v>51780.889000000003</v>
@@ -31300,7 +31307,7 @@
         <v>514.69799999999998</v>
       </c>
       <c r="D205" s="6">
-        <v>8568.1350000000002</v>
+        <v>6000</v>
       </c>
       <c r="E205" s="7">
         <v>52396.487000000001</v>
@@ -31335,7 +31342,7 @@
         <v>514.69799999999998</v>
       </c>
       <c r="D206" s="6">
-        <v>8543.3729999999996</v>
+        <v>6000</v>
       </c>
       <c r="E206" s="7">
         <v>51854.614999999998</v>
@@ -31372,7 +31379,7 @@
         <v>514.81299999999999</v>
       </c>
       <c r="D207" s="6">
-        <v>7482.3059999999996</v>
+        <v>6000</v>
       </c>
       <c r="E207" s="7">
         <v>45524.91</v>
@@ -31407,7 +31414,7 @@
         <v>514.91600000000005</v>
       </c>
       <c r="D208" s="6">
-        <v>7603.4650000000001</v>
+        <v>6000</v>
       </c>
       <c r="E208" s="7">
         <v>45947.527000000002</v>
@@ -31444,7 +31451,7 @@
         <v>514.92100000000005</v>
       </c>
       <c r="D209" s="6">
-        <v>7504.7749999999996</v>
+        <v>6000</v>
       </c>
       <c r="E209" s="7">
         <v>45626.881999999998</v>
@@ -31481,7 +31488,7 @@
         <v>514.87</v>
       </c>
       <c r="D210" s="6">
-        <v>7251.585</v>
+        <v>6000</v>
       </c>
       <c r="E210" s="7">
         <v>44538.678999999996</v>
@@ -31518,7 +31525,7 @@
         <v>514.86400000000003</v>
       </c>
       <c r="D211" s="6">
-        <v>7229.7740000000003</v>
+        <v>6000</v>
       </c>
       <c r="E211" s="7">
         <v>44347.57</v>
@@ -31553,7 +31560,7 @@
         <v>514.89700000000005</v>
       </c>
       <c r="D212" s="6">
-        <v>6895.9369999999999</v>
+        <v>6000</v>
       </c>
       <c r="E212" s="7">
         <v>42154.665999999997</v>
@@ -31590,7 +31597,7 @@
         <v>514.96299999999997</v>
       </c>
       <c r="D213" s="6">
-        <v>7601.6809999999996</v>
+        <v>6000</v>
       </c>
       <c r="E213" s="7">
         <v>46063.010999999999</v>
@@ -31627,7 +31634,7 @@
         <v>514.89300000000003</v>
       </c>
       <c r="D214" s="6">
-        <v>7501.5940000000001</v>
+        <v>6000</v>
       </c>
       <c r="E214" s="7">
         <v>45788.841999999997</v>
@@ -31664,7 +31671,7 @@
         <v>514.98299999999995</v>
       </c>
       <c r="D215" s="6">
-        <v>6934.7960000000003</v>
+        <v>6000</v>
       </c>
       <c r="E215" s="7">
         <v>42214.712</v>
@@ -31699,7 +31706,7 @@
         <v>514.90200000000004</v>
       </c>
       <c r="D216" s="6">
-        <v>7344.1210000000001</v>
+        <v>6000</v>
       </c>
       <c r="E216" s="7">
         <v>44874.358999999997</v>
@@ -31736,7 +31743,7 @@
         <v>514.82600000000002</v>
       </c>
       <c r="D217" s="6">
-        <v>7548.5619999999999</v>
+        <v>6000</v>
       </c>
       <c r="E217" s="7">
         <v>46053.324000000001</v>
@@ -31773,7 +31780,7 @@
         <v>515.01700000000005</v>
       </c>
       <c r="D218" s="6">
-        <v>7662.5609999999997</v>
+        <v>6000</v>
       </c>
       <c r="E218" s="7">
         <v>47221.964</v>
@@ -31810,7 +31817,7 @@
         <v>514.86699999999996</v>
       </c>
       <c r="D219" s="6">
-        <v>7585.8490000000002</v>
+        <v>6000</v>
       </c>
       <c r="E219" s="7">
         <v>46443.618000000002</v>
@@ -31845,7 +31852,7 @@
         <v>515.02</v>
       </c>
       <c r="D220" s="6">
-        <v>7494.4309999999996</v>
+        <v>6000</v>
       </c>
       <c r="E220" s="7">
         <v>45507.860999999997</v>
@@ -31882,7 +31889,7 @@
         <v>514.88</v>
       </c>
       <c r="D221" s="6">
-        <v>7554.5870000000004</v>
+        <v>6000</v>
       </c>
       <c r="E221" s="7">
         <v>46328.63</v>
@@ -31919,7 +31926,7 @@
         <v>514.84400000000005</v>
       </c>
       <c r="D222" s="6">
-        <v>7461.2889999999998</v>
+        <v>6000</v>
       </c>
       <c r="E222" s="7">
         <v>45194.99</v>
@@ -31956,7 +31963,7 @@
         <v>515.12199999999996</v>
       </c>
       <c r="D223" s="6">
-        <v>7836.3980000000001</v>
+        <v>6000</v>
       </c>
       <c r="E223" s="7">
         <v>48169.749000000003</v>
@@ -31991,7 +31998,7 @@
         <v>515.10299999999995</v>
       </c>
       <c r="D224" s="6">
-        <v>7914.2309999999998</v>
+        <v>6000</v>
       </c>
       <c r="E224" s="7">
         <v>48327.337</v>
@@ -32028,7 +32035,7 @@
         <v>515.17899999999997</v>
       </c>
       <c r="D225" s="6">
-        <v>8028.9089999999997</v>
+        <v>6000</v>
       </c>
       <c r="E225" s="7">
         <v>48906.078999999998</v>
@@ -32065,7 +32072,7 @@
         <v>515.05100000000004</v>
       </c>
       <c r="D226" s="6">
-        <v>7865.7790000000005</v>
+        <v>6000</v>
       </c>
       <c r="E226" s="7">
         <v>48523.913</v>
@@ -32102,7 +32109,7 @@
         <v>515.06500000000005</v>
       </c>
       <c r="D227" s="6">
-        <v>8031.1009999999997</v>
+        <v>6000</v>
       </c>
       <c r="E227" s="7">
         <v>49179.951999999997</v>
@@ -32139,7 +32146,7 @@
         <v>515.05399999999997</v>
       </c>
       <c r="D228" s="6">
-        <v>7969.8630000000003</v>
+        <v>6000</v>
       </c>
       <c r="E228" s="7">
         <v>49541.813999999998</v>
@@ -32176,7 +32183,7 @@
         <v>514.96799999999996</v>
       </c>
       <c r="D229" s="6">
-        <v>8057.7809999999999</v>
+        <v>6000</v>
       </c>
       <c r="E229" s="7">
         <v>49517.663</v>
@@ -32211,7 +32218,7 @@
         <v>514.89099999999996</v>
       </c>
       <c r="D230" s="6">
-        <v>7543.9110000000001</v>
+        <v>6000</v>
       </c>
       <c r="E230" s="7">
         <v>46288.610999999997</v>
@@ -32248,7 +32255,7 @@
         <v>514.99900000000002</v>
       </c>
       <c r="D231" s="6">
-        <v>7142.8639999999996</v>
+        <v>6000</v>
       </c>
       <c r="E231" s="7">
         <v>44352.184999999998</v>
@@ -32285,7 +32292,7 @@
         <v>514.91600000000005</v>
       </c>
       <c r="D232" s="6">
-        <v>7690.87</v>
+        <v>6000</v>
       </c>
       <c r="E232" s="7">
         <v>47580.898000000001</v>
@@ -32322,7 +32329,7 @@
         <v>515.13800000000003</v>
       </c>
       <c r="D233" s="6">
-        <v>7850.7929999999997</v>
+        <v>6000</v>
       </c>
       <c r="E233" s="7">
         <v>48870.732000000004</v>
@@ -32359,7 +32366,7 @@
         <v>515.12800000000004</v>
       </c>
       <c r="D234" s="6">
-        <v>7465.5559999999996</v>
+        <v>6000</v>
       </c>
       <c r="E234" s="7">
         <v>46330.904000000002</v>
@@ -32396,7 +32403,7 @@
         <v>515.06200000000001</v>
       </c>
       <c r="D235" s="6">
-        <v>8080.3990000000003</v>
+        <v>6000</v>
       </c>
       <c r="E235" s="7">
         <v>49807.533000000003</v>
@@ -32431,7 +32438,7 @@
         <v>514.96900000000005</v>
       </c>
       <c r="D236" s="6">
-        <v>7948.2939999999999</v>
+        <v>6000</v>
       </c>
       <c r="E236" s="7">
         <v>48927.294000000002</v>
@@ -32468,7 +32475,7 @@
         <v>514.96799999999996</v>
       </c>
       <c r="D237" s="6">
-        <v>7850.98</v>
+        <v>6000</v>
       </c>
       <c r="E237" s="7">
         <v>47960.406000000003</v>
@@ -32505,7 +32512,7 @@
         <v>515.077</v>
       </c>
       <c r="D238" s="6">
-        <v>7763.9470000000001</v>
+        <v>6000</v>
       </c>
       <c r="E238" s="7">
         <v>47493.896999999997</v>
@@ -32542,7 +32549,7 @@
         <v>515.13099999999997</v>
       </c>
       <c r="D239" s="6">
-        <v>8146.8860000000004</v>
+        <v>6000</v>
       </c>
       <c r="E239" s="7">
         <v>50655.985000000001</v>
@@ -32579,7 +32586,7 @@
         <v>514.98199999999997</v>
       </c>
       <c r="D240" s="6">
-        <v>8194.2880000000005</v>
+        <v>6000</v>
       </c>
       <c r="E240" s="7">
         <v>50056.220999999998</v>
@@ -32616,7 +32623,7 @@
         <v>515.14200000000005</v>
       </c>
       <c r="D241" s="6">
-        <v>8134.0510000000004</v>
+        <v>6000</v>
       </c>
       <c r="E241" s="7">
         <v>49667.415000000001</v>
@@ -32651,7 +32658,7 @@
         <v>515.18799999999999</v>
       </c>
       <c r="D242" s="6">
-        <v>7891.2349999999997</v>
+        <v>6000</v>
       </c>
       <c r="E242" s="7">
         <v>48215.326000000001</v>
@@ -32688,7 +32695,7 @@
         <v>515.17100000000005</v>
       </c>
       <c r="D243" s="6">
-        <v>7781.1090000000004</v>
+        <v>6000</v>
       </c>
       <c r="E243" s="7">
         <v>48028.23</v>
@@ -32725,7 +32732,7 @@
         <v>515.04600000000005</v>
       </c>
       <c r="D244" s="6">
-        <v>7842.357</v>
+        <v>6000</v>
       </c>
       <c r="E244" s="7">
         <v>48400.061000000002</v>
@@ -32762,7 +32769,7 @@
         <v>515.26499999999999</v>
       </c>
       <c r="D245" s="6">
-        <v>6594.0159999999996</v>
+        <v>6000</v>
       </c>
       <c r="E245" s="7">
         <v>40621.707000000002</v>
@@ -32799,7 +32806,7 @@
         <v>515.00199999999995</v>
       </c>
       <c r="D246" s="6">
-        <v>7675.6729999999998</v>
+        <v>6000</v>
       </c>
       <c r="E246" s="7">
         <v>47212.883999999998</v>
@@ -32836,7 +32843,7 @@
         <v>514.61699999999996</v>
       </c>
       <c r="D247" s="6">
-        <v>8197.3459999999995</v>
+        <v>6000</v>
       </c>
       <c r="E247" s="7">
         <v>49559.925000000003</v>
@@ -32871,7 +32878,7 @@
         <v>514.72900000000004</v>
       </c>
       <c r="D248" s="6">
-        <v>8064.0349999999999</v>
+        <v>6000</v>
       </c>
       <c r="E248" s="7">
         <v>49396.832000000002</v>
@@ -32906,7 +32913,7 @@
         <v>514.71600000000001</v>
       </c>
       <c r="D249" s="6">
-        <v>7846.6660000000002</v>
+        <v>6000</v>
       </c>
       <c r="E249" s="7">
         <v>48782.053999999996</v>
@@ -32943,7 +32950,7 @@
         <v>514.84</v>
       </c>
       <c r="D250" s="6">
-        <v>8055.9530000000004</v>
+        <v>6000</v>
       </c>
       <c r="E250" s="7">
         <v>49262.559000000001</v>
@@ -32978,7 +32985,7 @@
         <v>514.72199999999998</v>
       </c>
       <c r="D251" s="6">
-        <v>7879.9260000000004</v>
+        <v>6000</v>
       </c>
       <c r="E251" s="7">
         <v>47962.067999999999</v>
@@ -33015,7 +33022,7 @@
         <v>514.75699999999995</v>
       </c>
       <c r="D252" s="6">
-        <v>7910.848</v>
+        <v>6000</v>
       </c>
       <c r="E252" s="7">
         <v>48337.436000000002</v>
@@ -33050,7 +33057,7 @@
         <v>514.78399999999999</v>
       </c>
       <c r="D253" s="6">
-        <v>8027.7510000000002</v>
+        <v>6000</v>
       </c>
       <c r="E253" s="7">
         <v>49466.127999999997</v>
@@ -33087,7 +33094,7 @@
         <v>514.71299999999997</v>
       </c>
       <c r="D254" s="6">
-        <v>8112.4709999999995</v>
+        <v>6000</v>
       </c>
       <c r="E254" s="7">
         <v>49299.962</v>
@@ -33122,7 +33129,7 @@
         <v>514.82299999999998</v>
       </c>
       <c r="D255" s="6">
-        <v>8134.4520000000002</v>
+        <v>6000</v>
       </c>
       <c r="E255" s="7">
         <v>49960.493999999999</v>
@@ -33159,7 +33166,7 @@
         <v>514.779</v>
       </c>
       <c r="D256" s="6">
-        <v>7160.9650000000001</v>
+        <v>6000</v>
       </c>
       <c r="E256" s="7">
         <v>43479.970999999998</v>
@@ -33194,7 +33201,7 @@
         <v>514.81899999999996</v>
       </c>
       <c r="D257" s="6">
-        <v>7140.1459999999997</v>
+        <v>6000</v>
       </c>
       <c r="E257" s="7">
         <v>43830.364000000001</v>
@@ -33231,7 +33238,7 @@
         <v>514.84299999999996</v>
       </c>
       <c r="D258" s="6">
-        <v>7013.6080000000002</v>
+        <v>6000</v>
       </c>
       <c r="E258" s="7">
         <v>42307.877999999997</v>
@@ -33268,7 +33275,7 @@
         <v>514.79999999999995</v>
       </c>
       <c r="D259" s="6">
-        <v>6961.14</v>
+        <v>6000</v>
       </c>
       <c r="E259" s="7">
         <v>42196.548999999999</v>
@@ -33305,7 +33312,7 @@
         <v>514.84500000000003</v>
       </c>
       <c r="D260" s="6">
-        <v>6858.0330000000004</v>
+        <v>6000</v>
       </c>
       <c r="E260" s="7">
         <v>41654.69</v>
@@ -33340,7 +33347,7 @@
         <v>514.97900000000004</v>
       </c>
       <c r="D261" s="6">
-        <v>6526.0110000000004</v>
+        <v>6000</v>
       </c>
       <c r="E261" s="7">
         <v>40422.411</v>
@@ -33377,7 +33384,7 @@
         <v>514.82100000000003</v>
       </c>
       <c r="D262" s="6">
-        <v>6737.1719999999996</v>
+        <v>6000</v>
       </c>
       <c r="E262" s="7">
         <v>41164.802000000003</v>
@@ -33414,7 +33421,7 @@
         <v>514.87</v>
       </c>
       <c r="D263" s="6">
-        <v>7024.9769999999999</v>
+        <v>6000</v>
       </c>
       <c r="E263" s="7">
         <v>42661.974999999999</v>
@@ -33451,7 +33458,7 @@
         <v>514.80899999999997</v>
       </c>
       <c r="D264" s="6">
-        <v>7259.5749999999998</v>
+        <v>6000</v>
       </c>
       <c r="E264" s="7">
         <v>43770.949000000001</v>
@@ -33486,7 +33493,7 @@
         <v>514.74199999999996</v>
       </c>
       <c r="D265" s="6">
-        <v>7186.4059999999999</v>
+        <v>6000</v>
       </c>
       <c r="E265" s="7">
         <v>43666.292999999998</v>
@@ -33523,7 +33530,7 @@
         <v>514.87099999999998</v>
       </c>
       <c r="D266" s="6">
-        <v>7326.4790000000003</v>
+        <v>6000</v>
       </c>
       <c r="E266" s="7">
         <v>44239.142999999996</v>
@@ -33560,7 +33567,7 @@
         <v>514.827</v>
       </c>
       <c r="D267" s="6">
-        <v>7519.9120000000003</v>
+        <v>6000</v>
       </c>
       <c r="E267" s="7">
         <v>44973.637000000002</v>
@@ -33597,7 +33604,7 @@
         <v>514.85599999999999</v>
       </c>
       <c r="D268" s="6">
-        <v>7516.8469999999998</v>
+        <v>6000</v>
       </c>
       <c r="E268" s="7">
         <v>45052.24</v>
@@ -33632,7 +33639,7 @@
         <v>514.822</v>
       </c>
       <c r="D269" s="6">
-        <v>7262.134</v>
+        <v>6000</v>
       </c>
       <c r="E269" s="7">
         <v>43315.548000000003</v>
@@ -33669,7 +33676,7 @@
         <v>514.89800000000002</v>
       </c>
       <c r="D270" s="6">
-        <v>7344.2089999999998</v>
+        <v>6000</v>
       </c>
       <c r="E270" s="7">
         <v>44557.652999999998</v>
@@ -33706,7 +33713,7 @@
         <v>514.90200000000004</v>
       </c>
       <c r="D271" s="6">
-        <v>7275.31</v>
+        <v>6000</v>
       </c>
       <c r="E271" s="7">
         <v>44185.440000000002</v>
@@ -33743,7 +33750,7 @@
         <v>514.90300000000002</v>
       </c>
       <c r="D272" s="6">
-        <v>7156.4030000000002</v>
+        <v>6000</v>
       </c>
       <c r="E272" s="7">
         <v>43070.178</v>
@@ -33778,7 +33785,7 @@
         <v>515.125</v>
       </c>
       <c r="D273" s="6">
-        <v>7659.6959999999999</v>
+        <v>6000</v>
       </c>
       <c r="E273" s="7">
         <v>46412.480000000003</v>
@@ -33815,7 +33822,7 @@
         <v>515.06200000000001</v>
       </c>
       <c r="D274" s="6">
-        <v>7788.4440000000004</v>
+        <v>6000</v>
       </c>
       <c r="E274" s="7">
         <v>47053.383000000002</v>
@@ -33852,7 +33859,7 @@
         <v>514.93100000000004</v>
       </c>
       <c r="D275" s="6">
-        <v>7739.14</v>
+        <v>6000</v>
       </c>
       <c r="E275" s="7">
         <v>47175.673000000003</v>
@@ -33889,7 +33896,7 @@
         <v>515.01</v>
       </c>
       <c r="D276" s="6">
-        <v>7915.4369999999999</v>
+        <v>6000</v>
       </c>
       <c r="E276" s="7">
         <v>48481.999000000003</v>
@@ -33926,7 +33933,7 @@
         <v>515.11199999999997</v>
       </c>
       <c r="D277" s="6">
-        <v>7950.8459999999995</v>
+        <v>6000</v>
       </c>
       <c r="E277" s="7">
         <v>48793.027999999998</v>
@@ -33963,7 +33970,7 @@
         <v>514.93399999999997</v>
       </c>
       <c r="D278" s="6">
-        <v>8008.3289999999997</v>
+        <v>6000</v>
       </c>
       <c r="E278" s="7">
         <v>48632.267</v>
@@ -33998,7 +34005,7 @@
         <v>515.03499999999997</v>
       </c>
       <c r="D279" s="6">
-        <v>7548.89</v>
+        <v>6000</v>
       </c>
       <c r="E279" s="7">
         <v>46578.792999999998</v>
@@ -34035,7 +34042,7 @@
         <v>515.19500000000005</v>
       </c>
       <c r="D280" s="6">
-        <v>7416.4679999999998</v>
+        <v>6000</v>
       </c>
       <c r="E280" s="7">
         <v>45964.091999999997</v>
@@ -34072,7 +34079,7 @@
         <v>514.94899999999996</v>
       </c>
       <c r="D281" s="6">
-        <v>7144.1760000000004</v>
+        <v>6000</v>
       </c>
       <c r="E281" s="7">
         <v>44431.875999999997</v>
@@ -34109,7 +34116,7 @@
         <v>515.15800000000002</v>
       </c>
       <c r="D282" s="6">
-        <v>7710.0839999999998</v>
+        <v>6000</v>
       </c>
       <c r="E282" s="7">
         <v>47614.256000000001</v>
@@ -34146,7 +34153,7 @@
         <v>515.08600000000001</v>
       </c>
       <c r="D283" s="6">
-        <v>7285.6670000000004</v>
+        <v>6000</v>
       </c>
       <c r="E283" s="7">
         <v>44179.171999999999</v>
@@ -34183,7 +34190,7 @@
         <v>515.11599999999999</v>
       </c>
       <c r="D284" s="6">
-        <v>7971.5</v>
+        <v>6000</v>
       </c>
       <c r="E284" s="7">
         <v>48741.353999999999</v>
@@ -34218,7 +34225,7 @@
         <v>515.04399999999998</v>
       </c>
       <c r="D285" s="6">
-        <v>7084.96</v>
+        <v>6000</v>
       </c>
       <c r="E285" s="7">
         <v>43864.148999999998</v>
@@ -34255,7 +34262,7 @@
         <v>515</v>
       </c>
       <c r="D286" s="6">
-        <v>7865.1949999999997</v>
+        <v>6000</v>
       </c>
       <c r="E286" s="7">
         <v>47846.968999999997</v>
@@ -34292,7 +34299,7 @@
         <v>515.11099999999999</v>
       </c>
       <c r="D287" s="6">
-        <v>7956.518</v>
+        <v>6000</v>
       </c>
       <c r="E287" s="7">
         <v>48375.364999999998</v>
@@ -34329,7 +34336,7 @@
         <v>515.09299999999996</v>
       </c>
       <c r="D288" s="6">
-        <v>8008.3140000000003</v>
+        <v>6000</v>
       </c>
       <c r="E288" s="7">
         <v>49220.631000000001</v>
@@ -34366,7 +34373,7 @@
         <v>515.16999999999996</v>
       </c>
       <c r="D289" s="6">
-        <v>7996.9430000000002</v>
+        <v>6000</v>
       </c>
       <c r="E289" s="7">
         <v>49003.792000000001</v>
@@ -34403,7 +34410,7 @@
         <v>515.27300000000002</v>
       </c>
       <c r="D290" s="6">
-        <v>8106.366</v>
+        <v>6000</v>
       </c>
       <c r="E290" s="7">
         <v>48852.925000000003</v>
@@ -34438,7 +34445,7 @@
         <v>515.14499999999998</v>
       </c>
       <c r="D291" s="6">
-        <v>7887.567</v>
+        <v>6000</v>
       </c>
       <c r="E291" s="7">
         <v>48044.101000000002</v>
@@ -34475,7 +34482,7 @@
         <v>515.08799999999997</v>
       </c>
       <c r="D292" s="6">
-        <v>8010.3950000000004</v>
+        <v>6000</v>
       </c>
       <c r="E292" s="7">
         <v>48289.01</v>
@@ -34512,7 +34519,7 @@
         <v>515.09799999999996</v>
       </c>
       <c r="D293" s="6">
-        <v>7869.5739999999996</v>
+        <v>6000</v>
       </c>
       <c r="E293" s="7">
         <v>47699.432999999997</v>
@@ -34549,7 +34556,7 @@
         <v>515.14700000000005</v>
       </c>
       <c r="D294" s="6">
-        <v>7561.3689999999997</v>
+        <v>6000</v>
       </c>
       <c r="E294" s="7">
         <v>46300.540999999997</v>
@@ -34586,7 +34593,7 @@
         <v>515.20799999999997</v>
       </c>
       <c r="D295" s="6">
-        <v>7410.2049999999999</v>
+        <v>6000</v>
       </c>
       <c r="E295" s="7">
         <v>45379.98</v>
@@ -34623,7 +34630,7 @@
         <v>514.70600000000002</v>
       </c>
       <c r="D296" s="6">
-        <v>8909.7289999999994</v>
+        <v>6000</v>
       </c>
       <c r="E296" s="7">
         <v>54447.148999999998</v>
@@ -34658,7 +34665,7 @@
         <v>514.64599999999996</v>
       </c>
       <c r="D297" s="6">
-        <v>8863.9619999999995</v>
+        <v>6000</v>
       </c>
       <c r="E297" s="7">
         <v>54481.881999999998</v>
@@ -34693,7 +34700,7 @@
         <v>514.82500000000005</v>
       </c>
       <c r="D298" s="6">
-        <v>8889.6260000000002</v>
+        <v>6000</v>
       </c>
       <c r="E298" s="7">
         <v>54471.735000000001</v>
@@ -34730,7 +34737,7 @@
         <v>514.69500000000005</v>
       </c>
       <c r="D299" s="6">
-        <v>8844.8809999999994</v>
+        <v>6000</v>
       </c>
       <c r="E299" s="7">
         <v>54262.561999999998</v>
@@ -34765,7 +34772,7 @@
         <v>514.779</v>
       </c>
       <c r="D300" s="6">
-        <v>8367.6919999999991</v>
+        <v>6000</v>
       </c>
       <c r="E300" s="7">
         <v>51193.294999999998</v>
@@ -34802,7 +34809,7 @@
         <v>514.82799999999997</v>
       </c>
       <c r="D301" s="6">
-        <v>8829.3369999999995</v>
+        <v>6000</v>
       </c>
       <c r="E301" s="7">
         <v>55027.307999999997</v>
@@ -34837,7 +34844,7 @@
         <v>514.83299999999997</v>
       </c>
       <c r="D302" s="6">
-        <v>8739.73</v>
+        <v>6000</v>
       </c>
       <c r="E302" s="7">
         <v>54527.892999999996</v>
@@ -34874,7 +34881,7 @@
         <v>514.74099999999999</v>
       </c>
       <c r="D303" s="6">
-        <v>9202.9279999999999</v>
+        <v>6000</v>
       </c>
       <c r="E303" s="7">
         <v>56590.290999999997</v>
@@ -34909,7 +34916,7 @@
         <v>514.79</v>
       </c>
       <c r="D304" s="6">
-        <v>8942.7720000000008</v>
+        <v>6000</v>
       </c>
       <c r="E304" s="7">
         <v>54295.038</v>
@@ -34946,7 +34953,7 @@
         <v>515.05700000000002</v>
       </c>
       <c r="D305" s="6">
-        <v>6734.2640000000001</v>
+        <v>6000</v>
       </c>
       <c r="E305" s="7">
         <v>40904.678</v>
@@ -34981,7 +34988,7 @@
         <v>514.85799999999995</v>
       </c>
       <c r="D306" s="6">
-        <v>7642.89</v>
+        <v>6000</v>
       </c>
       <c r="E306" s="7">
         <v>46906.277999999998</v>
@@ -35018,7 +35025,7 @@
         <v>514.93100000000004</v>
       </c>
       <c r="D307" s="6">
-        <v>7649.5439999999999</v>
+        <v>6000</v>
       </c>
       <c r="E307" s="7">
         <v>46653.656999999999</v>
@@ -35055,7 +35062,7 @@
         <v>514.89800000000002</v>
       </c>
       <c r="D308" s="6">
-        <v>7719.7629999999999</v>
+        <v>6000</v>
       </c>
       <c r="E308" s="7">
         <v>47148.538999999997</v>
@@ -35092,7 +35099,7 @@
         <v>514.82299999999998</v>
       </c>
       <c r="D309" s="6">
-        <v>7686.6049999999996</v>
+        <v>6000</v>
       </c>
       <c r="E309" s="7">
         <v>46925.322</v>
@@ -35127,7 +35134,7 @@
         <v>514.93100000000004</v>
       </c>
       <c r="D310" s="6">
-        <v>7445.6760000000004</v>
+        <v>6000</v>
       </c>
       <c r="E310" s="7">
         <v>45315.51</v>
@@ -35164,7 +35171,7 @@
         <v>514.93100000000004</v>
       </c>
       <c r="D311" s="6">
-        <v>7896.2830000000004</v>
+        <v>6000</v>
       </c>
       <c r="E311" s="7">
         <v>47927.684000000001</v>
@@ -35201,7 +35208,7 @@
         <v>514.851</v>
       </c>
       <c r="D312" s="6">
-        <v>7448.3050000000003</v>
+        <v>6000</v>
       </c>
       <c r="E312" s="7">
         <v>45956.767999999996</v>
@@ -35238,7 +35245,7 @@
         <v>514.81100000000004</v>
       </c>
       <c r="D313" s="6">
-        <v>7882.1679999999997</v>
+        <v>6000</v>
       </c>
       <c r="E313" s="7">
         <v>48140.998</v>
@@ -35273,7 +35280,7 @@
         <v>514.88499999999999</v>
       </c>
       <c r="D314" s="6">
-        <v>7832.5309999999999</v>
+        <v>6000</v>
       </c>
       <c r="E314" s="7">
         <v>47601.962</v>
@@ -35310,7 +35317,7 @@
         <v>515.04999999999995</v>
       </c>
       <c r="D315" s="6">
-        <v>7952.8149999999996</v>
+        <v>6000</v>
       </c>
       <c r="E315" s="7">
         <v>48107.588000000003</v>
@@ -35347,7 +35354,7 @@
         <v>514.90700000000004</v>
       </c>
       <c r="D316" s="6">
-        <v>8040.4530000000004</v>
+        <v>6000</v>
       </c>
       <c r="E316" s="7">
         <v>48798.413</v>
@@ -35384,7 +35391,7 @@
         <v>514.86800000000005</v>
       </c>
       <c r="D317" s="6">
-        <v>7891.5249999999996</v>
+        <v>6000</v>
       </c>
       <c r="E317" s="7">
         <v>47830.493000000002</v>
@@ -35419,7 +35426,7 @@
         <v>514.90599999999995</v>
       </c>
       <c r="D318" s="6">
-        <v>7530.8149999999996</v>
+        <v>6000</v>
       </c>
       <c r="E318" s="7">
         <v>46149.491999999998</v>
@@ -35456,7 +35463,7 @@
         <v>514.92499999999995</v>
       </c>
       <c r="D319" s="6">
-        <v>7893.04</v>
+        <v>6000</v>
       </c>
       <c r="E319" s="7">
         <v>48392.802000000003</v>
@@ -35493,7 +35500,7 @@
         <v>514.93700000000001</v>
       </c>
       <c r="D320" s="6">
-        <v>7730.9650000000001</v>
+        <v>6000</v>
       </c>
       <c r="E320" s="7">
         <v>47156.300999999999</v>
@@ -35530,7 +35537,7 @@
         <v>515.09699999999998</v>
       </c>
       <c r="D321" s="6">
-        <v>8088.2349999999997</v>
+        <v>6000</v>
       </c>
       <c r="E321" s="7">
         <v>49802.856</v>
@@ -35565,7 +35572,7 @@
         <v>515.03800000000001</v>
       </c>
       <c r="D322" s="6">
-        <v>7620.1049999999996</v>
+        <v>6000</v>
       </c>
       <c r="E322" s="7">
         <v>47271.266000000003</v>
@@ -35602,7 +35609,7 @@
         <v>515.22699999999998</v>
       </c>
       <c r="D323" s="6">
-        <v>8169.0709999999999</v>
+        <v>6000</v>
       </c>
       <c r="E323" s="7">
         <v>50171.928999999996</v>
@@ -35639,7 +35646,7 @@
         <v>515.11400000000003</v>
       </c>
       <c r="D324" s="6">
-        <v>8142.32</v>
+        <v>6000</v>
       </c>
       <c r="E324" s="7">
         <v>50173.332999999999</v>
@@ -35676,7 +35683,7 @@
         <v>515.178</v>
       </c>
       <c r="D325" s="6">
-        <v>8515.8050000000003</v>
+        <v>6000</v>
       </c>
       <c r="E325" s="7">
         <v>51974.711000000003</v>
@@ -35713,7 +35720,7 @@
         <v>515.10599999999999</v>
       </c>
       <c r="D326" s="6">
-        <v>8453.125</v>
+        <v>6000</v>
       </c>
       <c r="E326" s="7">
         <v>51684.277999999998</v>
@@ -35750,7 +35757,7 @@
         <v>515.06500000000005</v>
       </c>
       <c r="D327" s="6">
-        <v>8640.5529999999999</v>
+        <v>6000</v>
       </c>
       <c r="E327" s="7">
         <v>52563.667999999998</v>
@@ -35785,7 +35792,7 @@
         <v>515.12199999999996</v>
       </c>
       <c r="D328" s="6">
-        <v>8558.4740000000002</v>
+        <v>6000</v>
       </c>
       <c r="E328" s="7">
         <v>52268.254999999997</v>
@@ -35822,7 +35829,7 @@
         <v>515.12300000000005</v>
       </c>
       <c r="D329" s="6">
-        <v>8621.2389999999996</v>
+        <v>6000</v>
       </c>
       <c r="E329" s="7">
         <v>52873.675000000003</v>
@@ -35859,7 +35866,7 @@
         <v>514.98699999999997</v>
       </c>
       <c r="D330" s="6">
-        <v>8588.66</v>
+        <v>6000</v>
       </c>
       <c r="E330" s="7">
         <v>52499.737999999998</v>
@@ -35896,7 +35903,7 @@
         <v>514.97799999999995</v>
       </c>
       <c r="D331" s="6">
-        <v>8517.7950000000001</v>
+        <v>6000</v>
       </c>
       <c r="E331" s="7">
         <v>51663.481</v>
@@ -35933,7 +35940,7 @@
         <v>515.18700000000001</v>
       </c>
       <c r="D332" s="6">
-        <v>8589.8970000000008</v>
+        <v>8000</v>
       </c>
       <c r="E332" s="7">
         <v>52578.824000000001</v>
@@ -35970,7 +35977,7 @@
         <v>514.92499999999995</v>
       </c>
       <c r="D333" s="6">
-        <v>8517.2999999999993</v>
+        <v>8000</v>
       </c>
       <c r="E333" s="7">
         <v>52141.703999999998</v>
@@ -36005,7 +36012,7 @@
         <v>515.03899999999999</v>
       </c>
       <c r="D334" s="6">
-        <v>8725.5869999999995</v>
+        <v>8000</v>
       </c>
       <c r="E334" s="7">
         <v>52851.675999999999</v>
@@ -36042,7 +36049,7 @@
         <v>515.21100000000001</v>
       </c>
       <c r="D335" s="6">
-        <v>8648.4089999999997</v>
+        <v>8000</v>
       </c>
       <c r="E335" s="7">
         <v>52334.709000000003</v>
@@ -36079,7 +36086,7 @@
         <v>515.05499999999995</v>
       </c>
       <c r="D336" s="6">
-        <v>8413.5110000000004</v>
+        <v>8000</v>
       </c>
       <c r="E336" s="7">
         <v>50800.103000000003</v>
@@ -36116,7 +36123,7 @@
         <v>515.23199999999997</v>
       </c>
       <c r="D337" s="6">
-        <v>8580.2000000000007</v>
+        <v>8000</v>
       </c>
       <c r="E337" s="7">
         <v>52216.800000000003</v>
@@ -36153,7 +36160,7 @@
         <v>515.09900000000005</v>
       </c>
       <c r="D338" s="6">
-        <v>8505.0149999999994</v>
+        <v>8000</v>
       </c>
       <c r="E338" s="7">
         <v>51728.052000000003</v>
@@ -36190,7 +36197,7 @@
         <v>515.19899999999996</v>
       </c>
       <c r="D339" s="6">
-        <v>8445.9419999999991</v>
+        <v>8000</v>
       </c>
       <c r="E339" s="7">
         <v>51598.86</v>
@@ -36225,7 +36232,7 @@
         <v>515.05399999999997</v>
       </c>
       <c r="D340" s="6">
-        <v>8377.7009999999991</v>
+        <v>8000</v>
       </c>
       <c r="E340" s="7">
         <v>50267.213000000003</v>
@@ -36262,7 +36269,7 @@
         <v>514.98500000000001</v>
       </c>
       <c r="D341" s="6">
-        <v>8594.7250000000004</v>
+        <v>8000</v>
       </c>
       <c r="E341" s="7">
         <v>52324.66</v>
@@ -36299,7 +36306,7 @@
         <v>515.08500000000004</v>
       </c>
       <c r="D342" s="6">
-        <v>8592.5159999999996</v>
+        <v>8000</v>
       </c>
       <c r="E342" s="7">
         <v>52116.748</v>
@@ -36336,7 +36343,7 @@
         <v>515.13699999999994</v>
       </c>
       <c r="D343" s="6">
-        <v>8437.6650000000009</v>
+        <v>8000</v>
       </c>
       <c r="E343" s="7">
         <v>50873.057999999997</v>
@@ -36373,7 +36380,7 @@
         <v>515.16200000000003</v>
       </c>
       <c r="D344" s="6">
-        <v>7925.951</v>
+        <v>8000</v>
       </c>
       <c r="E344" s="7">
         <v>48241.557999999997</v>
@@ -36410,7 +36417,7 @@
         <v>514.71</v>
       </c>
       <c r="D345" s="6">
-        <v>8589.1579999999994</v>
+        <v>8000</v>
       </c>
       <c r="E345" s="7">
         <v>51819.788999999997</v>
@@ -36445,7 +36452,7 @@
         <v>514.85199999999998</v>
       </c>
       <c r="D346" s="6">
-        <v>8530.3850000000002</v>
+        <v>8000</v>
       </c>
       <c r="E346" s="7">
         <v>52246.873</v>
@@ -36480,7 +36487,7 @@
         <v>514.78599999999994</v>
       </c>
       <c r="D347" s="6">
-        <v>8551.6630000000005</v>
+        <v>8000</v>
       </c>
       <c r="E347" s="7">
         <v>52235.838000000003</v>
@@ -36517,7 +36524,7 @@
         <v>514.75199999999995</v>
       </c>
       <c r="D348" s="6">
-        <v>8569.232</v>
+        <v>8000</v>
       </c>
       <c r="E348" s="7">
         <v>52208.892999999996</v>
@@ -36552,7 +36559,7 @@
         <v>514.67600000000004</v>
       </c>
       <c r="D349" s="6">
-        <v>8504.518</v>
+        <v>8000</v>
       </c>
       <c r="E349" s="7">
         <v>51549.79</v>
@@ -36589,7 +36596,7 @@
         <v>514.84500000000003</v>
       </c>
       <c r="D350" s="6">
-        <v>8587.9519999999993</v>
+        <v>8000</v>
       </c>
       <c r="E350" s="7">
         <v>52345.677000000003</v>
@@ -36624,7 +36631,7 @@
         <v>514.73299999999995</v>
       </c>
       <c r="D351" s="6">
-        <v>8786.42</v>
+        <v>8000</v>
       </c>
       <c r="E351" s="7">
         <v>53054.762000000002</v>
@@ -36661,7 +36668,7 @@
         <v>514.76700000000005</v>
       </c>
       <c r="D352" s="6">
-        <v>8647.9419999999991</v>
+        <v>8000</v>
       </c>
       <c r="E352" s="7">
         <v>52804.171000000002</v>
@@ -36696,7 +36703,7 @@
         <v>514.61099999999999</v>
       </c>
       <c r="D353" s="6">
-        <v>8683.4619999999995</v>
+        <v>8000</v>
       </c>
       <c r="E353" s="7">
         <v>52724.68</v>
@@ -36733,7 +36740,7 @@
         <v>514.94600000000003</v>
       </c>
       <c r="D354" s="6">
-        <v>7590.4520000000002</v>
+        <v>8000</v>
       </c>
       <c r="E354" s="7">
         <v>45500.603000000003</v>
@@ -36768,7 +36775,7 @@
         <v>514.93499999999995</v>
       </c>
       <c r="D355" s="6">
-        <v>7547.3209999999999</v>
+        <v>8000</v>
       </c>
       <c r="E355" s="7">
         <v>45808.216999999997</v>
@@ -36805,7 +36812,7 @@
         <v>514.87300000000005</v>
       </c>
       <c r="D356" s="6">
-        <v>7556.616</v>
+        <v>8000</v>
       </c>
       <c r="E356" s="7">
         <v>45570.953999999998</v>
@@ -36842,7 +36849,7 @@
         <v>514.822</v>
       </c>
       <c r="D357" s="6">
-        <v>7686.8310000000001</v>
+        <v>8000</v>
       </c>
       <c r="E357" s="7">
         <v>46148.692000000003</v>
@@ -36879,7 +36886,7 @@
         <v>514.85799999999995</v>
       </c>
       <c r="D358" s="6">
-        <v>7571.46</v>
+        <v>8000</v>
       </c>
       <c r="E358" s="7">
         <v>46138.548000000003</v>
@@ -36914,7 +36921,7 @@
         <v>515.00599999999997</v>
       </c>
       <c r="D359" s="6">
-        <v>7701.0370000000003</v>
+        <v>8000</v>
       </c>
       <c r="E359" s="7">
         <v>46800.105000000003</v>
@@ -36951,7 +36958,7 @@
         <v>514.85500000000002</v>
       </c>
       <c r="D360" s="6">
-        <v>7725.183</v>
+        <v>8000</v>
       </c>
       <c r="E360" s="7">
         <v>47047.156000000003</v>
@@ -36988,7 +36995,7 @@
         <v>514.9</v>
       </c>
       <c r="D361" s="6">
-        <v>7547.9459999999999</v>
+        <v>8000</v>
       </c>
       <c r="E361" s="7">
         <v>45924.51</v>
@@ -37025,7 +37032,7 @@
         <v>514.88699999999994</v>
       </c>
       <c r="D362" s="6">
-        <v>7243.0110000000004</v>
+        <v>8000</v>
       </c>
       <c r="E362" s="7">
         <v>43846.826000000001</v>
@@ -37060,7 +37067,7 @@
         <v>515.00199999999995</v>
       </c>
       <c r="D363" s="6">
-        <v>7523.6120000000001</v>
+        <v>8000</v>
       </c>
       <c r="E363" s="7">
         <v>45616.332999999999</v>
@@ -37097,7 +37104,7 @@
         <v>514.79200000000003</v>
       </c>
       <c r="D364" s="6">
-        <v>7694.6719999999996</v>
+        <v>8000</v>
       </c>
       <c r="E364" s="7">
         <v>46106.353000000003</v>
@@ -37134,7 +37141,7 @@
         <v>514.99300000000005</v>
       </c>
       <c r="D365" s="6">
-        <v>7717.451</v>
+        <v>8000</v>
       </c>
       <c r="E365" s="7">
         <v>46993.446000000004</v>
@@ -37171,7 +37178,7 @@
         <v>514.81100000000004</v>
       </c>
       <c r="D366" s="6">
-        <v>7763.5320000000002</v>
+        <v>8000</v>
       </c>
       <c r="E366" s="7">
         <v>46737.447999999997</v>
@@ -37206,7 +37213,7 @@
         <v>514.87</v>
       </c>
       <c r="D367" s="6">
-        <v>7590.1130000000003</v>
+        <v>8000</v>
       </c>
       <c r="E367" s="7">
         <v>45819.968999999997</v>
@@ -37243,7 +37250,7 @@
         <v>514.98500000000001</v>
       </c>
       <c r="D368" s="6">
-        <v>7555.77</v>
+        <v>8000</v>
       </c>
       <c r="E368" s="7">
         <v>45471.188999999998</v>
@@ -37280,7 +37287,7 @@
         <v>514.88800000000003</v>
       </c>
       <c r="D369" s="6">
-        <v>7512.4380000000001</v>
+        <v>8000</v>
       </c>
       <c r="E369" s="7">
         <v>45435.962</v>
@@ -37317,7 +37324,7 @@
         <v>515.10299999999995</v>
       </c>
       <c r="D370" s="6">
-        <v>8024.5829999999996</v>
+        <v>8000</v>
       </c>
       <c r="E370" s="7">
         <v>48951.832999999999</v>
@@ -37352,7 +37359,7 @@
         <v>515.24099999999999</v>
       </c>
       <c r="D371" s="6">
-        <v>7911.335</v>
+        <v>8000</v>
       </c>
       <c r="E371" s="7">
         <v>47916.266000000003</v>
@@ -37389,7 +37396,7 @@
         <v>515.00699999999995</v>
       </c>
       <c r="D372" s="6">
-        <v>8106.3689999999997</v>
+        <v>8000</v>
       </c>
       <c r="E372" s="7">
         <v>48862.2</v>
@@ -37426,7 +37433,7 @@
         <v>515.25900000000001</v>
       </c>
       <c r="D373" s="6">
-        <v>8015.9229999999998</v>
+        <v>8000</v>
       </c>
       <c r="E373" s="7">
         <v>48441.608999999997</v>
@@ -37463,7 +37470,7 @@
         <v>515.01499999999999</v>
       </c>
       <c r="D374" s="6">
-        <v>7883.2920000000004</v>
+        <v>8000</v>
       </c>
       <c r="E374" s="7">
         <v>48234.142</v>
@@ -37500,7 +37507,7 @@
         <v>515.17899999999997</v>
       </c>
       <c r="D375" s="6">
-        <v>8197.3259999999991</v>
+        <v>8000</v>
       </c>
       <c r="E375" s="7">
         <v>50592.728999999999</v>
@@ -37537,7 +37544,7 @@
         <v>515.03800000000001</v>
       </c>
       <c r="D376" s="6">
-        <v>8314.5939999999991</v>
+        <v>8000</v>
       </c>
       <c r="E376" s="7">
         <v>50027.502999999997</v>
@@ -37572,7 +37579,7 @@
         <v>514.94399999999996</v>
       </c>
       <c r="D377" s="6">
-        <v>8160.2039999999997</v>
+        <v>8000</v>
       </c>
       <c r="E377" s="7">
         <v>49617.247000000003</v>
@@ -37609,7 +37616,7 @@
         <v>515.00599999999997</v>
       </c>
       <c r="D378" s="6">
-        <v>8190.0020000000004</v>
+        <v>8000</v>
       </c>
       <c r="E378" s="7">
         <v>49707.680999999997</v>
@@ -37646,7 +37653,7 @@
         <v>514.99199999999996</v>
       </c>
       <c r="D379" s="6">
-        <v>8228.8770000000004</v>
+        <v>8000</v>
       </c>
       <c r="E379" s="7">
         <v>50400.417999999998</v>
@@ -37683,7 +37690,7 @@
         <v>515.04200000000003</v>
       </c>
       <c r="D380" s="6">
-        <v>8356.8019999999997</v>
+        <v>8000</v>
       </c>
       <c r="E380" s="7">
         <v>50715.385000000002</v>
@@ -37720,7 +37727,7 @@
         <v>514.91499999999996</v>
       </c>
       <c r="D381" s="6">
-        <v>8170.0450000000001</v>
+        <v>8000</v>
       </c>
       <c r="E381" s="7">
         <v>49754.731</v>
@@ -37757,7 +37764,7 @@
         <v>514.86</v>
       </c>
       <c r="D382" s="6">
-        <v>8303.5049999999992</v>
+        <v>8000</v>
       </c>
       <c r="E382" s="7">
         <v>50567.152999999998</v>
@@ -37792,7 +37799,7 @@
         <v>515.13599999999997</v>
       </c>
       <c r="D383" s="6">
-        <v>8228.8520000000008</v>
+        <v>8000</v>
       </c>
       <c r="E383" s="7">
         <v>50618.735999999997</v>
@@ -37829,7 +37836,7 @@
         <v>515.09199999999998</v>
       </c>
       <c r="D384" s="6">
-        <v>8221.0139999999992</v>
+        <v>8000</v>
       </c>
       <c r="E384" s="7">
         <v>50101.737999999998</v>
@@ -37866,7 +37873,7 @@
         <v>515.005</v>
       </c>
       <c r="D385" s="6">
-        <v>8192.1839999999993</v>
+        <v>8000</v>
       </c>
       <c r="E385" s="7">
         <v>49410.216999999997</v>
@@ -37903,7 +37910,7 @@
         <v>514.98500000000001</v>
       </c>
       <c r="D386" s="6">
-        <v>8260.9500000000007</v>
+        <v>8000</v>
       </c>
       <c r="E386" s="7">
         <v>49736.052000000003</v>
@@ -37940,7 +37947,7 @@
         <v>515.12900000000002</v>
       </c>
       <c r="D387" s="6">
-        <v>8123.9669999999996</v>
+        <v>8000</v>
       </c>
       <c r="E387" s="7">
         <v>49135.987000000001</v>
@@ -37977,7 +37984,7 @@
         <v>514.99599999999998</v>
       </c>
       <c r="D388" s="6">
-        <v>8185.3609999999999</v>
+        <v>8000</v>
       </c>
       <c r="E388" s="7">
         <v>49645.637000000002</v>
@@ -38012,7 +38019,7 @@
         <v>515.21699999999998</v>
       </c>
       <c r="D389" s="6">
-        <v>8026.2659999999996</v>
+        <v>8000</v>
       </c>
       <c r="E389" s="7">
         <v>48463.792999999998</v>
@@ -38049,7 +38056,7 @@
         <v>515.07399999999996</v>
       </c>
       <c r="D390" s="6">
-        <v>8035.9570000000003</v>
+        <v>8000</v>
       </c>
       <c r="E390" s="7">
         <v>49199.707000000002</v>
@@ -38086,7 +38093,7 @@
         <v>515.17700000000002</v>
       </c>
       <c r="D391" s="6">
-        <v>7953.3829999999998</v>
+        <v>8000</v>
       </c>
       <c r="E391" s="7">
         <v>48753.178999999996</v>
@@ -38123,7 +38130,7 @@
         <v>515.04300000000001</v>
       </c>
       <c r="D392" s="6">
-        <v>7799.8879999999999</v>
+        <v>8000</v>
       </c>
       <c r="E392" s="7">
         <v>47816.923000000003</v>
@@ -38160,7 +38167,7 @@
         <v>515.08000000000004</v>
       </c>
       <c r="D393" s="6">
-        <v>7477.2049999999999</v>
+        <v>8000</v>
       </c>
       <c r="E393" s="7">
         <v>45878.125999999997</v>
@@ -38197,7 +38204,7 @@
         <v>514.654</v>
       </c>
       <c r="D394" s="6">
-        <v>8726.0519999999997</v>
+        <v>8000</v>
       </c>
       <c r="E394" s="7">
         <v>52727.999000000003</v>
@@ -38232,7 +38239,7 @@
         <v>514.77</v>
       </c>
       <c r="D395" s="6">
-        <v>8525.223</v>
+        <v>8000</v>
       </c>
       <c r="E395" s="7">
         <v>51862.557000000001</v>
@@ -38267,7 +38274,7 @@
         <v>514.83199999999999</v>
       </c>
       <c r="D396" s="6">
-        <v>8675.75</v>
+        <v>8000</v>
       </c>
       <c r="E396" s="7">
         <v>52548.074999999997</v>
@@ -38304,7 +38311,7 @@
         <v>514.80200000000002</v>
       </c>
       <c r="D397" s="6">
-        <v>8658.875</v>
+        <v>8000</v>
       </c>
       <c r="E397" s="7">
         <v>52766.464</v>
@@ -38339,7 +38346,7 @@
         <v>514.774</v>
       </c>
       <c r="D398" s="6">
-        <v>8490.6419999999998</v>
+        <v>8000</v>
       </c>
       <c r="E398" s="7">
         <v>51824.103999999999</v>
@@ -38376,7 +38383,7 @@
         <v>514.64300000000003</v>
       </c>
       <c r="D399" s="6">
-        <v>8762.7459999999992</v>
+        <v>8000</v>
       </c>
       <c r="E399" s="7">
         <v>52915.966</v>
@@ -38411,7 +38418,7 @@
         <v>514.90700000000004</v>
       </c>
       <c r="D400" s="6">
-        <v>8825.2139999999999</v>
+        <v>8000</v>
       </c>
       <c r="E400" s="7">
         <v>53644.805999999997</v>
@@ -38448,7 +38455,7 @@
         <v>514.76199999999994</v>
       </c>
       <c r="D401" s="6">
-        <v>8993.8670000000002</v>
+        <v>8000</v>
       </c>
       <c r="E401" s="7">
         <v>54446.493999999999</v>
@@ -38483,7 +38490,7 @@
         <v>514.86900000000003</v>
       </c>
       <c r="D402" s="6">
-        <v>8726.7250000000004</v>
+        <v>8000</v>
       </c>
       <c r="E402" s="7">
         <v>53242.811999999998</v>
@@ -38520,7 +38527,7 @@
         <v>514.85799999999995</v>
       </c>
       <c r="D403" s="6">
-        <v>7467.4989999999998</v>
+        <v>8000</v>
       </c>
       <c r="E403" s="7">
         <v>45222.860999999997</v>
@@ -38555,7 +38562,7 @@
         <v>514.91</v>
       </c>
       <c r="D404" s="6">
-        <v>7661.8469999999998</v>
+        <v>8000</v>
       </c>
       <c r="E404" s="7">
         <v>45970.866000000002</v>
@@ -38592,7 +38599,7 @@
         <v>514.96500000000003</v>
       </c>
       <c r="D405" s="6">
-        <v>7610.3779999999997</v>
+        <v>8000</v>
       </c>
       <c r="E405" s="7">
         <v>46059.332000000002</v>
@@ -38629,7 +38636,7 @@
         <v>514.90300000000002</v>
       </c>
       <c r="D406" s="6">
-        <v>7742.7629999999999</v>
+        <v>8000</v>
       </c>
       <c r="E406" s="7">
         <v>46562.52</v>
@@ -38666,7 +38673,7 @@
         <v>514.86599999999999</v>
       </c>
       <c r="D407" s="6">
-        <v>7603.3850000000002</v>
+        <v>8000</v>
       </c>
       <c r="E407" s="7">
         <v>46628.205000000002</v>
@@ -38701,7 +38708,7 @@
         <v>514.70000000000005</v>
       </c>
       <c r="D408" s="6">
-        <v>7516.5110000000004</v>
+        <v>8000</v>
       </c>
       <c r="E408" s="7">
         <v>45733.016000000003</v>
@@ -38738,7 +38745,7 @@
         <v>514.93200000000002</v>
       </c>
       <c r="D409" s="6">
-        <v>7788.2550000000001</v>
+        <v>8000</v>
       </c>
       <c r="E409" s="7">
         <v>47062.572999999997</v>
@@ -38775,7 +38782,7 @@
         <v>514.90099999999995</v>
       </c>
       <c r="D410" s="6">
-        <v>7483.9290000000001</v>
+        <v>8000</v>
       </c>
       <c r="E410" s="7">
         <v>45431.192999999999</v>
@@ -38812,7 +38819,7 @@
         <v>514.86800000000005</v>
       </c>
       <c r="D411" s="6">
-        <v>7677.2479999999996</v>
+        <v>8000</v>
       </c>
       <c r="E411" s="7">
         <v>46640.633999999998</v>
@@ -38847,7 +38854,7 @@
         <v>514.822</v>
       </c>
       <c r="D412" s="6">
-        <v>7740.0020000000004</v>
+        <v>8000</v>
       </c>
       <c r="E412" s="7">
         <v>46864.383999999998</v>
@@ -38884,7 +38891,7 @@
         <v>514.95299999999997</v>
       </c>
       <c r="D413" s="6">
-        <v>7604.3370000000004</v>
+        <v>8000</v>
       </c>
       <c r="E413" s="7">
         <v>46106.462</v>
@@ -38921,7 +38928,7 @@
         <v>514.87900000000002</v>
       </c>
       <c r="D414" s="6">
-        <v>7787.91</v>
+        <v>8000</v>
       </c>
       <c r="E414" s="7">
         <v>46947.195</v>
@@ -38958,7 +38965,7 @@
         <v>515.11699999999996</v>
       </c>
       <c r="D415" s="6">
-        <v>7685.7550000000001</v>
+        <v>8000</v>
       </c>
       <c r="E415" s="7">
         <v>46381.18</v>
@@ -38993,7 +39000,7 @@
         <v>514.99199999999996</v>
       </c>
       <c r="D416" s="6">
-        <v>7673.9859999999999</v>
+        <v>8000</v>
       </c>
       <c r="E416" s="7">
         <v>46659.788</v>
@@ -39030,7 +39037,7 @@
         <v>514.93499999999995</v>
       </c>
       <c r="D417" s="6">
-        <v>7610.8909999999996</v>
+        <v>8000</v>
       </c>
       <c r="E417" s="7">
         <v>46074.663</v>
@@ -39067,7 +39074,7 @@
         <v>514.97199999999998</v>
       </c>
       <c r="D418" s="6">
-        <v>7479.9059999999999</v>
+        <v>8000</v>
       </c>
       <c r="E418" s="7">
         <v>45234.857000000004</v>
@@ -39104,7 +39111,7 @@
         <v>515.10699999999997</v>
       </c>
       <c r="D419" s="6">
-        <v>8097</v>
+        <v>8000</v>
       </c>
       <c r="E419" s="7">
         <v>49129.063000000002</v>
@@ -39139,7 +39146,7 @@
         <v>515.09500000000003</v>
       </c>
       <c r="D420" s="6">
-        <v>7889.6210000000001</v>
+        <v>8000</v>
       </c>
       <c r="E420" s="7">
         <v>48081.116999999998</v>
@@ -39176,7 +39183,7 @@
         <v>515.13099999999997</v>
       </c>
       <c r="D421" s="6">
-        <v>7986.4930000000004</v>
+        <v>8000</v>
       </c>
       <c r="E421" s="7">
         <v>48623.175999999999</v>
@@ -39213,7 +39220,7 @@
         <v>515.13400000000001</v>
       </c>
       <c r="D422" s="6">
-        <v>7907.8090000000002</v>
+        <v>8000</v>
       </c>
       <c r="E422" s="7">
         <v>48181.071000000004</v>
@@ -39250,7 +39257,7 @@
         <v>514.96</v>
       </c>
       <c r="D423" s="6">
-        <v>8218.3340000000007</v>
+        <v>8000</v>
       </c>
       <c r="E423" s="7">
         <v>49497.368999999999</v>
@@ -39287,7 +39294,7 @@
         <v>515.00400000000002</v>
       </c>
       <c r="D424" s="6">
-        <v>8180.9129999999996</v>
+        <v>8000</v>
       </c>
       <c r="E424" s="7">
         <v>50051.735000000001</v>
@@ -39324,7 +39331,7 @@
         <v>515.072</v>
       </c>
       <c r="D425" s="6">
-        <v>7660.9870000000001</v>
+        <v>8000</v>
       </c>
       <c r="E425" s="7">
         <v>46425.555999999997</v>
@@ -39359,7 +39366,7 @@
         <v>515.16499999999996</v>
       </c>
       <c r="D426" s="6">
-        <v>7975.6880000000001</v>
+        <v>8000</v>
       </c>
       <c r="E426" s="7">
         <v>48658.417000000001</v>
@@ -39396,7 +39403,7 @@
         <v>515.06100000000004</v>
       </c>
       <c r="D427" s="6">
-        <v>8238.6790000000001</v>
+        <v>8000</v>
       </c>
       <c r="E427" s="7">
         <v>50149.292999999998</v>
@@ -39433,7 +39440,7 @@
         <v>515.05600000000004</v>
       </c>
       <c r="D428" s="6">
-        <v>7947.5129999999999</v>
+        <v>8000</v>
       </c>
       <c r="E428" s="7">
         <v>48517.675999999999</v>
@@ -39470,7 +39477,7 @@
         <v>515.15700000000004</v>
       </c>
       <c r="D429" s="6">
-        <v>8247</v>
+        <v>8000</v>
       </c>
       <c r="E429" s="7">
         <v>50158.534</v>
@@ -39507,7 +39514,7 @@
         <v>515.01599999999996</v>
       </c>
       <c r="D430" s="6">
-        <v>7840.3559999999998</v>
+        <v>8000</v>
       </c>
       <c r="E430" s="7">
         <v>48016.936999999998</v>
@@ -39544,7 +39551,7 @@
         <v>514.96699999999998</v>
       </c>
       <c r="D431" s="6">
-        <v>8192.5380000000005</v>
+        <v>8000</v>
       </c>
       <c r="E431" s="7">
         <v>50348.296000000002</v>
@@ -39579,7 +39586,7 @@
         <v>515.03</v>
       </c>
       <c r="D432" s="6">
-        <v>7860.62</v>
+        <v>8000</v>
       </c>
       <c r="E432" s="7">
         <v>48542.938999999998</v>
@@ -39616,7 +39623,7 @@
         <v>515.00800000000004</v>
       </c>
       <c r="D433" s="6">
-        <v>8237.4660000000003</v>
+        <v>8000</v>
       </c>
       <c r="E433" s="7">
         <v>50607.86</v>
@@ -39653,7 +39660,7 @@
         <v>514.92499999999995</v>
       </c>
       <c r="D434" s="6">
-        <v>8254.1830000000009</v>
+        <v>8000</v>
       </c>
       <c r="E434" s="7">
         <v>49819.141000000003</v>
@@ -39690,7 +39697,7 @@
         <v>515.10199999999998</v>
       </c>
       <c r="D435" s="6">
-        <v>8210.5419999999995</v>
+        <v>8000</v>
       </c>
       <c r="E435" s="7">
         <v>49224.290999999997</v>
@@ -39727,7 +39734,7 @@
         <v>515.05499999999995</v>
       </c>
       <c r="D436" s="6">
-        <v>8355.9509999999991</v>
+        <v>8000</v>
       </c>
       <c r="E436" s="7">
         <v>50417.222999999998</v>
@@ -39764,7 +39771,7 @@
         <v>515.06799999999998</v>
       </c>
       <c r="D437" s="6">
-        <v>8054.0929999999998</v>
+        <v>8000</v>
       </c>
       <c r="E437" s="7">
         <v>49495.012000000002</v>
@@ -39799,7 +39806,7 @@
         <v>515.08199999999999</v>
       </c>
       <c r="D438" s="6">
-        <v>8062.53</v>
+        <v>8000</v>
       </c>
       <c r="E438" s="7">
         <v>49185.552000000003</v>
@@ -39836,7 +39843,7 @@
         <v>515.09199999999998</v>
       </c>
       <c r="D439" s="6">
-        <v>8159.5330000000004</v>
+        <v>8000</v>
       </c>
       <c r="E439" s="7">
         <v>49264.517</v>
@@ -39873,7 +39880,7 @@
         <v>515.11199999999997</v>
       </c>
       <c r="D440" s="6">
-        <v>8205.3850000000002</v>
+        <v>8000</v>
       </c>
       <c r="E440" s="7">
         <v>49916.337</v>
@@ -39910,7 +39917,7 @@
         <v>515.12400000000002</v>
       </c>
       <c r="D441" s="6">
-        <v>7823.0309999999999</v>
+        <v>8000</v>
       </c>
       <c r="E441" s="7">
         <v>47976.002</v>
@@ -39947,7 +39954,7 @@
         <v>514.84900000000005</v>
       </c>
       <c r="D442" s="6">
-        <v>7714.0420000000004</v>
+        <v>8000</v>
       </c>
       <c r="E442" s="7">
         <v>46821.601000000002</v>
@@ -39984,7 +39991,7 @@
         <v>514.79700000000003</v>
       </c>
       <c r="D443" s="6">
-        <v>8743.509</v>
+        <v>8000</v>
       </c>
       <c r="E443" s="7">
         <v>53211.756000000001</v>
@@ -40019,7 +40026,7 @@
         <v>514.74699999999996</v>
       </c>
       <c r="D444" s="6">
-        <v>8717.8459999999995</v>
+        <v>8000</v>
       </c>
       <c r="E444" s="7">
         <v>53159.616999999998</v>
@@ -40054,7 +40061,7 @@
         <v>514.92200000000003</v>
       </c>
       <c r="D445" s="6">
-        <v>8573.4040000000005</v>
+        <v>8000</v>
       </c>
       <c r="E445" s="7">
         <v>52325.58</v>
@@ -40091,7 +40098,7 @@
         <v>514.71</v>
       </c>
       <c r="D446" s="6">
-        <v>8626</v>
+        <v>8000</v>
       </c>
       <c r="E446" s="7">
         <v>52317.207999999999</v>
@@ -40126,7 +40133,7 @@
         <v>514.71699999999998</v>
       </c>
       <c r="D447" s="6">
-        <v>8696.1200000000008</v>
+        <v>8000</v>
       </c>
       <c r="E447" s="7">
         <v>52106.786</v>
@@ -40163,7 +40170,7 @@
         <v>514.755</v>
       </c>
       <c r="D448" s="6">
-        <v>8737.3790000000008</v>
+        <v>8000</v>
       </c>
       <c r="E448" s="7">
         <v>53111.438000000002</v>
@@ -40198,7 +40205,7 @@
         <v>514.697</v>
       </c>
       <c r="D449" s="6">
-        <v>8945.5149999999994</v>
+        <v>8000</v>
       </c>
       <c r="E449" s="7">
         <v>54100.055</v>
@@ -40235,7 +40242,7 @@
         <v>514.82299999999998</v>
       </c>
       <c r="D450" s="6">
-        <v>8900.9629999999997</v>
+        <v>8000</v>
       </c>
       <c r="E450" s="7">
         <v>54557.411999999997</v>
@@ -40270,7 +40277,7 @@
         <v>514.79</v>
       </c>
       <c r="D451" s="6">
-        <v>8738.4809999999998</v>
+        <v>8000</v>
       </c>
       <c r="E451" s="7">
         <v>53365.440000000002</v>
@@ -40307,7 +40314,7 @@
         <v>515.03899999999999</v>
       </c>
       <c r="D452" s="6">
-        <v>7586.8119999999999</v>
+        <v>8000</v>
       </c>
       <c r="E452" s="7">
         <v>46298.915000000001</v>
@@ -40342,7 +40349,7 @@
         <v>514.88099999999997</v>
       </c>
       <c r="D453" s="6">
-        <v>7682.2179999999998</v>
+        <v>8000</v>
       </c>
       <c r="E453" s="7">
         <v>46045.940999999999</v>
@@ -40379,7 +40386,7 @@
         <v>514.85199999999998</v>
       </c>
       <c r="D454" s="6">
-        <v>7633.348</v>
+        <v>8000</v>
       </c>
       <c r="E454" s="7">
         <v>45707.32</v>
@@ -40416,7 +40423,7 @@
         <v>515.07500000000005</v>
       </c>
       <c r="D455" s="6">
-        <v>7577.1329999999998</v>
+        <v>8000</v>
       </c>
       <c r="E455" s="7">
         <v>46319.597999999998</v>
@@ -40453,7 +40460,7 @@
         <v>515.00300000000004</v>
       </c>
       <c r="D456" s="6">
-        <v>7560.5640000000003</v>
+        <v>8000</v>
       </c>
       <c r="E456" s="7">
         <v>45714.667999999998</v>
@@ -40488,7 +40495,7 @@
         <v>515.01199999999994</v>
       </c>
       <c r="D457" s="6">
-        <v>7684.5060000000003</v>
+        <v>8000</v>
       </c>
       <c r="E457" s="7">
         <v>46246.120999999999</v>
@@ -40525,7 +40532,7 @@
         <v>514.92200000000003</v>
       </c>
       <c r="D458" s="6">
-        <v>7817.2529999999997</v>
+        <v>8000</v>
       </c>
       <c r="E458" s="7">
         <v>47468.387999999999</v>
@@ -40562,7 +40569,7 @@
         <v>515.10799999999995</v>
       </c>
       <c r="D459" s="6">
-        <v>7535.8459999999995</v>
+        <v>8000</v>
       </c>
       <c r="E459" s="7">
         <v>45736.023999999998</v>
@@ -40599,7 +40606,7 @@
         <v>514.98699999999997</v>
       </c>
       <c r="D460" s="6">
-        <v>7686.527</v>
+        <v>8000</v>
       </c>
       <c r="E460" s="7">
         <v>47121.73</v>
@@ -40634,7 +40641,7 @@
         <v>514.84799999999996</v>
       </c>
       <c r="D461" s="6">
-        <v>7777.6670000000004</v>
+        <v>8000</v>
       </c>
       <c r="E461" s="7">
         <v>47240.993999999999</v>
@@ -40671,7 +40678,7 @@
         <v>514.79600000000005</v>
       </c>
       <c r="D462" s="6">
-        <v>7691.3029999999999</v>
+        <v>8000</v>
       </c>
       <c r="E462" s="7">
         <v>46306.057000000001</v>
@@ -40708,7 +40715,7 @@
         <v>514.88400000000001</v>
       </c>
       <c r="D463" s="6">
-        <v>7933.1819999999998</v>
+        <v>8000</v>
       </c>
       <c r="E463" s="7">
         <v>47337.525000000001</v>
@@ -40745,7 +40752,7 @@
         <v>514.91099999999994</v>
       </c>
       <c r="D464" s="6">
-        <v>7886.9809999999998</v>
+        <v>8000</v>
       </c>
       <c r="E464" s="7">
         <v>47344.966</v>
@@ -40780,7 +40787,7 @@
         <v>514.94000000000005</v>
       </c>
       <c r="D465" s="6">
-        <v>7753.1689999999999</v>
+        <v>8000</v>
       </c>
       <c r="E465" s="7">
         <v>46861.531000000003</v>
@@ -40817,7 +40824,7 @@
         <v>514.86900000000003</v>
       </c>
       <c r="D466" s="6">
-        <v>7744.8739999999998</v>
+        <v>8000</v>
       </c>
       <c r="E466" s="7">
         <v>46846.902999999998</v>
@@ -40854,7 +40861,7 @@
         <v>514.91200000000003</v>
       </c>
       <c r="D467" s="6">
-        <v>7626.1210000000001</v>
+        <v>8000</v>
       </c>
       <c r="E467" s="7">
         <v>45819.328999999998</v>
@@ -40891,7 +40898,7 @@
         <v>515.03499999999997</v>
       </c>
       <c r="D468" s="6">
-        <v>8143.59</v>
+        <v>8000</v>
       </c>
       <c r="E468" s="7">
         <v>49721.928999999996</v>
@@ -40926,7 +40933,7 @@
         <v>515.02700000000004</v>
       </c>
       <c r="D469" s="6">
-        <v>8019.4750000000004</v>
+        <v>8000</v>
       </c>
       <c r="E469" s="7">
         <v>48668.669000000002</v>
@@ -40963,7 +40970,7 @@
         <v>515.11800000000005</v>
       </c>
       <c r="D470" s="6">
-        <v>8102.0879999999997</v>
+        <v>8000</v>
       </c>
       <c r="E470" s="7">
         <v>49533.404999999999</v>
@@ -41000,7 +41007,7 @@
         <v>515.12800000000004</v>
       </c>
       <c r="D471" s="6">
-        <v>8177.0889999999999</v>
+        <v>8000</v>
       </c>
       <c r="E471" s="7">
         <v>48913.131999999998</v>
@@ -41037,7 +41044,7 @@
         <v>515.14200000000005</v>
       </c>
       <c r="D472" s="6">
-        <v>8285.8829999999998</v>
+        <v>8000</v>
       </c>
       <c r="E472" s="7">
         <v>50593.057000000001</v>
@@ -41074,7 +41081,7 @@
         <v>515.04499999999996</v>
       </c>
       <c r="D473" s="6">
-        <v>8410.1489999999994</v>
+        <v>8000</v>
       </c>
       <c r="E473" s="7">
         <v>51071.51</v>
@@ -41111,7 +41118,7 @@
         <v>515.05100000000004</v>
       </c>
       <c r="D474" s="6">
-        <v>8563.5409999999993</v>
+        <v>8000</v>
       </c>
       <c r="E474" s="7">
         <v>52047.114999999998</v>
@@ -41146,7 +41153,7 @@
         <v>514.971</v>
       </c>
       <c r="D475" s="6">
-        <v>8526.6209999999992</v>
+        <v>8000</v>
       </c>
       <c r="E475" s="7">
         <v>51729.413</v>
@@ -41183,7 +41190,7 @@
         <v>515.25900000000001</v>
       </c>
       <c r="D476" s="6">
-        <v>8536.67</v>
+        <v>8000</v>
       </c>
       <c r="E476" s="7">
         <v>52254.928999999996</v>
@@ -41220,7 +41227,7 @@
         <v>515.09299999999996</v>
       </c>
       <c r="D477" s="6">
-        <v>8491.259</v>
+        <v>8000</v>
       </c>
       <c r="E477" s="7">
         <v>51654.345999999998</v>
@@ -41257,7 +41264,7 @@
         <v>515.1</v>
       </c>
       <c r="D478" s="6">
-        <v>8475.7790000000005</v>
+        <v>8000</v>
       </c>
       <c r="E478" s="7">
         <v>52132.4</v>
@@ -41294,7 +41301,7 @@
         <v>515.13800000000003</v>
       </c>
       <c r="D479" s="6">
-        <v>8287.7029999999995</v>
+        <v>8000</v>
       </c>
       <c r="E479" s="7">
         <v>51251.923999999999</v>
@@ -41331,7 +41338,7 @@
         <v>515.06200000000001</v>
       </c>
       <c r="D480" s="6">
-        <v>8479.2389999999996</v>
+        <v>8000</v>
       </c>
       <c r="E480" s="7">
         <v>51482.303</v>
@@ -41366,7 +41373,7 @@
         <v>515.19200000000001</v>
       </c>
       <c r="D481" s="6">
-        <v>8243.2950000000001</v>
+        <v>8000</v>
       </c>
       <c r="E481" s="7">
         <v>50865.821000000004</v>
@@ -41403,7 +41410,7 @@
         <v>515.16600000000005</v>
       </c>
       <c r="D482" s="6">
-        <v>8321.6460000000006</v>
+        <v>8000</v>
       </c>
       <c r="E482" s="7">
         <v>50820.470999999998</v>
@@ -41440,7 +41447,7 @@
         <v>515.03200000000004</v>
       </c>
       <c r="D483" s="6">
-        <v>8172.2979999999998</v>
+        <v>8000</v>
       </c>
       <c r="E483" s="7">
         <v>49688.500999999997</v>
@@ -41477,7 +41484,7 @@
         <v>515.00699999999995</v>
       </c>
       <c r="D484" s="6">
-        <v>8339.3369999999995</v>
+        <v>8000</v>
       </c>
       <c r="E484" s="7">
         <v>50798.271999999997</v>
@@ -41514,7 +41521,7 @@
         <v>515.04700000000003</v>
       </c>
       <c r="D485" s="6">
-        <v>8257.5419999999995</v>
+        <v>8000</v>
       </c>
       <c r="E485" s="7">
         <v>50589.406000000003</v>
@@ -41551,7 +41558,7 @@
         <v>515.05200000000002</v>
       </c>
       <c r="D486" s="6">
-        <v>8243.625</v>
+        <v>8000</v>
       </c>
       <c r="E486" s="7">
         <v>49664.366000000002</v>
@@ -41586,7 +41593,7 @@
         <v>514.94399999999996</v>
       </c>
       <c r="D487" s="6">
-        <v>8212.8919999999998</v>
+        <v>8000</v>
       </c>
       <c r="E487" s="7">
         <v>49630.735000000001</v>
@@ -41623,7 +41630,7 @@
         <v>514.96799999999996</v>
       </c>
       <c r="D488" s="6">
-        <v>8298.4220000000005</v>
+        <v>8000</v>
       </c>
       <c r="E488" s="7">
         <v>50459.576000000001</v>
@@ -41660,7 +41667,7 @@
         <v>515.08100000000002</v>
       </c>
       <c r="D489" s="6">
-        <v>8113.2250000000004</v>
+        <v>8000</v>
       </c>
       <c r="E489" s="7">
         <v>49315.845000000001</v>
@@ -41697,7 +41704,7 @@
         <v>514.91700000000003</v>
       </c>
       <c r="D490" s="6">
-        <v>8055.09</v>
+        <v>8000</v>
       </c>
       <c r="E490" s="7">
         <v>49023.582000000002</v>
@@ -41734,7 +41741,7 @@
         <v>515.04100000000005</v>
       </c>
       <c r="D491" s="6">
-        <v>7970.2929999999997</v>
+        <v>8000</v>
       </c>
       <c r="E491" s="7">
         <v>48190.508999999998</v>
@@ -41771,7 +41778,7 @@
         <v>514.76900000000001</v>
       </c>
       <c r="D492" s="6">
-        <v>8614.2189999999991</v>
+        <v>8000</v>
       </c>
       <c r="E492" s="7">
         <v>51464.411999999997</v>
@@ -41806,7 +41813,7 @@
         <v>514.78099999999995</v>
       </c>
       <c r="D493" s="6">
-        <v>8541.9069999999992</v>
+        <v>8000</v>
       </c>
       <c r="E493" s="7">
         <v>52179.624000000003</v>
@@ -41841,7 +41848,7 @@
         <v>514.80999999999995</v>
       </c>
       <c r="D494" s="6">
-        <v>8525.6820000000007</v>
+        <v>8000</v>
       </c>
       <c r="E494" s="7">
         <v>51034.987000000001</v>
@@ -41878,7 +41885,7 @@
         <v>514.85900000000004</v>
       </c>
       <c r="D495" s="6">
-        <v>8480.1479999999992</v>
+        <v>8000</v>
       </c>
       <c r="E495" s="7">
         <v>51664.76</v>
@@ -41913,7 +41920,7 @@
         <v>514.67499999999995</v>
       </c>
       <c r="D496" s="6">
-        <v>8403.6869999999999</v>
+        <v>8000</v>
       </c>
       <c r="E496" s="7">
         <v>51036.786999999997</v>
@@ -41950,7 +41957,7 @@
         <v>514.80399999999997</v>
       </c>
       <c r="D497" s="6">
-        <v>8533.3649999999998</v>
+        <v>8000</v>
       </c>
       <c r="E497" s="7">
         <v>51689.605000000003</v>
@@ -41985,7 +41992,7 @@
         <v>514.79700000000003</v>
       </c>
       <c r="D498" s="6">
-        <v>8579.8119999999999</v>
+        <v>8000</v>
       </c>
       <c r="E498" s="7">
         <v>51944.023000000001</v>
@@ -42022,7 +42029,7 @@
         <v>514.827</v>
       </c>
       <c r="D499" s="6">
-        <v>8702.4930000000004</v>
+        <v>8000</v>
       </c>
       <c r="E499" s="7">
         <v>52632.546999999999</v>
@@ -42057,7 +42064,7 @@
         <v>514.83000000000004</v>
       </c>
       <c r="D500" s="6">
-        <v>8640.8140000000003</v>
+        <v>8000</v>
       </c>
       <c r="E500" s="7">
         <v>52414.671000000002</v>
@@ -42094,7 +42101,7 @@
         <v>515.101</v>
       </c>
       <c r="D501" s="6">
-        <v>7460.4520000000002</v>
+        <v>8000</v>
       </c>
       <c r="E501" s="7">
         <v>45441.228999999999</v>
@@ -42129,7 +42136,7 @@
         <v>514.95299999999997</v>
       </c>
       <c r="D502" s="6">
-        <v>7619.0820000000003</v>
+        <v>8000</v>
       </c>
       <c r="E502" s="7">
         <v>45577.459000000003</v>
@@ -42166,7 +42173,7 @@
         <v>514.94000000000005</v>
       </c>
       <c r="D503" s="6">
-        <v>7566.6580000000004</v>
+        <v>8000</v>
       </c>
       <c r="E503" s="7">
         <v>45490.805</v>
@@ -42203,7 +42210,7 @@
         <v>515.00199999999995</v>
       </c>
       <c r="D504" s="6">
-        <v>7501.5</v>
+        <v>8000</v>
       </c>
       <c r="E504" s="7">
         <v>45691.442000000003</v>
@@ -42240,7 +42247,7 @@
         <v>514.95000000000005</v>
       </c>
       <c r="D505" s="6">
-        <v>7514.6180000000004</v>
+        <v>8000</v>
       </c>
       <c r="E505" s="7">
         <v>45294.114000000001</v>
@@ -42275,7 +42282,7 @@
         <v>515.03099999999995</v>
       </c>
       <c r="D506" s="6">
-        <v>7437.4340000000002</v>
+        <v>8000</v>
       </c>
       <c r="E506" s="7">
         <v>45033.559000000001</v>
@@ -42312,7 +42319,7 @@
         <v>514.96900000000005</v>
       </c>
       <c r="D507" s="6">
-        <v>7734.61</v>
+        <v>8000</v>
       </c>
       <c r="E507" s="7">
         <v>46452.67</v>
@@ -42349,7 +42356,7 @@
         <v>514.81299999999999</v>
       </c>
       <c r="D508" s="6">
-        <v>7478.5749999999998</v>
+        <v>8000</v>
       </c>
       <c r="E508" s="7">
         <v>45143.557999999997</v>
@@ -42386,7 +42393,7 @@
         <v>515.01400000000001</v>
       </c>
       <c r="D509" s="6">
-        <v>7560.65</v>
+        <v>8000</v>
       </c>
       <c r="E509" s="7">
         <v>45347.771999999997</v>
@@ -42421,7 +42428,7 @@
         <v>515.03099999999995</v>
       </c>
       <c r="D510" s="6">
-        <v>7572.34</v>
+        <v>8000</v>
       </c>
       <c r="E510" s="7">
         <v>46250.019</v>
@@ -42458,7 +42465,7 @@
         <v>514.88800000000003</v>
       </c>
       <c r="D511" s="6">
-        <v>7583.95</v>
+        <v>8000</v>
       </c>
       <c r="E511" s="7">
         <v>45586.514999999999</v>
@@ -42495,7 +42502,7 @@
         <v>515.01400000000001</v>
       </c>
       <c r="D512" s="6">
-        <v>7643.1040000000003</v>
+        <v>8000</v>
       </c>
       <c r="E512" s="7">
         <v>45892.438000000002</v>
@@ -42532,7 +42539,7 @@
         <v>515.11900000000003</v>
       </c>
       <c r="D513" s="6">
-        <v>7634.5929999999998</v>
+        <v>8000</v>
       </c>
       <c r="E513" s="7">
         <v>46059.351999999999</v>
@@ -42567,7 +42574,7 @@
         <v>515.01300000000003</v>
       </c>
       <c r="D514" s="6">
-        <v>7553.1229999999996</v>
+        <v>8000</v>
       </c>
       <c r="E514" s="7">
         <v>45316.836000000003</v>
@@ -42604,7 +42611,7 @@
         <v>515.053</v>
       </c>
       <c r="D515" s="6">
-        <v>7597.8429999999998</v>
+        <v>8000</v>
       </c>
       <c r="E515" s="7">
         <v>45982.83</v>
@@ -42641,7 +42648,7 @@
         <v>514.97500000000002</v>
       </c>
       <c r="D516" s="6">
-        <v>7486.8119999999999</v>
+        <v>8000</v>
       </c>
       <c r="E516" s="7">
         <v>44675.637999999999</v>
@@ -42678,7 +42685,7 @@
         <v>515.04999999999995</v>
       </c>
       <c r="D517" s="6">
-        <v>7906.24</v>
+        <v>8000</v>
       </c>
       <c r="E517" s="7">
         <v>48125.95</v>
@@ -42713,7 +42720,7 @@
         <v>515.10900000000004</v>
       </c>
       <c r="D518" s="6">
-        <v>7913.4160000000002</v>
+        <v>8000</v>
       </c>
       <c r="E518" s="7">
         <v>48081.24</v>
@@ -42750,7 +42757,7 @@
         <v>515.12599999999998</v>
       </c>
       <c r="D519" s="6">
-        <v>7869.6869999999999</v>
+        <v>8000</v>
       </c>
       <c r="E519" s="7">
         <v>48299.184000000001</v>
@@ -42787,7 +42794,7 @@
         <v>515.125</v>
       </c>
       <c r="D520" s="6">
-        <v>8028.6980000000003</v>
+        <v>8000</v>
       </c>
       <c r="E520" s="7">
         <v>48203.834999999999</v>
@@ -42824,7 +42831,7 @@
         <v>514.97799999999995</v>
       </c>
       <c r="D521" s="6">
-        <v>8212.6149999999998</v>
+        <v>8000</v>
       </c>
       <c r="E521" s="7">
         <v>49381.034</v>
@@ -42861,7 +42868,7 @@
         <v>515.12400000000002</v>
       </c>
       <c r="D522" s="6">
-        <v>8236.3880000000008</v>
+        <v>8000</v>
       </c>
       <c r="E522" s="7">
         <v>50054.453000000001</v>
@@ -42898,7 +42905,7 @@
         <v>515.04300000000001</v>
       </c>
       <c r="D523" s="6">
-        <v>8339.8850000000002</v>
+        <v>8000</v>
       </c>
       <c r="E523" s="7">
         <v>50281.072</v>
@@ -42933,7 +42940,7 @@
         <v>515.178</v>
       </c>
       <c r="D524" s="6">
-        <v>8255.9599999999991</v>
+        <v>8000</v>
       </c>
       <c r="E524" s="7">
         <v>49696.123</v>
@@ -42970,7 +42977,7 @@
         <v>515.17499999999995</v>
       </c>
       <c r="D525" s="6">
-        <v>8346.43</v>
+        <v>8000</v>
       </c>
       <c r="E525" s="7">
         <v>50343.205999999998</v>
@@ -43007,7 +43014,7 @@
         <v>515.10599999999999</v>
       </c>
       <c r="D526" s="6">
-        <v>8001.8710000000001</v>
+        <v>8000</v>
       </c>
       <c r="E526" s="7">
         <v>48606.247000000003</v>
@@ -43044,7 +43051,7 @@
         <v>515.18799999999999</v>
       </c>
       <c r="D527" s="6">
-        <v>8185.3779999999997</v>
+        <v>8000</v>
       </c>
       <c r="E527" s="7">
         <v>50575.875</v>
@@ -43081,7 +43088,7 @@
         <v>514.98800000000006</v>
       </c>
       <c r="D528" s="6">
-        <v>7920.65</v>
+        <v>8000</v>
       </c>
       <c r="E528" s="7">
         <v>48226.521999999997</v>
@@ -43118,7 +43125,7 @@
         <v>515.08199999999999</v>
       </c>
       <c r="D529" s="6">
-        <v>8091.8029999999999</v>
+        <v>8000</v>
       </c>
       <c r="E529" s="7">
         <v>49673.856</v>
@@ -43153,7 +43160,7 @@
         <v>515.02499999999998</v>
       </c>
       <c r="D530" s="6">
-        <v>8048.6120000000001</v>
+        <v>8000</v>
       </c>
       <c r="E530" s="7">
         <v>49306.25</v>
@@ -43190,7 +43197,7 @@
         <v>515.024</v>
       </c>
       <c r="D531" s="6">
-        <v>8300.3639999999996</v>
+        <v>8000</v>
       </c>
       <c r="E531" s="7">
         <v>49653.328000000001</v>
@@ -43227,7 +43234,7 @@
         <v>515.11699999999996</v>
       </c>
       <c r="D532" s="6">
-        <v>8010.0479999999998</v>
+        <v>8000</v>
       </c>
       <c r="E532" s="7">
         <v>48910.14</v>
@@ -43264,7 +43271,7 @@
         <v>515.14499999999998</v>
       </c>
       <c r="D533" s="6">
-        <v>8167.3209999999999</v>
+        <v>8000</v>
       </c>
       <c r="E533" s="7">
         <v>49236.338000000003</v>
@@ -43301,7 +43308,7 @@
         <v>514.99699999999996</v>
       </c>
       <c r="D534" s="6">
-        <v>8139.6639999999998</v>
+        <v>8000</v>
       </c>
       <c r="E534" s="7">
         <v>49441.815999999999</v>
@@ -43338,7 +43345,7 @@
         <v>515.02200000000005</v>
       </c>
       <c r="D535" s="6">
-        <v>7997.5659999999998</v>
+        <v>8000</v>
       </c>
       <c r="E535" s="7">
         <v>48836.966999999997</v>
@@ -43373,7 +43380,7 @@
         <v>515.10199999999998</v>
       </c>
       <c r="D536" s="6">
-        <v>7836.9319999999998</v>
+        <v>8000</v>
       </c>
       <c r="E536" s="7">
         <v>48158.856</v>
@@ -43410,7 +43417,7 @@
         <v>515.08399999999995</v>
       </c>
       <c r="D537" s="6">
-        <v>7985.9759999999997</v>
+        <v>8000</v>
       </c>
       <c r="E537" s="7">
         <v>48020.394999999997</v>
@@ -43447,7 +43454,7 @@
         <v>515.06600000000003</v>
       </c>
       <c r="D538" s="6">
-        <v>8048.8149999999996</v>
+        <v>8000</v>
       </c>
       <c r="E538" s="7">
         <v>48483.928999999996</v>
@@ -43484,7 +43491,7 @@
         <v>515.24099999999999</v>
       </c>
       <c r="D539" s="6">
-        <v>7521.5219999999999</v>
+        <v>8000</v>
       </c>
       <c r="E539" s="7">
         <v>46571.358999999997</v>
@@ -43521,7 +43528,7 @@
         <v>515.06899999999996</v>
       </c>
       <c r="D540" s="6">
-        <v>7547.2139999999999</v>
+        <v>8000</v>
       </c>
       <c r="E540" s="7">
         <v>46044.908000000003</v>
@@ -43558,7 +43565,7 @@
         <v>514.75300000000004</v>
       </c>
       <c r="D541" s="6">
-        <v>8257.5650000000005</v>
+        <v>8000</v>
       </c>
       <c r="E541" s="7">
         <v>50310.025999999998</v>
@@ -43593,7 +43600,7 @@
         <v>514.87</v>
       </c>
       <c r="D542" s="6">
-        <v>8175.3739999999998</v>
+        <v>8000</v>
       </c>
       <c r="E542" s="7">
         <v>49224.156000000003</v>
@@ -43628,7 +43635,7 @@
         <v>514.79200000000003</v>
       </c>
       <c r="D543" s="6">
-        <v>8272.6759999999995</v>
+        <v>8000</v>
       </c>
       <c r="E543" s="7">
         <v>50358.343000000001</v>
@@ -43665,7 +43672,7 @@
         <v>514.74300000000005</v>
       </c>
       <c r="D544" s="6">
-        <v>7945.8689999999997</v>
+        <v>8000</v>
       </c>
       <c r="E544" s="7">
         <v>48066.987999999998</v>
@@ -43700,7 +43707,7 @@
         <v>514.81100000000004</v>
       </c>
       <c r="D545" s="6">
-        <v>7715.92</v>
+        <v>8000</v>
       </c>
       <c r="E545" s="7">
         <v>47049.341999999997</v>
@@ -43737,7 +43744,7 @@
         <v>514.84299999999996</v>
       </c>
       <c r="D546" s="6">
-        <v>7873.7650000000003</v>
+        <v>8000</v>
       </c>
       <c r="E546" s="7">
         <v>47849.493000000002</v>
@@ -43772,7 +43779,7 @@
         <v>514.86199999999997</v>
       </c>
       <c r="D547" s="6">
-        <v>7880.1559999999999</v>
+        <v>8000</v>
       </c>
       <c r="E547" s="7">
         <v>47961.381000000001</v>
@@ -43809,7 +43816,7 @@
         <v>514.83500000000004</v>
       </c>
       <c r="D548" s="6">
-        <v>8282.9969999999994</v>
+        <v>8000</v>
       </c>
       <c r="E548" s="7">
         <v>50171.237999999998</v>
@@ -43844,7 +43851,7 @@
         <v>514.71799999999996</v>
       </c>
       <c r="D549" s="6">
-        <v>8105.6220000000003</v>
+        <v>8000</v>
       </c>
       <c r="E549" s="7">
         <v>48712.73</v>
@@ -43881,7 +43888,7 @@
         <v>514.81799999999998</v>
       </c>
       <c r="D550" s="6">
-        <v>7170.9960000000001</v>
+        <v>8000</v>
       </c>
       <c r="E550" s="7">
         <v>43128.125999999997</v>
@@ -43916,7 +43923,7 @@
         <v>514.90099999999995</v>
       </c>
       <c r="D551" s="6">
-        <v>7067.4960000000001</v>
+        <v>8000</v>
       </c>
       <c r="E551" s="7">
         <v>43095.732000000004</v>
@@ -43953,7 +43960,7 @@
         <v>514.76700000000005</v>
       </c>
       <c r="D552" s="6">
-        <v>7107.8280000000004</v>
+        <v>8000</v>
       </c>
       <c r="E552" s="7">
         <v>43000.38</v>
@@ -43990,7 +43997,7 @@
         <v>514.92700000000002</v>
       </c>
       <c r="D553" s="6">
-        <v>6974.95</v>
+        <v>8000</v>
       </c>
       <c r="E553" s="7">
         <v>42068.307000000001</v>
@@ -44027,7 +44034,7 @@
         <v>514.95799999999997</v>
       </c>
       <c r="D554" s="6">
-        <v>6763.7139999999999</v>
+        <v>8000</v>
       </c>
       <c r="E554" s="7">
         <v>41389.883999999998</v>
@@ -44062,7 +44069,7 @@
         <v>514.92499999999995</v>
       </c>
       <c r="D555" s="6">
-        <v>6525.5119999999997</v>
+        <v>8000</v>
       </c>
       <c r="E555" s="7">
         <v>39529.008000000002</v>
@@ -44099,7 +44106,7 @@
         <v>514.99699999999996</v>
       </c>
       <c r="D556" s="6">
-        <v>7235.8370000000004</v>
+        <v>8000</v>
       </c>
       <c r="E556" s="7">
         <v>43696.697999999997</v>
@@ -44136,7 +44143,7 @@
         <v>514.76800000000003</v>
       </c>
       <c r="D557" s="6">
-        <v>6943.6390000000001</v>
+        <v>8000</v>
       </c>
       <c r="E557" s="7">
         <v>41657.311000000002</v>
@@ -44173,7 +44180,7 @@
         <v>514.89499999999998</v>
       </c>
       <c r="D558" s="6">
-        <v>7221.0290000000005</v>
+        <v>8000</v>
       </c>
       <c r="E558" s="7">
         <v>43751.792000000001</v>
@@ -44208,7 +44215,7 @@
         <v>515.07100000000003</v>
       </c>
       <c r="D559" s="6">
-        <v>7196.6149999999998</v>
+        <v>8000</v>
       </c>
       <c r="E559" s="7">
         <v>43617.891000000003</v>
@@ -44245,7 +44252,7 @@
         <v>514.81200000000001</v>
       </c>
       <c r="D560" s="6">
-        <v>7223.8490000000002</v>
+        <v>8000</v>
       </c>
       <c r="E560" s="7">
         <v>43203.385000000002</v>
@@ -44282,7 +44289,7 @@
         <v>514.97500000000002</v>
       </c>
       <c r="D561" s="6">
-        <v>7420.4880000000003</v>
+        <v>8000</v>
       </c>
       <c r="E561" s="7">
         <v>45220.495999999999</v>
@@ -44319,7 +44326,7 @@
         <v>514.87199999999996</v>
       </c>
       <c r="D562" s="6">
-        <v>7358.0389999999998</v>
+        <v>8000</v>
       </c>
       <c r="E562" s="7">
         <v>44354.514999999999</v>
@@ -44354,7 +44361,7 @@
         <v>514.92399999999998</v>
       </c>
       <c r="D563" s="6">
-        <v>7280.509</v>
+        <v>8000</v>
       </c>
       <c r="E563" s="7">
         <v>43957.290999999997</v>
@@ -44391,7 +44398,7 @@
         <v>515.01800000000003</v>
       </c>
       <c r="D564" s="6">
-        <v>7201.4639999999999</v>
+        <v>8000</v>
       </c>
       <c r="E564" s="7">
         <v>44152.822</v>
@@ -44428,7 +44435,7 @@
         <v>514.86500000000001</v>
       </c>
       <c r="D565" s="6">
-        <v>7040.1450000000004</v>
+        <v>8000</v>
       </c>
       <c r="E565" s="7">
         <v>42197.618000000002</v>
@@ -44465,7 +44472,7 @@
         <v>515.26199999999994</v>
       </c>
       <c r="D566" s="6">
-        <v>7708.93</v>
+        <v>8000</v>
       </c>
       <c r="E566" s="7">
         <v>46816.974000000002</v>
@@ -44500,7 +44507,7 @@
         <v>514.98299999999995</v>
       </c>
       <c r="D567" s="6">
-        <v>7786.0349999999999</v>
+        <v>8000</v>
       </c>
       <c r="E567" s="7">
         <v>46759.535000000003</v>
@@ -44537,7 +44544,7 @@
         <v>515.16700000000003</v>
       </c>
       <c r="D568" s="6">
-        <v>7358.4830000000002</v>
+        <v>8000</v>
       </c>
       <c r="E568" s="7">
         <v>44462.074999999997</v>
@@ -44574,7 +44581,7 @@
         <v>515.14499999999998</v>
       </c>
       <c r="D569" s="6">
-        <v>7463.7910000000002</v>
+        <v>8000</v>
       </c>
       <c r="E569" s="7">
         <v>46102.442999999999</v>
@@ -44611,7 +44618,7 @@
         <v>514.86599999999999</v>
       </c>
       <c r="D570" s="6">
-        <v>7376.076</v>
+        <v>8000</v>
       </c>
       <c r="E570" s="7">
         <v>45550.332999999999</v>
@@ -44648,7 +44655,7 @@
         <v>515.05399999999997</v>
       </c>
       <c r="D571" s="6">
-        <v>7258.5879999999997</v>
+        <v>8000</v>
       </c>
       <c r="E571" s="7">
         <v>44885.466</v>
@@ -44685,7 +44692,7 @@
         <v>514.947</v>
       </c>
       <c r="D572" s="6">
-        <v>7428.5150000000003</v>
+        <v>8000</v>
       </c>
       <c r="E572" s="7">
         <v>44770.902000000002</v>
@@ -44720,7 +44727,7 @@
         <v>514.89599999999996</v>
       </c>
       <c r="D573" s="6">
-        <v>7462.8689999999997</v>
+        <v>8000</v>
       </c>
       <c r="E573" s="7">
         <v>45602.712</v>
@@ -44757,7 +44764,7 @@
         <v>515.03300000000002</v>
       </c>
       <c r="D574" s="6">
-        <v>7421.3119999999999</v>
+        <v>8000</v>
       </c>
       <c r="E574" s="7">
         <v>45177.637000000002</v>
@@ -44794,7 +44801,7 @@
         <v>514.93899999999996</v>
       </c>
       <c r="D575" s="6">
-        <v>7133.7139999999999</v>
+        <v>8000</v>
       </c>
       <c r="E575" s="7">
         <v>43945.285000000003</v>
@@ -44831,7 +44838,7 @@
         <v>514.947</v>
       </c>
       <c r="D576" s="6">
-        <v>7608.8190000000004</v>
+        <v>8000</v>
       </c>
       <c r="E576" s="7">
         <v>47103.451999999997</v>
@@ -44868,7 +44875,7 @@
         <v>514.94600000000003</v>
       </c>
       <c r="D577" s="6">
-        <v>6999.0879999999997</v>
+        <v>8000</v>
       </c>
       <c r="E577" s="7">
         <v>43588.957000000002</v>
@@ -44905,7 +44912,7 @@
         <v>514.84699999999998</v>
       </c>
       <c r="D578" s="6">
-        <v>7358.2120000000004</v>
+        <v>8000</v>
       </c>
       <c r="E578" s="7">
         <v>45487.381999999998</v>
@@ -44940,7 +44947,7 @@
         <v>514.899</v>
       </c>
       <c r="D579" s="6">
-        <v>7447.625</v>
+        <v>8000</v>
       </c>
       <c r="E579" s="7">
         <v>45941.377999999997</v>
@@ -44977,7 +44984,7 @@
         <v>515.1</v>
       </c>
       <c r="D580" s="6">
-        <v>7718.28</v>
+        <v>8000</v>
       </c>
       <c r="E580" s="7">
         <v>47433.485000000001</v>
@@ -45014,7 +45021,7 @@
         <v>514.97500000000002</v>
       </c>
       <c r="D581" s="6">
-        <v>7742.6589999999997</v>
+        <v>8000</v>
       </c>
       <c r="E581" s="7">
         <v>46942.936000000002</v>
@@ -45051,7 +45058,7 @@
         <v>514.99099999999999</v>
       </c>
       <c r="D582" s="6">
-        <v>7768.2579999999998</v>
+        <v>8000</v>
       </c>
       <c r="E582" s="7">
         <v>47809.046000000002</v>
@@ -45088,7 +45095,7 @@
         <v>515.01800000000003</v>
       </c>
       <c r="D583" s="6">
-        <v>7818.1530000000002</v>
+        <v>8000</v>
       </c>
       <c r="E583" s="7">
         <v>47972.167000000001</v>
@@ -45125,7 +45132,7 @@
         <v>515.077</v>
       </c>
       <c r="D584" s="6">
-        <v>7755.134</v>
+        <v>8000</v>
       </c>
       <c r="E584" s="7">
         <v>47813.578000000001</v>
@@ -45160,7 +45167,7 @@
         <v>514.96900000000005</v>
       </c>
       <c r="D585" s="6">
-        <v>7787.2560000000003</v>
+        <v>8000</v>
       </c>
       <c r="E585" s="7">
         <v>46933.544000000002</v>
@@ -45197,7 +45204,7 @@
         <v>514.90499999999997</v>
       </c>
       <c r="D586" s="6">
-        <v>7852.5910000000003</v>
+        <v>8000</v>
       </c>
       <c r="E586" s="7">
         <v>48173.099000000002</v>
@@ -45234,7 +45241,7 @@
         <v>514.94500000000005</v>
       </c>
       <c r="D587" s="6">
-        <v>7711.9070000000002</v>
+        <v>8000</v>
       </c>
       <c r="E587" s="7">
         <v>47376.781000000003</v>
@@ -45271,7 +45278,7 @@
         <v>514.97199999999998</v>
       </c>
       <c r="D588" s="6">
-        <v>7647.7449999999999</v>
+        <v>8000</v>
       </c>
       <c r="E588" s="7">
         <v>46636.453999999998</v>
@@ -45308,7 +45315,7 @@
         <v>514.84100000000001</v>
       </c>
       <c r="D589" s="6">
-        <v>7390.4840000000004</v>
+        <v>8000</v>
       </c>
       <c r="E589" s="7">
         <v>44696.92</v>

--- a/examples/data_inline.xlsx
+++ b/examples/data_inline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VL251876\Documents\Python\SPECTROview-1\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38FB2F3-3BBB-4F70-B53C-9BE63C47DB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C119CD41-17A7-4967-B8AC-623A168F988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43035" yWindow="1755" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23793,8 +23793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4DAA12-D9A6-4C89-A6AF-803390C58A71}">
   <dimension ref="A1:N589"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="H318" sqref="H318:K327"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23839,7 +23839,7 @@
       <c r="M1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
